--- a/archivos_para_importacion/copa-tic_tablero.xlsx
+++ b/archivos_para_importacion/copa-tic_tablero.xlsx
@@ -10,61 +10,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="I1">
-      <text>
-        <t xml:space="preserve">+tomasbergero@abc.gob.ar 
-Tomás, estoy armando el importador de datos, para volvar esta planilla a la base de datos.
-Según entendí, la actividad va a tener un Título, una descripción y un link. Faltaría agregar las columnas Título y Descripción a cada Actividad.
-_Asignada a Tomas Bergero Trpin_
-	-Iván Hoffmann
-Agregué las dos columnas a la actividad 1 como ejemplo, para que queden todas en ese orden: Actividad 1 - Titulo 1 - Descripción 1 - Link 1
-	-Iván Hoffmann
-Listo Ivan!
-El 29 de mayo de 2018, 15:06, Iván Hoffmann (Hojas de cálculo de Google) &lt;
-	-Tomas Bergero Trpin
-Buenísimo, gracias!
-	-Iván Hoffmann
-+tomasbergero@abc.gob.ar una duda: Los títulos y descripciones, en esta tabla, son los que van a poner cada equipo a su trabajo?
-	-Iván Hoffmann
-Me parece que para no complicarla mucho vamos a estandarizar títulos y descripciones. Lo único que va a ser distinto es el enlace.
-	-Tomas Bergero Trpin
-Ok, por favor, confirmame cuanto antes si va a quedar así, solo link o no, porque tengo que definir cómo armar los modelos de datos y me cambia bastante si es con títulos y descripciones fijas o no. Para mi mejor si son estandard y listo.
-	-Iván Hoffmann
-Que sean todos estandard
-	-Tomas Bergero Trpin
-Perfecto.
-Una más. Que coincida el orden del listado de actividades (la planilla Actividades, puntos) con esta planilla.
-En Actividades, Mapa Interactivo es la primera actividad y acá es la segunda. Cuál es el orden correcto?
-	-Iván Hoffmann
-Está bien, respetamos el del listado. Me había olvidado completamente
-	-Tomas Bergero Trpin
-Perfecto. Si los títulos y descripciones quedan standard, las columnas acá no hacen falta, así que las saco.
-Faltaría completar las insignias que tiene cada actividad en la otra planilla.
-	-Iván Hoffmann
-Dale, entre hoy y mañana termino de definir eso.
-	-Tomas Bergero Trpin
-Buenísimo, gracias!
-	-Iván Hoffmann
-Listo Ivan, ya las definí. Vas a ver que algunas no tienen insignias y hay
-una sola que tiene dos.
-Me gustaría reordenarlas, ¿Es mucho lío?
-Avisame asi lo resolvemos mañana mismo
-El 31 de mayo de 2018, 15:31, Iván Hoffmann (Hojas de cálculo de Google) &lt;
-	-Tomas Bergero Trpin</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="644">
   <si>
     <t>N°</t>
   </si>
@@ -201,6 +148,12 @@
     <t>Cecilia Crisólogo</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1UQjbotKP71tqIJLBig9aXBKJJ-jB0dyK/view</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aUJDVJNGBHY&amp;feature=youtu.be</t>
+  </si>
+  <si>
     <t>a02</t>
   </si>
   <si>
@@ -231,6 +184,18 @@
     <t>https://soundcloud.com/user-305611046/aud-20180624-wa0001-2</t>
   </si>
   <si>
+    <t>https://soundcloud.com/user-305611046/aud-20180629-wa00101</t>
+  </si>
+  <si>
+    <t>https://ar.pinterest.com/stellayza/la-alegria-y-la-tristeza-del-mundial-78/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1w7t4jipgV5VOtwyOr21uXqj-O8WaD6OqGEEbflDqdh4/edit#slide=id.g3b70900641_0_203</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZRdWV8YTryk&amp;feature=youtu.be</t>
+  </si>
+  <si>
     <t>a04</t>
   </si>
   <si>
@@ -279,6 +244,15 @@
     <t>https://soundcloud.com/user-20873198/relato-ep62-un-campeon</t>
   </si>
   <si>
+    <t xml:space="preserve">https://soundcloud.com/user-20873198/aud-20180629-wa0014-m4a </t>
+  </si>
+  <si>
+    <t>http://ar.pinterest.com/mjuliagelp/escuela-secundaria-62</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qitdbCfqS-I</t>
+  </si>
+  <si>
     <t>a09</t>
   </si>
   <si>
@@ -312,6 +286,18 @@
     <t>https://soundcloud.com/maria-jose-cennamo/el-campeon-inesperado-11tm-enspa</t>
   </si>
   <si>
+    <t>https://soundcloud.com/jazmin-duarte-mell/6to-3ra-tm-enspa-n-18</t>
+  </si>
+  <si>
+    <t>https://ar.pinterest.com/tatyyytorres12/mundial-de-1978/?sender=698761835842662228&amp;invite_code=64844a167256402eb29486579be49f24</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1wo5CIaXLaLGyQvkhXILUAre9m1aiDuG8p_i-Rdcc5NE/edit#slide=id.p</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KF_0IZTSSXI&amp;feature=youtu.be</t>
+  </si>
+  <si>
     <t>a11</t>
   </si>
   <si>
@@ -336,6 +322,18 @@
     <t>http://telegra.ph/APROBADOS-O-A-MARZO-06-26</t>
   </si>
   <si>
+    <t>https://soundcloud.com/user-438502072/de-cabalas-y-otras-yerbas</t>
+  </si>
+  <si>
+    <t>https://ar.pinterest.com/catalinaolibera/gauchito/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1GwSclTGRNRNk_sB6mVSbKHl-5WSY3_hJaw4y2joeNpM/edit</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-c2NWbaZqR4&amp;feature=youtu.be</t>
+  </si>
+  <si>
     <t>a12</t>
   </si>
   <si>
@@ -360,6 +358,18 @@
     <t>https://soundcloud.com/user-395299479/f1d4-el-campeon-inesperado.</t>
   </si>
   <si>
+    <t>https://soundcloud.com/user-395299479/f2d1-cabalas-ees-1</t>
+  </si>
+  <si>
+    <t>https://ar.pinterest.com/alezappulla/testimonios-mundial-argentina-78/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1Rn7UJQaqUn1vHEMDr4dPhhwC-J27IoqC8INS1JRxm2U/edit#slide=id.g3b70900641_0_0</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/user-734302673/remix-mundial-escuela-secundaria-n1</t>
+  </si>
+  <si>
     <t>a13</t>
   </si>
   <si>
@@ -429,6 +439,12 @@
     <t>https://soundcloud.com/julieta-vieta/relato-turno-manana-secundaria-24-cup-russia-2018</t>
   </si>
   <si>
+    <t>https://www.pinterest.com/julietavieta/mundial-78/?sender=853995285498658800&amp;invite_code=a2bfddf1edc94531972129d3bc7aeaf9</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C99PX7wZJpk&amp;feature=youtu.be</t>
+  </si>
+  <si>
     <t>a20</t>
   </si>
   <si>
@@ -477,6 +493,18 @@
     <t>https://soundcloud.com/nticx-secundaria-9/whatsapp-audio-2018-06-25-at-30958-pm</t>
   </si>
   <si>
+    <t>https://soundcloud.com/nticx-secundaria-9/de-cabalasy-otras-yerbas-wav1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DEPGYgTI5_imVQlB49IXOh4XuHteh5dZ/view</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LVnAUF1JlBzB-pxYigsHgKgbotBHBKEo/view</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yH-p3ib-Y7AkOjahBUQAM4d45pJ44YQH/view</t>
+  </si>
+  <si>
     <t>a26</t>
   </si>
   <si>
@@ -507,6 +535,18 @@
     <t>https://soundcloud.com/emanuel-sormani/desafio-f1d4-el-campeon</t>
   </si>
   <si>
+    <t>https://soundcloud.com/emanuel-sormani/de-cabalas-y-otras-yerbas</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.com/jlanza2003/a%C3%B1o-1978/?sender=844073292569606048&amp;invite_code=753e829b3f674822a054160aa04e6491</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1StKLUo10kD4nPG5iQNe2ApxHVQSNe6lFwVb5oFU8Tb0/edit</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vA9zVEv7Zr4</t>
+  </si>
+  <si>
     <t>a28</t>
   </si>
   <si>
@@ -543,6 +583,15 @@
     <t>http://telegra.ph/Cr%C3%B3nica-de-un-mundial-06-25-3</t>
   </si>
   <si>
+    <t>https://soundcloud.com/natalia-alvarez-7684190/cabalas-marcos-sastre-tigre</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.com/claralacoque/el-mundial-del-78-y-la-dictadura/?sender=636907709710564487&amp;invite_code=8899720fb5734752afea5054babe82d7</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iecwVEIfgl8&amp;feature=youtu.be</t>
+  </si>
+  <si>
     <t>a32</t>
   </si>
   <si>
@@ -591,6 +640,9 @@
     <t>https://soundcloud.com/user-179915824/voz-024-sd</t>
   </si>
   <si>
+    <t>https://docs.google.com/presentation/d/1a0gbfGdPDL5Dr-cRc7wqsDFGJrU3cAJTczsaVXrEtg8/edit#slide=id.g3b70900641_0_0</t>
+  </si>
+  <si>
     <t>a36</t>
   </si>
   <si>
@@ -633,6 +685,15 @@
     <t>https://pin.it/7aqd7zukwdwmij</t>
   </si>
   <si>
+    <t>https://soundcloud.com/user-455634228/kabbalah</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/user-455634228/encuesta-mundial-78-en-primera-persona</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BZ9LuB0l0r8&amp;feature=youtu.be</t>
+  </si>
+  <si>
     <t>a40</t>
   </si>
   <si>
@@ -675,7 +736,16 @@
     <t>http://telegra.ph/El-mundial-en-m%C3%AD-escuela-06-28</t>
   </si>
   <si>
-    <t xml:space="preserve">https://soundcloud.com/user-378285374 </t>
+    <t>https://soundcloud.com/user-378285374/pistas-de-viernes-por-la-1</t>
+  </si>
+  <si>
+    <t>https://ar.pinterest.com/Danlucca/mundial-78/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0B7KeBde3m0nddDhCMEdzT3JmMUNFSTdBZmh3bzhEUDlxLWl3</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3tG-xBqf0Pg&amp;feature=youtu.be</t>
   </si>
   <si>
     <t>a44</t>
@@ -708,6 +778,9 @@
     <t>http://telegra.ph/Un-grito-de-gol-06-26</t>
   </si>
   <si>
+    <t>https://ar.pinterest.com/rociopamelas/el-mundial-78-en-primera-persona/</t>
+  </si>
+  <si>
     <t>a47</t>
   </si>
   <si>
@@ -750,6 +823,18 @@
     <t>https://soundcloud.com/escuela-trece/el-campeon-inesperado</t>
   </si>
   <si>
+    <t>https://soundcloud.com/escuela-trece/cabalas</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.com/losaudaces13/el-mundial-78-en-primera-persona/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1OW9C6IjDUXYKQaa5V2Rt718IWkY7UFgCsnMVQCE2ALI/edit#slide=id.g3b70900641_0_0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P5l9C2SQLr4&amp;feature=youtu.be</t>
+  </si>
+  <si>
     <t>a50</t>
   </si>
   <si>
@@ -783,6 +868,15 @@
     <t>https://soundcloud.com/user-170790997/relato-mundial-turno-manana</t>
   </si>
   <si>
+    <t>https://soundcloud.com/user-170790997/soy-argentino-es-un-sentimiento-no-puedo-parar-deutschland-argentinien-in-frankfurt</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1cJZZZb6LhoUCBAQaKJfIrqPnKaZwAVHy1a2zZmhQ8zY/edit#slide=id.g3a394584c0_2_2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=g-8zaZaq8Vw&amp;feature=youtu.be</t>
+  </si>
+  <si>
     <t>a52</t>
   </si>
   <si>
@@ -819,6 +913,12 @@
     <t>https://soundcloud.com/maria-martha-curiale/audio-relato-radial</t>
   </si>
   <si>
+    <t>https://soundcloud.com/maria-martha-curiale/audio-cabala</t>
+  </si>
+  <si>
+    <t>https://ar.pinterest.com/maramarthacuriale/mundial-78/</t>
+  </si>
+  <si>
     <t>a54</t>
   </si>
   <si>
@@ -840,6 +940,9 @@
     <t>Matías Agustín Marquez</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=qhWJ4zAtmHQ</t>
+  </si>
+  <si>
     <t>a56</t>
   </si>
   <si>
@@ -885,6 +988,18 @@
     <t>https://soundcloud.com/mariano-monges/whatsapp-audio-2018-06-25-at-095645</t>
   </si>
   <si>
+    <t>https://soundcloud.com/mariano-monges/audio-ingles</t>
+  </si>
+  <si>
+    <t>https://ar.pinterest.com/denisepierini16/testimonios-del-mundial-1978/?sender=597571581715207649&amp;invite_code=aa536806050f417fbd244bda17e21081</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1RVZ5QG0yk33A6Y6yPCBhzR7F7QMaPFgzx2kwv24P9hc/edit#slide=id.g3b70900641_0_0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0DdZijWkQ5E&amp;feature=youtu.be</t>
+  </si>
+  <si>
     <t>a61</t>
   </si>
   <si>
@@ -906,6 +1021,12 @@
     <t>https://soundcloud.com/xiomara-bodano/el-campeon-inesperado/s-KJy3l</t>
   </si>
   <si>
+    <t>https://docs.google.com/presentation/d/1ZDZ8kVKrXkmVUJknd6LAWk0PWS9UmcfPPL9Jgb9IC-w/edit#slide=id.p1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fGXhBiVLAGg&amp;feature=youtu.be</t>
+  </si>
+  <si>
     <t>a62</t>
   </si>
   <si>
@@ -942,6 +1063,18 @@
     <t>https://soundcloud.com/josefina-melo/un-campeon-inesperado-ees-20-lujan</t>
   </si>
   <si>
+    <t>https://soundcloud.com/josefina-melo/cabalas-para-ver-el-partido</t>
+  </si>
+  <si>
+    <t>https://ar.pinterest.com/joosefinamelo/mundial-del-78/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/19U2RpHR7KG24poXvPgqp17iz-3D_mL2z6VBsok0DR8g/edit#slide=id.g3b70900641_0_0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/YRfBaVH1qPQ</t>
+  </si>
+  <si>
     <t>a64</t>
   </si>
   <si>
@@ -963,6 +1096,15 @@
     <t>https://soundcloud.com/user-977798890/tecnica4audio</t>
   </si>
   <si>
+    <t>http://telegra.ph/CABALA-07-04</t>
+  </si>
+  <si>
+    <t>http://telegra.ph/Entrevista-del-mundial-de-1978-07-04</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1xHIR9xKRMVZsI2bTs3iTvwv6gQJnlaJJzWNXeGhN4kc/edit</t>
+  </si>
+  <si>
     <t>a65</t>
   </si>
   <si>
@@ -987,6 +1129,18 @@
     <t>https://soundcloud.com/yanina-rivero-514069365/campeon-inesperado</t>
   </si>
   <si>
+    <t>https://soundcloud.com/yanina-rivero-514069365/de-cabalas-y-otras-yerbas</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.com/yaninarivero8/mundial-78/?sender=755830887370817088&amp;invite_code=3a381788773a4b32a21d4ff2f3005489</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1d5RBRyZ09VM_8LlU_euex3CIClQbhEVVH2g-aHG1XAw/edit#slide=id.g3b70900641_0_0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ecE6KCTaI1s&amp;feature=youtu.be</t>
+  </si>
+  <si>
     <t>a66</t>
   </si>
   <si>
@@ -1023,6 +1177,18 @@
     <t>http://telegra.ph/La-61-El-otro-mundial-06-23</t>
   </si>
   <si>
+    <t>https://soundcloud.com/pablo-cuadra-408740451/de-cabalas-y-otras-yerbas</t>
+  </si>
+  <si>
+    <t>https://ar.pinterest.com/luciana6to/mundial-78-en-primera-persona/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1kte4IHqJsWHASG9viNWfsKQYFKQlfpmw0kDE9nQKgPg/edit#slide=id.g3b70900641_0_0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/GQEqrqrINw0</t>
+  </si>
+  <si>
     <t>a68</t>
   </si>
   <si>
@@ -1038,6 +1204,18 @@
     <t>https://drive.google.com/open?id=10JAZMXRF3SSGgR8vR-q9vV_q1_kBcEuV&amp;usp=sharing</t>
   </si>
   <si>
+    <t>https://docs.google.com/document/d/1euqBxMbiqmbL6rQz46wG9yIxDejh1ujkgtR6t9o0h1k/edit</t>
+  </si>
+  <si>
+    <t>https://pin.it/ajoez3rnd4qqdm</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1nx5wHGQc8woBLq6oLBHfTpaTDYld8GcDwci4x0WhW80/edit</t>
+  </si>
+  <si>
+    <t>https://youtu.be/sLBBKYIbSvI</t>
+  </si>
+  <si>
     <t>a69</t>
   </si>
   <si>
@@ -1062,6 +1240,18 @@
     <t>https://soundcloud.com/user-605442014/relato-radial-copatic-nel</t>
   </si>
   <si>
+    <t>https://soundcloud.com/user-605442014/cabalas-ees2-tsas</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.com/guillerminaandrea/testimonios-mundial-78-copatic/?sender=750482862813260053&amp;invite_code=95cff0d090d1470b913f01922b91cf38</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/15fGYKhN4PBGBBFipw5cFxgCOys8zdD9Ktq8eaqVPdlg/edit#slide=id.g3b70900641_0_0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uHGxn2v2gcw&amp;feature=youtu.be</t>
+  </si>
+  <si>
     <t>a70</t>
   </si>
   <si>
@@ -1086,6 +1276,18 @@
     <t>https://soundcloud.com/valeria-cricco/audio-2018-06-26-19-30-05</t>
   </si>
   <si>
+    <t>https://soundcloud.com/valeria-cricco/de-cabalas-y-otras-yerbas-mateo-lavin</t>
+  </si>
+  <si>
+    <t>https://pin.it/dw35pfhjhoc5gi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rv4IeQjZ-xPgme35SB-ry2pmz-7F4hjo/view</t>
+  </si>
+  <si>
+    <t>https://youtu.be/TPbpDWu4PTg</t>
+  </si>
+  <si>
     <t>a71</t>
   </si>
   <si>
@@ -1155,6 +1357,12 @@
     <t>https://soundcloud.com/user-955692479/final-francia-egipto</t>
   </si>
   <si>
+    <t>https://docs.google.com/presentation/d/1aH4ogB50ejpcHWE9nqvkIK7Gnoaq63iJxFzmfrct5aU/edit#slide=id.g3a3f5f2f0e_1_5</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VHOiD1kHnBA&amp;feature=youtu.be</t>
+  </si>
+  <si>
     <t>b11</t>
   </si>
   <si>
@@ -1209,6 +1417,18 @@
     <t>https://soundcloud.com/jose-luis-cabrera-441472195/relato-mexico-campeon-rusia-2018-turno-tarde-ees-n-24</t>
   </si>
   <si>
+    <t xml:space="preserve">https://soundcloud.com/jose-luis-cabrera-441472195/cabalas-62 </t>
+  </si>
+  <si>
+    <t>https://www.pinterest.com/rodrigomaximilianog/el-mundial-78-en-primera-persona/?sender=621215479758930300&amp;invite_code=f4e5c18a61224077809d8ad6b967f95c</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1zvj8FUWrK37DV9Fzs2toHviofQnSmLAsBc7znnNkwlM/edit#slide=id.g3b70900641_0_0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zJeUOfJIU1k&amp;feature=youtu.be</t>
+  </si>
+  <si>
     <t>b20</t>
   </si>
   <si>
@@ -1263,6 +1483,15 @@
     <t>https://soundcloud.com/natalia-alvarez-7684190/la-final-que-no-esperabamos_t</t>
   </si>
   <si>
+    <t>https://www.pinterest.com/silsantucho/copa-tic-mundial-78-en-primera-persona/?sender=309059730586871896&amp;invite_code=b1d9d0bfc2974897b6d7482c5312abf7</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1bh8XLANJ5EcozYCqj8_cDRL8kV5isNHb4Q7rdnzjF7c/edit#slide=id.g3b70900641_0_0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UCffXMVxYrY&amp;feature=youtu.be</t>
+  </si>
+  <si>
     <t>b32</t>
   </si>
   <si>
@@ -1350,6 +1579,12 @@
     <t>https://soundcloud.com/romina-ferreira-grau/audio-uruguay-campeon</t>
   </si>
   <si>
+    <t>https://ar.pinterest.com/secundaria19/mundial-78/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o1NnqfvXdCo</t>
+  </si>
+  <si>
     <t>b44</t>
   </si>
   <si>
@@ -1374,6 +1609,12 @@
     <t>https://soundcloud.com/pame-rs-952810360/whatsapp-video-2018-06-22-at-205249</t>
   </si>
   <si>
+    <t>https://docs.google.com/presentation/d/1FDCdAhM6hoQiOienv-RUkFFreWJPT_ChJQaqhzZ5NBE/edit#slide=id.g3b70900641_0_0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Y9Y0j-Q8M-rQ5PBydxgRcjzcLzJkRfpS</t>
+  </si>
+  <si>
     <t>b47</t>
   </si>
   <si>
@@ -1422,6 +1663,18 @@
     <t>https://soundcloud.com/alina-gallo-392775359/relato-mundial-turno-manana-tarde</t>
   </si>
   <si>
+    <t>https://soundcloud.com/alina-gallo-372924026/desafio-de-cabalas-y-otras-yerbas</t>
+  </si>
+  <si>
+    <t>https://ar.pinterest.com/alinagallo73/la-argentina-del-mundial-78/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1Xa06eoI0cZ7_WQfFCKLU3G6H1sFtsdYZJSAXze_iKzI/edit?pli=1#slide=id.g3b70900641_0_0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tLcQJV3y4vA&amp;feature=youtu.be</t>
+  </si>
+  <si>
     <t>b52</t>
   </si>
   <si>
@@ -1470,6 +1723,18 @@
     <t>https://soundcloud.com/tuti-59759330/la-final</t>
   </si>
   <si>
+    <t>https://soundcloud.com/tuti-59759330/audio-6to-d</t>
+  </si>
+  <si>
+    <t>https://ar.pinterest.com/virginia938584/copa-mundial-78/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1pSBPU5I2A6UlLSkxFiCoMWiMpPvb3aVi4lAMDp0-F1U/edit#slide=id.g3b70900641_0_0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/E7FJe6PHKaQ</t>
+  </si>
+  <si>
     <t>b57</t>
   </si>
   <si>
@@ -1488,6 +1753,18 @@
     <t>https://soundcloud.com/user-522317024/relato</t>
   </si>
   <si>
+    <t>https://soundcloud.com/user-522317024/audio-de-cabala</t>
+  </si>
+  <si>
+    <t>https://ar.pinterest.com/ramip_2005/el-mundial-78-en-primera-persona-ees-24/?sender=757519737231080501&amp;invite_code=023836d8a1c74fbd913cd1f94d71dad9</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1X6IG-7KNNNwfJnaezmNR5Xr-P01X-cqn/view</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GWWHl4qI92rPpvi2Xl3fPIB9c0n9X6MB/view?usp=sharing</t>
+  </si>
+  <si>
     <t>b58</t>
   </si>
   <si>
@@ -1503,6 +1780,9 @@
     <t>https://soundcloud.com/user-734302673/el-campeon-inesperado-eest-n1</t>
   </si>
   <si>
+    <t>https://i.imgur.com/6mlA5Eg.png</t>
+  </si>
+  <si>
     <t>b59</t>
   </si>
   <si>
@@ -1521,6 +1801,18 @@
     <t>https://soundcloud.com/claudio-gonzalez-952449221/audioees3lasflores</t>
   </si>
   <si>
+    <t>https://soundcloud.com/claudio-gonzalez-952449221/cabalaees3</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.com/epifanio747/recuerdo-mundial-78/?sender=859835891265307383&amp;invite_code=af8c468806974b25bc2a87a02c0adc93</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/132brMl82DsGMORjcc3Sfwsj0mCKAXLIY/view</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iQ4DeIfOlvE&amp;feature=youtu.be</t>
+  </si>
+  <si>
     <t>b60</t>
   </si>
   <si>
@@ -1566,6 +1858,18 @@
     <t>https://soundcloud.com/user-734302673/el-campeon-inesperado-por-eest-n1-de-monte-hermoso</t>
   </si>
   <si>
+    <t>https://soundcloud.com/user-124517433/aud-20180702-wa0004</t>
+  </si>
+  <si>
+    <t>https://ar.pinterest.com/fiordellimirella00/el-mundial-78-en-primera-persona-escuela-secundari/?sender=753649456301300225&amp;invite_code=721c0142e5134191b55ec28007e37bb0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19-uzFfJG9yrtyEMkD3avPWvHnm3jgFiY/view</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=15ivOqxAURAYECYtezJwlR-nCpAV7CJsQ</t>
+  </si>
+  <si>
     <t>b67</t>
   </si>
   <si>
@@ -1587,6 +1891,18 @@
     <t>https://soundcloud.com/user-558064627-674428752/audio-copatic-francia-vs-mexico-2018</t>
   </si>
   <si>
+    <t>https://soundcloud.com/user-558064627-674428752/de-cabalas-y-otras-hierbas</t>
+  </si>
+  <si>
+    <t>https://ar.pinterest.com/larochidmdp/el-mundial-78-en-primera-persona/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1QlT-52ijNl5lujiPjqXJluIt1Nvnpk7-5eUozj1PdFs/edit#slide=id.g3a4571af9b_0_0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7BoWdkqLHbc&amp;authuser=0</t>
+  </si>
+  <si>
     <t>b68</t>
   </si>
   <si>
@@ -1606,6 +1922,18 @@
   </si>
   <si>
     <t>https://soundcloud.com/user-605442014/campeon-inesperado-equipo-club-estudiantil-ees2</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/user-826697819/cabalas-club-estudiantil</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.com/guillerminaandrea/testimonios-copatic-club-estudiantil/?sender=750482862813260053&amp;invite_code=99fd2eeb80c74b978d2bf9c3492afcb7</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1ErDVkTuoJSF0D1upE23EfpE-L_PDFcWMPGdZs6FM3ag/edit#slide=id.g3b70900641_0_0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4faP8cN2faM&amp;feature=youtu.be</t>
   </si>
   <si>
     <t>b70</t>
@@ -1643,13 +1971,13 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF444444"/>
       <name val="&quot;Arial&quot;"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1713,10 +2041,10 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1836,17 +2164,18 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4.0" ySplit="1.0" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E1" sqref="E1" pane="topRight"/>
+      <pane xSplit="8.0" ySplit="1.0" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="I1" sqref="I1" pane="topRight"/>
       <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="E2" sqref="E2" pane="bottomRight"/>
+      <selection activeCell="I2" sqref="I2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col hidden="1" min="1" max="3" width="14.43"/>
     <col customWidth="1" min="4" max="4" width="14.43"/>
-    <col customWidth="1" min="6" max="6" width="27.71"/>
-    <col customWidth="1" min="7" max="7" width="24.0"/>
+    <col customWidth="1" min="6" max="6" width="12.0"/>
+    <col customWidth="1" min="7" max="7" width="16.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1994,7 +2323,7 @@
         <v>44</v>
       </c>
       <c r="H2" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I2" s="7" t="b">
         <v>0</v>
@@ -2021,13 +2350,17 @@
       </c>
       <c r="T2" s="8"/>
       <c r="U2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V2" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="W2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X2" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="Y2" s="7" t="b">
         <v>0</v>
       </c>
@@ -2069,10 +2402,10 @@
         <v>6.06261E7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>42</v>
@@ -2081,7 +2414,7 @@
         <v>43</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H3" s="4">
         <v>0.0</v>
@@ -2159,22 +2492,22 @@
         <v>6.08821E7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H4" s="4">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="I4" s="7" t="b">
         <v>1</v>
@@ -2184,36 +2517,44 @@
         <v>1</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M4" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O4" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="S4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="U4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V4" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="W4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X4" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="Y4" s="7" t="b">
         <v>0</v>
       </c>
@@ -2255,10 +2596,10 @@
         <v>6.08846E7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>42</v>
@@ -2343,10 +2684,10 @@
         <v>6.08977E7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>42</v>
@@ -2431,10 +2772,10 @@
         <v>6.17713E7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>42</v>
@@ -2443,7 +2784,7 @@
         <v>43</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H7" s="4">
         <v>0.0</v>
@@ -2521,10 +2862,10 @@
         <v>6.17729E7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>42</v>
@@ -2609,34 +2950,34 @@
         <v>6.18589E7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H9" s="4">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="I9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M9" s="7" t="b">
         <v>1</v>
@@ -2646,24 +2987,30 @@
         <v>1</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="S9" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="U9" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="8"/>
       <c r="W9" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="Y9" s="7" t="b">
         <v>0</v>
       </c>
@@ -2705,10 +3052,10 @@
         <v>6.1898E7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>42</v>
@@ -2793,63 +3140,71 @@
         <v>6.10971E7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H11" s="4">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="I11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="M11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="O11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R11" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="S11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T11" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="U11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V11" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="W11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X11" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="Y11" s="7" t="b">
         <v>0</v>
       </c>
@@ -2891,61 +3246,69 @@
         <v>6.07662E7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="H12" s="4">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="I12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="M12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="O12" s="7" t="b">
         <v>0</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R12" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="S12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T12" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="U12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V12" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="W12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X12" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="Y12" s="7" t="b">
         <v>0</v>
       </c>
@@ -2987,22 +3350,22 @@
         <v>6.10399E7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="H13" s="4">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="I13" s="7" t="b">
         <v>1</v>
@@ -3012,36 +3375,44 @@
         <v>1</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="M13" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="O13" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="Q13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R13" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="S13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T13" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="U13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V13" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="W13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X13" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="Y13" s="7" t="b">
         <v>0</v>
       </c>
@@ -3083,19 +3454,19 @@
         <v>6.09171E7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="H14" s="4">
         <v>0.0</v>
@@ -3173,13 +3544,13 @@
         <v>6.07653E7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>43</v>
@@ -3261,13 +3632,13 @@
         <v>6.17242E7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>43</v>
@@ -3349,13 +3720,13 @@
         <v>6.1757E7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>43</v>
@@ -3437,13 +3808,13 @@
         <v>6.18945E7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>43</v>
@@ -3525,19 +3896,19 @@
         <v>6.18947E7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="H19" s="4">
         <v>0.0</v>
@@ -3615,63 +3986,67 @@
         <v>6.18972E7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="H20" s="4">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
       <c r="I20" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="O20" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R20" s="8"/>
       <c r="S20" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T20" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="U20" s="7" t="b">
         <v>0</v>
       </c>
       <c r="V20" s="8"/>
       <c r="W20" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X20" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="Y20" s="7" t="b">
         <v>0</v>
       </c>
@@ -3713,13 +4088,13 @@
         <v>6.19822E7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>43</v>
@@ -3801,13 +4176,13 @@
         <v>6.12125E7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>43</v>
@@ -3889,13 +4264,13 @@
         <v>6.12126E7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>43</v>
@@ -3977,13 +4352,13 @@
         <v>6.12271E7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>43</v>
@@ -4065,13 +4440,13 @@
         <v>6.12282E7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>43</v>
@@ -4153,22 +4528,22 @@
         <v>6.12304E7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="H26" s="4">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="I26" s="7" t="b">
         <v>1</v>
@@ -4178,36 +4553,44 @@
         <v>1</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="O26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R26" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="S26" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T26" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>161</v>
+      </c>
       <c r="U26" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V26" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V26" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="W26" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X26" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="Y26" s="7" t="b">
         <v>0</v>
       </c>
@@ -4249,19 +4632,19 @@
         <v>6.07819E7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="H27" s="4">
         <v>0.0</v>
@@ -4339,22 +4722,22 @@
         <v>6.10973E7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="H28" s="4">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="I28" s="7" t="b">
         <v>1</v>
@@ -4364,36 +4747,44 @@
         <v>1</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="M28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="O28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="Q28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R28" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>174</v>
+      </c>
       <c r="S28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T28" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="U28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V28" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>176</v>
+      </c>
       <c r="W28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X28" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="Y28" s="7" t="b">
         <v>0</v>
       </c>
@@ -4435,13 +4826,13 @@
         <v>6.18292E7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>43</v>
@@ -4523,13 +4914,13 @@
         <v>6.18294E7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>43</v>
@@ -4611,13 +5002,13 @@
         <v>6.1901E7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>43</v>
@@ -4699,61 +5090,67 @@
         <v>6.20401E7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="H32" s="4">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="I32" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="K32" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="M32" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="O32" s="7" t="b">
         <v>0</v>
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R32" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="S32" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T32" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T32" s="9" t="s">
+        <v>191</v>
+      </c>
       <c r="U32" s="7" t="b">
         <v>0</v>
       </c>
       <c r="V32" s="8"/>
       <c r="W32" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X32" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X32" s="9" t="s">
+        <v>192</v>
+      </c>
       <c r="Y32" s="7" t="b">
         <v>0</v>
       </c>
@@ -4795,19 +5192,19 @@
         <v>6.07507E7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="H33" s="4">
         <v>3.0</v>
@@ -4820,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="M33" s="7" t="b">
         <v>0</v>
@@ -4887,13 +5284,13 @@
         <v>6.07895E7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>43</v>
@@ -4975,19 +5372,19 @@
         <v>6.00452E7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="H35" s="4">
         <v>0.0</v>
@@ -5065,22 +5462,22 @@
         <v>6.07469E7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="H36" s="4">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="I36" s="7" t="b">
         <v>1</v>
@@ -5090,19 +5487,19 @@
         <v>1</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="M36" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="O36" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="Q36" s="7" t="b">
         <v>0</v>
@@ -5113,9 +5510,11 @@
       </c>
       <c r="T36" s="8"/>
       <c r="U36" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V36" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V36" s="9" t="s">
+        <v>209</v>
+      </c>
       <c r="W36" s="7" t="b">
         <v>0</v>
       </c>
@@ -5161,19 +5560,19 @@
         <v>6.0747E7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="H37" s="4">
         <v>0.0</v>
@@ -5251,19 +5650,19 @@
         <v>6.11554E7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="H38" s="4">
         <v>0.0</v>
@@ -5341,19 +5740,19 @@
         <v>6.17939E7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="H39" s="4">
         <v>0.0</v>
@@ -5431,22 +5830,22 @@
         <v>6.05546E7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="H40" s="4">
-        <v>7.0</v>
+        <v>22.0</v>
       </c>
       <c r="I40" s="7" t="b">
         <v>1</v>
@@ -5456,7 +5855,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="M40" s="7" t="b">
         <v>0</v>
@@ -5467,21 +5866,27 @@
       </c>
       <c r="P40" s="8"/>
       <c r="Q40" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R40" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R40" s="9" t="s">
+        <v>224</v>
+      </c>
       <c r="S40" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T40" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T40" s="9" t="s">
+        <v>225</v>
+      </c>
       <c r="U40" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40" s="8"/>
       <c r="W40" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X40" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X40" s="9" t="s">
+        <v>226</v>
+      </c>
       <c r="Y40" s="7" t="b">
         <v>0</v>
       </c>
@@ -5523,19 +5928,19 @@
         <v>6.09278E7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="H41" s="4">
         <v>0.0</v>
@@ -5613,13 +6018,13 @@
         <v>6.17596E7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>43</v>
@@ -5701,19 +6106,19 @@
         <v>6.18186E7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="H43" s="4">
         <v>0.0</v>
@@ -5791,63 +6196,69 @@
         <v>6.18964E7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="H44" s="4">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="I44" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="K44" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="M44" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="O44" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="P44" s="9" t="s">
-        <v>203</v>
-      </c>
+      <c r="P44" s="7"/>
       <c r="Q44" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R44" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R44" s="9" t="s">
+        <v>241</v>
+      </c>
       <c r="S44" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T44" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T44" s="9" t="s">
+        <v>242</v>
+      </c>
       <c r="U44" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V44" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="W44" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X44" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>244</v>
+      </c>
       <c r="Y44" s="7" t="b">
         <v>0</v>
       </c>
@@ -5889,19 +6300,19 @@
         <v>6.11816E7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="H45" s="4">
         <v>0.0</v>
@@ -5979,19 +6390,19 @@
         <v>6.17994E7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="H46" s="4">
         <v>0.0</v>
@@ -6069,22 +6480,22 @@
         <v>6.1743E7</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="H47" s="4">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="I47" s="7" t="b">
         <v>1</v>
@@ -6098,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="O47" s="7" t="b">
         <v>0</v>
@@ -6109,9 +6520,11 @@
       </c>
       <c r="R47" s="8"/>
       <c r="S47" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T47" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T47" s="9" t="s">
+        <v>255</v>
+      </c>
       <c r="U47" s="7" t="b">
         <v>0</v>
       </c>
@@ -6161,19 +6574,19 @@
         <v>6.18899E7</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="H48" s="4">
         <v>0.0</v>
@@ -6251,13 +6664,13 @@
         <v>6.17639E7</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>43</v>
@@ -6339,63 +6752,71 @@
         <v>6.20268E7</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="H50" s="4">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="I50" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="K50" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="M50" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="O50" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P50" s="9" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="Q50" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R50" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R50" s="9" t="s">
+        <v>270</v>
+      </c>
       <c r="S50" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T50" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T50" s="9" t="s">
+        <v>271</v>
+      </c>
       <c r="U50" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V50" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V50" s="9" t="s">
+        <v>272</v>
+      </c>
       <c r="W50" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X50" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X50" s="9" t="s">
+        <v>273</v>
+      </c>
       <c r="Y50" s="7" t="b">
         <v>0</v>
       </c>
@@ -6437,13 +6858,13 @@
         <v>6.19806E7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>43</v>
@@ -6525,63 +6946,69 @@
         <v>6.07754E7</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="H52" s="4">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="I52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="K52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="M52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="O52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P52" s="9" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="Q52" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R52" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R52" s="9" t="s">
+        <v>285</v>
+      </c>
       <c r="S52" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" s="8"/>
       <c r="U52" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V52" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V52" s="9" t="s">
+        <v>286</v>
+      </c>
       <c r="W52" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X52" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X52" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Y52" s="7" t="b">
         <v>0</v>
       </c>
@@ -6623,19 +7050,19 @@
         <v>6.1886101E7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="H53" s="4">
         <v>0.0</v>
@@ -6713,55 +7140,59 @@
         <v>6.19702E7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="H54" s="4">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
       <c r="I54" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="K54" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="M54" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="O54" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="Q54" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R54" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R54" s="12" t="s">
+        <v>300</v>
+      </c>
       <c r="S54" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T54" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T54" s="9" t="s">
+        <v>301</v>
+      </c>
       <c r="U54" s="7" t="b">
         <v>0</v>
       </c>
@@ -6811,19 +7242,19 @@
         <v>6.1062E7</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="H55" s="4">
         <v>0.0</v>
@@ -6901,22 +7332,22 @@
         <v>6.11971E7</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="H56" s="4">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I56" s="7" t="b">
         <v>0</v>
@@ -6947,9 +7378,11 @@
       </c>
       <c r="V56" s="8"/>
       <c r="W56" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X56" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X56" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="Y56" s="7" t="b">
         <v>0</v>
       </c>
@@ -6991,13 +7424,13 @@
         <v>6.07142E7</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>259</v>
+        <v>311</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>43</v>
@@ -7079,13 +7512,13 @@
         <v>6.18841E7</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>259</v>
+        <v>311</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>43</v>
@@ -7167,13 +7600,13 @@
         <v>6.22913E7</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>43</v>
@@ -7255,13 +7688,13 @@
         <v>6.18917E7</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>43</v>
@@ -7343,22 +7776,22 @@
         <v>6.17949E7</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>268</v>
+        <v>320</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>270</v>
+        <v>322</v>
       </c>
       <c r="H61" s="4">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="I61" s="7" t="b">
         <v>1</v>
@@ -7368,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="M61" s="7" t="b">
         <v>1</v>
@@ -7378,24 +7811,32 @@
         <v>1</v>
       </c>
       <c r="P61" s="9" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
       <c r="Q61" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R61" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R61" s="9" t="s">
+        <v>325</v>
+      </c>
       <c r="S61" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T61" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T61" s="9" t="s">
+        <v>326</v>
+      </c>
       <c r="U61" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V61" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V61" s="9" t="s">
+        <v>327</v>
+      </c>
       <c r="W61" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X61" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X61" s="9" t="s">
+        <v>328</v>
+      </c>
       <c r="Y61" s="7" t="b">
         <v>0</v>
       </c>
@@ -7437,46 +7878,46 @@
         <v>6.18136E7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>268</v>
+        <v>320</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="H62" s="4">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="I62" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>276</v>
+        <v>332</v>
       </c>
       <c r="K62" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>277</v>
+        <v>333</v>
       </c>
       <c r="M62" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N62" s="9" t="s">
-        <v>278</v>
+        <v>334</v>
       </c>
       <c r="O62" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P62" s="9" t="s">
-        <v>279</v>
+        <v>335</v>
       </c>
       <c r="Q62" s="7" t="b">
         <v>0</v>
@@ -7487,13 +7928,17 @@
       </c>
       <c r="T62" s="8"/>
       <c r="U62" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V62" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V62" s="9" t="s">
+        <v>336</v>
+      </c>
       <c r="W62" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X62" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X62" s="9" t="s">
+        <v>337</v>
+      </c>
       <c r="Y62" s="7" t="b">
         <v>0</v>
       </c>
@@ -7535,13 +7980,13 @@
         <v>6.18636E7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>43</v>
@@ -7623,63 +8068,71 @@
         <v>6.20248E7</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>283</v>
+        <v>341</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>286</v>
+        <v>344</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="H64" s="4">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="I64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>288</v>
+        <v>346</v>
       </c>
       <c r="K64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>289</v>
+        <v>347</v>
       </c>
       <c r="M64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N64" s="9" t="s">
-        <v>290</v>
+        <v>348</v>
       </c>
       <c r="O64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P64" s="9" t="s">
-        <v>291</v>
+        <v>349</v>
       </c>
       <c r="Q64" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R64" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R64" s="9" t="s">
+        <v>350</v>
+      </c>
       <c r="S64" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T64" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T64" s="9" t="s">
+        <v>351</v>
+      </c>
       <c r="U64" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V64" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V64" s="9" t="s">
+        <v>352</v>
+      </c>
       <c r="W64" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X64" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X64" s="9" t="s">
+        <v>353</v>
+      </c>
       <c r="Y64" s="7" t="b">
         <v>0</v>
       </c>
@@ -7721,22 +8174,22 @@
         <v>6.07387E7</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>292</v>
+        <v>354</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>295</v>
+        <v>357</v>
       </c>
       <c r="H65" s="4">
-        <v>14.0</v>
+        <v>26.0</v>
       </c>
       <c r="I65" s="7" t="b">
         <v>1</v>
@@ -7746,32 +8199,38 @@
         <v>1</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>296</v>
+        <v>358</v>
       </c>
       <c r="M65" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N65" s="9" t="s">
-        <v>297</v>
+        <v>359</v>
       </c>
       <c r="O65" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P65" s="9" t="s">
-        <v>298</v>
+        <v>360</v>
       </c>
       <c r="Q65" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R65" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R65" s="9" t="s">
+        <v>361</v>
+      </c>
       <c r="S65" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T65" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T65" s="9" t="s">
+        <v>362</v>
+      </c>
       <c r="U65" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V65" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V65" s="9" t="s">
+        <v>363</v>
+      </c>
       <c r="W65" s="7" t="b">
         <v>0</v>
       </c>
@@ -7817,63 +8276,71 @@
         <v>6.1986E7</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>299</v>
+        <v>364</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>300</v>
+        <v>365</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>301</v>
+        <v>366</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>302</v>
+        <v>367</v>
       </c>
       <c r="H66" s="4">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="I66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>303</v>
+        <v>368</v>
       </c>
       <c r="K66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>304</v>
+        <v>369</v>
       </c>
       <c r="M66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="O66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P66" s="9" t="s">
-        <v>306</v>
+        <v>371</v>
       </c>
       <c r="Q66" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R66" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R66" s="9" t="s">
+        <v>372</v>
+      </c>
       <c r="S66" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T66" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T66" s="9" t="s">
+        <v>373</v>
+      </c>
       <c r="U66" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V66" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V66" s="9" t="s">
+        <v>374</v>
+      </c>
       <c r="W66" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X66" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X66" s="9" t="s">
+        <v>375</v>
+      </c>
       <c r="Y66" s="7" t="b">
         <v>0</v>
       </c>
@@ -7915,16 +8382,16 @@
         <v>6.22418E7</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>307</v>
+        <v>376</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4">
@@ -7999,61 +8466,69 @@
         <v>6.17422E7</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>311</v>
+        <v>380</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>314</v>
+        <v>383</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>315</v>
+        <v>384</v>
       </c>
       <c r="H68" s="4">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="I68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>316</v>
+        <v>385</v>
       </c>
       <c r="K68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>317</v>
+        <v>386</v>
       </c>
       <c r="M68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N68" s="9" t="s">
-        <v>318</v>
+        <v>387</v>
       </c>
       <c r="O68" s="7" t="b">
         <v>0</v>
       </c>
       <c r="P68" s="8"/>
       <c r="Q68" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R68" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R68" s="9" t="s">
+        <v>388</v>
+      </c>
       <c r="S68" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T68" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T68" s="9" t="s">
+        <v>389</v>
+      </c>
       <c r="U68" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V68" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V68" s="9" t="s">
+        <v>390</v>
+      </c>
       <c r="W68" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X68" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X68" s="9" t="s">
+        <v>391</v>
+      </c>
       <c r="Y68" s="7" t="b">
         <v>0</v>
       </c>
@@ -8095,28 +8570,28 @@
         <v>6.0677E7</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>319</v>
+        <v>392</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>320</v>
+        <v>393</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>322</v>
+        <v>395</v>
       </c>
       <c r="H69" s="4">
-        <v>4.0</v>
+        <v>19.0</v>
       </c>
       <c r="I69" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>323</v>
+        <v>396</v>
       </c>
       <c r="K69" s="7" t="b">
         <v>0</v>
@@ -8131,21 +8606,29 @@
       </c>
       <c r="P69" s="8"/>
       <c r="Q69" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R69" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R69" s="9" t="s">
+        <v>397</v>
+      </c>
       <c r="S69" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T69" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T69" s="9" t="s">
+        <v>398</v>
+      </c>
       <c r="U69" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V69" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V69" s="9" t="s">
+        <v>399</v>
+      </c>
       <c r="W69" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X69" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X69" s="9" t="s">
+        <v>400</v>
+      </c>
       <c r="Y69" s="7" t="b">
         <v>0</v>
       </c>
@@ -8187,63 +8670,71 @@
         <v>6.05979E7</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>324</v>
+        <v>401</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>300</v>
+        <v>365</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>325</v>
+        <v>402</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>326</v>
+        <v>403</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>327</v>
+        <v>404</v>
       </c>
       <c r="H70" s="4">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="I70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>328</v>
+        <v>405</v>
       </c>
       <c r="K70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>329</v>
+        <v>406</v>
       </c>
       <c r="M70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>330</v>
+        <v>407</v>
       </c>
       <c r="O70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P70" s="9" t="s">
-        <v>331</v>
+        <v>408</v>
       </c>
       <c r="Q70" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R70" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R70" s="9" t="s">
+        <v>409</v>
+      </c>
       <c r="S70" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T70" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T70" s="9" t="s">
+        <v>410</v>
+      </c>
       <c r="U70" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V70" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V70" s="9" t="s">
+        <v>411</v>
+      </c>
       <c r="W70" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X70" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X70" s="9" t="s">
+        <v>412</v>
+      </c>
       <c r="Y70" s="7" t="b">
         <v>0</v>
       </c>
@@ -8285,63 +8776,71 @@
         <v>6.20475E7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>332</v>
+        <v>413</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>300</v>
+        <v>365</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>333</v>
+        <v>414</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>334</v>
+        <v>415</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>335</v>
+        <v>416</v>
       </c>
       <c r="H71" s="4">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="I71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>336</v>
+        <v>417</v>
       </c>
       <c r="K71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>337</v>
+        <v>418</v>
       </c>
       <c r="M71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>338</v>
+        <v>419</v>
       </c>
       <c r="O71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P71" s="9" t="s">
-        <v>339</v>
+        <v>420</v>
       </c>
       <c r="Q71" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R71" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R71" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="S71" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T71" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T71" s="9" t="s">
+        <v>422</v>
+      </c>
       <c r="U71" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V71" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V71" s="9" t="s">
+        <v>423</v>
+      </c>
       <c r="W71" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X71" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X71" s="9" t="s">
+        <v>424</v>
+      </c>
       <c r="Y71" s="7" t="b">
         <v>0</v>
       </c>
@@ -8383,19 +8882,19 @@
         <v>6.22495E7</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>340</v>
+        <v>425</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>341</v>
+        <v>426</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>342</v>
+        <v>427</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>343</v>
+        <v>428</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>344</v>
+        <v>429</v>
       </c>
       <c r="H72" s="4">
         <v>11.0</v>
@@ -8408,7 +8907,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>345</v>
+        <v>430</v>
       </c>
       <c r="M72" s="7" t="b">
         <v>0</v>
@@ -8418,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="P72" s="9" t="s">
-        <v>346</v>
+        <v>431</v>
       </c>
       <c r="Q72" s="7" t="b">
         <v>0</v>
@@ -8477,7 +8976,7 @@
         <v>6.06231E7</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>347</v>
+        <v>432</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>41</v>
@@ -8486,7 +8985,7 @@
         <v>42</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="4">
@@ -8565,19 +9064,19 @@
         <v>6.06261E7</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>349</v>
+        <v>434</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>350</v>
+        <v>435</v>
       </c>
       <c r="H74" s="4">
         <v>0.0</v>
@@ -8655,16 +9154,16 @@
         <v>6.08821E7</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>351</v>
+        <v>436</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="4">
@@ -8743,16 +9242,16 @@
         <v>6.08846E7</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>352</v>
+        <v>437</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="4">
@@ -8831,16 +9330,16 @@
         <v>6.08977E7</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="4">
@@ -8919,16 +9418,16 @@
         <v>6.17713E7</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>354</v>
+        <v>439</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G78" s="8"/>
       <c r="H78" s="4">
@@ -9007,16 +9506,16 @@
         <v>6.17729E7</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>355</v>
+        <v>440</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="4">
@@ -9095,19 +9594,19 @@
         <v>6.18589E7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>356</v>
+        <v>441</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>357</v>
+        <v>442</v>
       </c>
       <c r="H80" s="4">
         <v>0.0</v>
@@ -9185,16 +9684,16 @@
         <v>6.1898E7</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>358</v>
+        <v>443</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G81" s="8"/>
       <c r="H81" s="4">
@@ -9273,22 +9772,22 @@
         <v>6.10971E7</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>359</v>
+        <v>444</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>360</v>
+        <v>445</v>
       </c>
       <c r="H82" s="4">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="I82" s="7" t="b">
         <v>1</v>
@@ -9298,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>361</v>
+        <v>446</v>
       </c>
       <c r="M82" s="7" t="b">
         <v>0</v>
@@ -9308,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="P82" s="9" t="s">
-        <v>362</v>
+        <v>447</v>
       </c>
       <c r="Q82" s="7" t="b">
         <v>0</v>
@@ -9319,13 +9818,17 @@
       </c>
       <c r="T82" s="8"/>
       <c r="U82" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V82" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V82" s="9" t="s">
+        <v>448</v>
+      </c>
       <c r="W82" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X82" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X82" s="9" t="s">
+        <v>449</v>
+      </c>
       <c r="Y82" s="7" t="b">
         <v>0</v>
       </c>
@@ -9367,19 +9870,19 @@
         <v>6.07662E7</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>363</v>
+        <v>450</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>364</v>
+        <v>451</v>
       </c>
       <c r="H83" s="4">
         <v>0.0</v>
@@ -9457,19 +9960,19 @@
         <v>6.10399E7</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>365</v>
+        <v>452</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>366</v>
+        <v>453</v>
       </c>
       <c r="H84" s="4">
         <v>0.0</v>
@@ -9547,19 +10050,19 @@
         <v>6.09171E7</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>367</v>
+        <v>454</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="H85" s="4">
         <v>0.0</v>
@@ -9637,16 +10140,16 @@
         <v>6.07653E7</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>368</v>
+        <v>455</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="4">
@@ -9725,16 +10228,16 @@
         <v>6.17242E7</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>369</v>
+        <v>456</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="4">
@@ -9813,16 +10316,16 @@
         <v>6.1757E7</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>370</v>
+        <v>457</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="4">
@@ -9901,16 +10404,16 @@
         <v>6.18945E7</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>371</v>
+        <v>458</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="4">
@@ -9989,19 +10492,19 @@
         <v>6.18947E7</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>372</v>
+        <v>459</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>373</v>
+        <v>460</v>
       </c>
       <c r="H90" s="4">
         <v>0.0</v>
@@ -10079,63 +10582,71 @@
         <v>6.18972E7</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>374</v>
+        <v>461</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>375</v>
+        <v>462</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>376</v>
+        <v>463</v>
       </c>
       <c r="H91" s="4">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="I91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>377</v>
+        <v>464</v>
       </c>
       <c r="K91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L91" s="9" t="s">
-        <v>378</v>
+        <v>465</v>
       </c>
       <c r="M91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N91" s="9" t="s">
-        <v>379</v>
+        <v>466</v>
       </c>
       <c r="O91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P91" s="9" t="s">
-        <v>380</v>
+        <v>467</v>
       </c>
       <c r="Q91" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R91" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R91" s="9" t="s">
+        <v>468</v>
+      </c>
       <c r="S91" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T91" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T91" s="9" t="s">
+        <v>469</v>
+      </c>
       <c r="U91" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V91" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V91" s="9" t="s">
+        <v>470</v>
+      </c>
       <c r="W91" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X91" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X91" s="9" t="s">
+        <v>471</v>
+      </c>
       <c r="Y91" s="7" t="b">
         <v>0</v>
       </c>
@@ -10177,16 +10688,16 @@
         <v>6.19822E7</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>381</v>
+        <v>472</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G92" s="8"/>
       <c r="H92" s="4">
@@ -10265,16 +10776,16 @@
         <v>6.12125E7</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>382</v>
+        <v>473</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G93" s="8"/>
       <c r="H93" s="4">
@@ -10353,16 +10864,16 @@
         <v>6.12126E7</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>383</v>
+        <v>474</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="4">
@@ -10441,16 +10952,16 @@
         <v>6.12271E7</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>384</v>
+        <v>475</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="4">
@@ -10529,16 +11040,16 @@
         <v>6.12282E7</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>385</v>
+        <v>476</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="4">
@@ -10617,19 +11128,19 @@
         <v>6.12304E7</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>386</v>
+        <v>477</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="H97" s="4">
         <v>0.0</v>
@@ -10707,19 +11218,19 @@
         <v>6.07819E7</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>387</v>
+        <v>478</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="H98" s="4">
         <v>0.0</v>
@@ -10797,19 +11308,19 @@
         <v>6.10973E7</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>388</v>
+        <v>479</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="H99" s="4">
         <v>0.0</v>
@@ -10887,16 +11398,16 @@
         <v>6.18292E7</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>389</v>
+        <v>480</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="4">
@@ -10975,16 +11486,16 @@
         <v>6.18294E7</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>390</v>
+        <v>481</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="4">
@@ -11063,16 +11574,16 @@
         <v>6.1901E7</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>391</v>
+        <v>482</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="4">
@@ -11151,63 +11662,69 @@
         <v>6.20401E7</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>392</v>
+        <v>483</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>393</v>
+        <v>484</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>394</v>
+        <v>485</v>
       </c>
       <c r="H103" s="4">
-        <v>14.0</v>
+        <v>26.0</v>
       </c>
       <c r="I103" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>395</v>
+        <v>486</v>
       </c>
       <c r="K103" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>396</v>
+        <v>487</v>
       </c>
       <c r="M103" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N103" s="9" t="s">
-        <v>397</v>
+        <v>488</v>
       </c>
       <c r="O103" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P103" s="9" t="s">
-        <v>398</v>
+        <v>489</v>
       </c>
       <c r="Q103" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R103" s="8"/>
       <c r="S103" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T103" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T103" s="9" t="s">
+        <v>490</v>
+      </c>
       <c r="U103" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V103" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V103" s="9" t="s">
+        <v>491</v>
+      </c>
       <c r="W103" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X103" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X103" s="9" t="s">
+        <v>492</v>
+      </c>
       <c r="Y103" s="7" t="b">
         <v>0</v>
       </c>
@@ -11249,19 +11766,19 @@
         <v>6.07507E7</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>399</v>
+        <v>493</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>400</v>
+        <v>494</v>
       </c>
       <c r="H104" s="4">
         <v>0.0</v>
@@ -11339,16 +11856,16 @@
         <v>6.07895E7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>401</v>
+        <v>495</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="4">
@@ -11427,19 +11944,19 @@
         <v>6.00452E7</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>402</v>
+        <v>496</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="H106" s="4">
         <v>0.0</v>
@@ -11517,19 +12034,19 @@
         <v>6.07469E7</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>403</v>
+        <v>497</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>404</v>
+        <v>498</v>
       </c>
       <c r="H107" s="4">
         <v>0.0</v>
@@ -11607,19 +12124,19 @@
         <v>6.0747E7</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>405</v>
+        <v>499</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="H108" s="4">
         <v>0.0</v>
@@ -11697,19 +12214,19 @@
         <v>6.11554E7</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>406</v>
+        <v>500</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>407</v>
+        <v>501</v>
       </c>
       <c r="H109" s="4">
         <v>0.0</v>
@@ -11787,19 +12304,19 @@
         <v>6.17939E7</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>409</v>
+        <v>503</v>
       </c>
       <c r="H110" s="4">
         <v>0.0</v>
@@ -11877,22 +12394,22 @@
         <v>6.05546E7</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>410</v>
+        <v>504</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>411</v>
+        <v>505</v>
       </c>
       <c r="H111" s="4">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="I111" s="7" t="b">
         <v>1</v>
@@ -11902,7 +12419,7 @@
         <v>1</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="M111" s="7" t="b">
         <v>1</v>
@@ -11913,21 +12430,27 @@
       </c>
       <c r="P111" s="8"/>
       <c r="Q111" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R111" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R111" s="9" t="s">
+        <v>224</v>
+      </c>
       <c r="S111" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T111" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T111" s="9" t="s">
+        <v>225</v>
+      </c>
       <c r="U111" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V111" s="8"/>
       <c r="W111" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X111" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X111" s="9" t="s">
+        <v>226</v>
+      </c>
       <c r="Y111" s="7" t="b">
         <v>0</v>
       </c>
@@ -11969,16 +12492,16 @@
         <v>6.09278E7</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>412</v>
+        <v>506</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="7">
@@ -12057,19 +12580,19 @@
         <v>6.17596E7</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>413</v>
+        <v>507</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>414</v>
+        <v>508</v>
       </c>
       <c r="H113" s="4">
         <v>0.0</v>
@@ -12147,46 +12670,46 @@
         <v>6.18186E7</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>415</v>
+        <v>509</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>416</v>
+        <v>510</v>
       </c>
       <c r="H114" s="4">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="I114" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>417</v>
+        <v>511</v>
       </c>
       <c r="K114" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>418</v>
+        <v>512</v>
       </c>
       <c r="M114" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N114" s="9" t="s">
-        <v>419</v>
+        <v>513</v>
       </c>
       <c r="O114" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P114" s="9" t="s">
-        <v>420</v>
+        <v>514</v>
       </c>
       <c r="Q114" s="7" t="b">
         <v>0</v>
@@ -12197,7 +12720,7 @@
       </c>
       <c r="T114" s="8"/>
       <c r="U114" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V114" s="8"/>
       <c r="W114" s="7" t="b">
@@ -12245,63 +12768,67 @@
         <v>6.18964E7</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>421</v>
+        <v>515</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>422</v>
+        <v>516</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>423</v>
+        <v>517</v>
       </c>
       <c r="H115" s="4">
-        <v>14.0</v>
+        <v>24.0</v>
       </c>
       <c r="I115" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>424</v>
+        <v>518</v>
       </c>
       <c r="K115" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>425</v>
+        <v>519</v>
       </c>
       <c r="M115" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N115" s="9" t="s">
-        <v>426</v>
+        <v>520</v>
       </c>
       <c r="O115" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P115" s="9" t="s">
-        <v>427</v>
+        <v>521</v>
       </c>
       <c r="Q115" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R115" s="8"/>
       <c r="S115" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T115" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T115" s="9" t="s">
+        <v>522</v>
+      </c>
       <c r="U115" s="7" t="b">
         <v>0</v>
       </c>
       <c r="V115" s="8"/>
       <c r="W115" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X115" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X115" s="9" t="s">
+        <v>523</v>
+      </c>
       <c r="Y115" s="7" t="b">
         <v>0</v>
       </c>
@@ -12343,19 +12870,19 @@
         <v>6.11816E7</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>428</v>
+        <v>524</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="H116" s="4">
         <v>0.0</v>
@@ -12433,16 +12960,16 @@
         <v>6.17994E7</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>429</v>
+        <v>525</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G117" s="8"/>
       <c r="H117" s="4">
@@ -12521,22 +13048,22 @@
         <v>6.1743E7</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>430</v>
+        <v>526</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>431</v>
+        <v>527</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>432</v>
+        <v>528</v>
       </c>
       <c r="H118" s="4">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="I118" s="7" t="b">
         <v>0</v>
@@ -12546,19 +13073,19 @@
         <v>1</v>
       </c>
       <c r="L118" s="9" t="s">
-        <v>433</v>
+        <v>529</v>
       </c>
       <c r="M118" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N118" s="9" t="s">
-        <v>434</v>
+        <v>530</v>
       </c>
       <c r="O118" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P118" s="9" t="s">
-        <v>435</v>
+        <v>531</v>
       </c>
       <c r="Q118" s="7" t="b">
         <v>0</v>
@@ -12569,13 +13096,17 @@
       </c>
       <c r="T118" s="8"/>
       <c r="U118" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V118" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V118" s="9" t="s">
+        <v>532</v>
+      </c>
       <c r="W118" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X118" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X118" s="9" t="s">
+        <v>533</v>
+      </c>
       <c r="Y118" s="7" t="b">
         <v>0</v>
       </c>
@@ -12617,19 +13148,19 @@
         <v>6.18899E7</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>436</v>
+        <v>534</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>437</v>
+        <v>535</v>
       </c>
       <c r="H119" s="4">
         <v>0.0</v>
@@ -12707,19 +13238,19 @@
         <v>6.17639E7</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>438</v>
+        <v>536</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>439</v>
+        <v>537</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>440</v>
+        <v>538</v>
       </c>
       <c r="H120" s="4">
         <v>10.0</v>
@@ -12728,19 +13259,19 @@
         <v>1</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>441</v>
+        <v>539</v>
       </c>
       <c r="K120" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L120" s="9" t="s">
-        <v>442</v>
+        <v>540</v>
       </c>
       <c r="M120" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N120" s="9" t="s">
-        <v>443</v>
+        <v>541</v>
       </c>
       <c r="O120" s="7" t="b">
         <v>0</v>
@@ -12803,19 +13334,19 @@
         <v>6.20268E7</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>444</v>
+        <v>542</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="H121" s="4">
         <v>0.0</v>
@@ -12893,16 +13424,16 @@
         <v>6.19806E7</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>445</v>
+        <v>543</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G122" s="8"/>
       <c r="H122" s="4">
@@ -12981,63 +13512,71 @@
         <v>6.07754E7</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>446</v>
+        <v>544</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>447</v>
+        <v>545</v>
       </c>
       <c r="H123" s="4">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="I123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>448</v>
+        <v>546</v>
       </c>
       <c r="K123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L123" s="9" t="s">
-        <v>449</v>
+        <v>547</v>
       </c>
       <c r="M123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N123" s="9" t="s">
-        <v>450</v>
+        <v>548</v>
       </c>
       <c r="O123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P123" s="9" t="s">
-        <v>451</v>
+        <v>549</v>
       </c>
       <c r="Q123" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R123" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R123" s="9" t="s">
+        <v>550</v>
+      </c>
       <c r="S123" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T123" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T123" s="9" t="s">
+        <v>551</v>
+      </c>
       <c r="U123" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V123" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V123" s="9" t="s">
+        <v>552</v>
+      </c>
       <c r="W123" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X123" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X123" s="9" t="s">
+        <v>553</v>
+      </c>
       <c r="Y123" s="7" t="b">
         <v>0</v>
       </c>
@@ -13079,16 +13618,16 @@
         <v>6.1886101E7</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>452</v>
+        <v>554</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="4">
@@ -13167,19 +13706,19 @@
         <v>6.19702E7</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>453</v>
+        <v>555</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="H125" s="4">
         <v>0.0</v>
@@ -13257,19 +13796,19 @@
         <v>6.1062E7</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>454</v>
+        <v>556</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>455</v>
+        <v>557</v>
       </c>
       <c r="H126" s="4">
         <v>0.0</v>
@@ -13347,19 +13886,19 @@
         <v>6.11971E7</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>456</v>
+        <v>558</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F127" s="12" t="s">
-        <v>457</v>
+        <v>307</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>559</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>458</v>
+        <v>560</v>
       </c>
       <c r="H127" s="4">
         <v>10.0</v>
@@ -13372,13 +13911,13 @@
         <v>1</v>
       </c>
       <c r="L127" s="9" t="s">
-        <v>459</v>
+        <v>561</v>
       </c>
       <c r="M127" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N127" s="9" t="s">
-        <v>460</v>
+        <v>562</v>
       </c>
       <c r="O127" s="7" t="b">
         <v>0</v>
@@ -13441,63 +13980,71 @@
         <v>6.07142E7</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>461</v>
+        <v>563</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>259</v>
+        <v>311</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>462</v>
+        <v>564</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>463</v>
+        <v>565</v>
       </c>
       <c r="H128" s="4">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="I128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>464</v>
+        <v>566</v>
       </c>
       <c r="K128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L128" s="9" t="s">
-        <v>465</v>
+        <v>567</v>
       </c>
       <c r="M128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N128" s="9" t="s">
-        <v>466</v>
+        <v>568</v>
       </c>
       <c r="O128" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="P128" s="13" t="s">
-        <v>467</v>
+      <c r="P128" s="12" t="s">
+        <v>569</v>
       </c>
       <c r="Q128" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R128" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R128" s="9" t="s">
+        <v>570</v>
+      </c>
       <c r="S128" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T128" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T128" s="9" t="s">
+        <v>571</v>
+      </c>
       <c r="U128" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V128" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V128" s="9" t="s">
+        <v>572</v>
+      </c>
       <c r="W128" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X128" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X128" s="9" t="s">
+        <v>573</v>
+      </c>
       <c r="Y128" s="7" t="b">
         <v>0</v>
       </c>
@@ -13539,22 +14086,22 @@
         <v>6.18841E7</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>468</v>
+        <v>574</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>259</v>
+        <v>311</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>469</v>
+        <v>575</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>470</v>
+        <v>576</v>
       </c>
       <c r="H129" s="4">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="I129" s="7" t="b">
         <v>0</v>
@@ -13564,36 +14111,44 @@
         <v>1</v>
       </c>
       <c r="L129" s="9" t="s">
-        <v>471</v>
+        <v>577</v>
       </c>
       <c r="M129" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N129" s="9" t="s">
-        <v>472</v>
+        <v>578</v>
       </c>
       <c r="O129" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P129" s="9" t="s">
-        <v>473</v>
+        <v>579</v>
       </c>
       <c r="Q129" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R129" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R129" s="9" t="s">
+        <v>580</v>
+      </c>
       <c r="S129" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T129" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T129" s="9" t="s">
+        <v>581</v>
+      </c>
       <c r="U129" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V129" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V129" s="9" t="s">
+        <v>582</v>
+      </c>
       <c r="W129" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X129" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X129" s="9" t="s">
+        <v>583</v>
+      </c>
       <c r="Y129" s="7" t="b">
         <v>0</v>
       </c>
@@ -13635,28 +14190,28 @@
         <v>6.22913E7</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>474</v>
+        <v>584</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>475</v>
+        <v>585</v>
       </c>
       <c r="H130" s="4">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="I130" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>476</v>
+        <v>586</v>
       </c>
       <c r="K130" s="7" t="b">
         <v>0</v>
@@ -13666,22 +14221,24 @@
         <v>1</v>
       </c>
       <c r="N130" s="9" t="s">
-        <v>477</v>
+        <v>587</v>
       </c>
       <c r="O130" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P130" s="9" t="s">
-        <v>478</v>
+        <v>588</v>
       </c>
       <c r="Q130" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R130" s="8"/>
       <c r="S130" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T130" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T130" s="9" t="s">
+        <v>589</v>
+      </c>
       <c r="U130" s="7" t="b">
         <v>0</v>
       </c>
@@ -13731,63 +14288,71 @@
         <v>6.18917E7</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>479</v>
+        <v>590</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>480</v>
+        <v>591</v>
       </c>
       <c r="H131" s="4">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="I131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>481</v>
+        <v>592</v>
       </c>
       <c r="K131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L131" s="9" t="s">
-        <v>482</v>
+        <v>593</v>
       </c>
       <c r="M131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N131" s="9" t="s">
-        <v>483</v>
+        <v>594</v>
       </c>
       <c r="O131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P131" s="9" t="s">
-        <v>484</v>
+        <v>595</v>
       </c>
       <c r="Q131" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R131" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R131" s="9" t="s">
+        <v>596</v>
+      </c>
       <c r="S131" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T131" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T131" s="9" t="s">
+        <v>597</v>
+      </c>
       <c r="U131" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V131" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V131" s="9" t="s">
+        <v>598</v>
+      </c>
       <c r="W131" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X131" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X131" s="9" t="s">
+        <v>599</v>
+      </c>
       <c r="Y131" s="7" t="b">
         <v>0</v>
       </c>
@@ -13829,19 +14394,19 @@
         <v>6.17949E7</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>485</v>
+        <v>600</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>268</v>
+        <v>320</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>270</v>
+        <v>322</v>
       </c>
       <c r="H132" s="4">
         <v>0.0</v>
@@ -13919,19 +14484,19 @@
         <v>6.18136E7</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>486</v>
+        <v>601</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>268</v>
+        <v>320</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="H133" s="4">
         <v>0.0</v>
@@ -14009,19 +14574,19 @@
         <v>6.18636E7</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>487</v>
+        <v>602</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>488</v>
+        <v>603</v>
       </c>
       <c r="H134" s="4">
         <v>0.0</v>
@@ -14099,19 +14664,19 @@
         <v>6.20248E7</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>489</v>
+        <v>604</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>490</v>
+        <v>605</v>
       </c>
       <c r="H135" s="4">
         <v>0.0</v>
@@ -14189,19 +14754,19 @@
         <v>6.07387E7</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>491</v>
+        <v>606</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>295</v>
+        <v>357</v>
       </c>
       <c r="H136" s="4">
         <v>0.0</v>
@@ -14279,19 +14844,19 @@
         <v>6.1986E7</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>492</v>
+        <v>607</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>300</v>
+        <v>365</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>301</v>
+        <v>366</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>302</v>
+        <v>367</v>
       </c>
       <c r="H137" s="4">
         <v>0.0</v>
@@ -14369,63 +14934,71 @@
         <v>6.22418E7</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>493</v>
+        <v>608</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>494</v>
+        <v>609</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>495</v>
+        <v>610</v>
       </c>
       <c r="H138" s="4">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="I138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>496</v>
+        <v>611</v>
       </c>
       <c r="K138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L138" s="9" t="s">
-        <v>497</v>
+        <v>612</v>
       </c>
       <c r="M138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N138" s="9" t="s">
-        <v>498</v>
+        <v>613</v>
       </c>
       <c r="O138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P138" s="9" t="s">
-        <v>499</v>
+        <v>614</v>
       </c>
       <c r="Q138" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R138" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R138" s="9" t="s">
+        <v>615</v>
+      </c>
       <c r="S138" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T138" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T138" s="9" t="s">
+        <v>616</v>
+      </c>
       <c r="U138" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V138" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V138" s="9" t="s">
+        <v>617</v>
+      </c>
       <c r="W138" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X138" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X138" s="9" t="s">
+        <v>618</v>
+      </c>
       <c r="Y138" s="7" t="b">
         <v>0</v>
       </c>
@@ -14467,63 +15040,71 @@
         <v>6.17422E7</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>500</v>
+        <v>619</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>501</v>
+        <v>620</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>502</v>
+        <v>621</v>
       </c>
       <c r="H139" s="14">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="I139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>503</v>
+        <v>622</v>
       </c>
       <c r="K139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L139" s="9" t="s">
-        <v>504</v>
+        <v>623</v>
       </c>
       <c r="M139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N139" s="9" t="s">
-        <v>505</v>
+        <v>624</v>
       </c>
       <c r="O139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P139" s="9" t="s">
-        <v>506</v>
+        <v>625</v>
       </c>
       <c r="Q139" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R139" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R139" s="9" t="s">
+        <v>626</v>
+      </c>
       <c r="S139" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T139" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T139" s="9" t="s">
+        <v>627</v>
+      </c>
       <c r="U139" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V139" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V139" s="9" t="s">
+        <v>628</v>
+      </c>
       <c r="W139" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X139" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X139" s="9" t="s">
+        <v>629</v>
+      </c>
       <c r="Y139" s="7" t="b">
         <v>0</v>
       </c>
@@ -14565,19 +15146,19 @@
         <v>6.0677E7</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>507</v>
+        <v>630</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>320</v>
+        <v>393</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>508</v>
+        <v>631</v>
       </c>
       <c r="H140" s="4">
         <v>0.0</v>
@@ -14655,22 +15236,22 @@
         <v>6.05979E7</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>509</v>
+        <v>632</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>300</v>
+        <v>365</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>325</v>
+        <v>402</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>510</v>
+        <v>633</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>511</v>
+        <v>634</v>
       </c>
       <c r="H141" s="4">
-        <v>11.0</v>
+        <v>26.0</v>
       </c>
       <c r="I141" s="7" t="b">
         <v>1</v>
@@ -14680,7 +15261,7 @@
         <v>1</v>
       </c>
       <c r="L141" s="9" t="s">
-        <v>512</v>
+        <v>635</v>
       </c>
       <c r="M141" s="7" t="b">
         <v>0</v>
@@ -14690,24 +15271,32 @@
         <v>1</v>
       </c>
       <c r="P141" s="9" t="s">
-        <v>513</v>
+        <v>636</v>
       </c>
       <c r="Q141" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R141" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R141" s="9" t="s">
+        <v>637</v>
+      </c>
       <c r="S141" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T141" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="T141" s="9" t="s">
+        <v>638</v>
+      </c>
       <c r="U141" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V141" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V141" s="9" t="s">
+        <v>639</v>
+      </c>
       <c r="W141" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X141" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X141" s="9" t="s">
+        <v>640</v>
+      </c>
       <c r="Y141" s="7" t="b">
         <v>0</v>
       </c>
@@ -14749,19 +15338,19 @@
         <v>6.20475E7</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>514</v>
+        <v>641</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>300</v>
+        <v>365</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>333</v>
+        <v>414</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>515</v>
+        <v>642</v>
       </c>
       <c r="H142" s="4">
         <v>0.0</v>
@@ -14839,19 +15428,19 @@
         <v>6.22495E7</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>516</v>
+        <v>643</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>341</v>
+        <v>426</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>342</v>
+        <v>427</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>344</v>
+        <v>429</v>
       </c>
       <c r="H143" s="4">
         <v>0.0</v>
@@ -14931,7 +15520,7 @@
       <c r="G144" s="8"/>
       <c r="H144" s="5">
         <f>SUM(H2:H143)</f>
-        <v>537</v>
+        <v>1053</v>
       </c>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
@@ -50920,148 +51509,277 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="L4"/>
-    <hyperlink r:id="rId3" ref="N4"/>
-    <hyperlink r:id="rId4" ref="P4"/>
-    <hyperlink r:id="rId5" ref="J9"/>
-    <hyperlink r:id="rId6" ref="L9"/>
-    <hyperlink r:id="rId7" ref="P9"/>
-    <hyperlink r:id="rId8" ref="J11"/>
-    <hyperlink r:id="rId9" ref="L11"/>
-    <hyperlink r:id="rId10" ref="N11"/>
-    <hyperlink r:id="rId11" ref="P11"/>
-    <hyperlink r:id="rId12" ref="J12"/>
-    <hyperlink r:id="rId13" ref="L12"/>
-    <hyperlink r:id="rId14" ref="N12"/>
-    <hyperlink r:id="rId15" ref="L13"/>
-    <hyperlink r:id="rId16" ref="N13"/>
-    <hyperlink r:id="rId17" ref="P13"/>
-    <hyperlink r:id="rId18" ref="J20"/>
-    <hyperlink r:id="rId19" ref="L20"/>
-    <hyperlink r:id="rId20" ref="N20"/>
-    <hyperlink r:id="rId21" ref="P20"/>
-    <hyperlink r:id="rId22" ref="L26"/>
-    <hyperlink r:id="rId23" ref="N26"/>
-    <hyperlink r:id="rId24" ref="P26"/>
-    <hyperlink r:id="rId25" ref="L28"/>
-    <hyperlink r:id="rId26" ref="N28"/>
-    <hyperlink r:id="rId27" ref="P28"/>
-    <hyperlink r:id="rId28" ref="J32"/>
-    <hyperlink r:id="rId29" ref="L32"/>
-    <hyperlink r:id="rId30" ref="N32"/>
-    <hyperlink r:id="rId31" ref="L33"/>
-    <hyperlink r:id="rId32" ref="L36"/>
-    <hyperlink r:id="rId33" ref="N36"/>
-    <hyperlink r:id="rId34" ref="P36"/>
-    <hyperlink r:id="rId35" ref="L40"/>
-    <hyperlink r:id="rId36" ref="J44"/>
-    <hyperlink r:id="rId37" ref="L44"/>
-    <hyperlink r:id="rId38" ref="N44"/>
-    <hyperlink r:id="rId39" ref="P44"/>
-    <hyperlink r:id="rId40" ref="N47"/>
-    <hyperlink r:id="rId41" ref="J50"/>
-    <hyperlink r:id="rId42" ref="L50"/>
-    <hyperlink r:id="rId43" ref="N50"/>
-    <hyperlink r:id="rId44" ref="P50"/>
-    <hyperlink r:id="rId45" ref="J52"/>
-    <hyperlink r:id="rId46" ref="L52"/>
-    <hyperlink r:id="rId47" ref="N52"/>
-    <hyperlink r:id="rId48" ref="P52"/>
-    <hyperlink r:id="rId49" ref="J54"/>
-    <hyperlink r:id="rId50" ref="L54"/>
-    <hyperlink r:id="rId51" ref="N54"/>
-    <hyperlink r:id="rId52" ref="P54"/>
-    <hyperlink r:id="rId53" ref="L61"/>
-    <hyperlink r:id="rId54" ref="P61"/>
-    <hyperlink r:id="rId55" ref="J62"/>
-    <hyperlink r:id="rId56" ref="L62"/>
-    <hyperlink r:id="rId57" ref="N62"/>
-    <hyperlink r:id="rId58" ref="P62"/>
-    <hyperlink r:id="rId59" ref="J64"/>
-    <hyperlink r:id="rId60" ref="L64"/>
-    <hyperlink r:id="rId61" ref="N64"/>
-    <hyperlink r:id="rId62" ref="P64"/>
-    <hyperlink r:id="rId63" ref="L65"/>
-    <hyperlink r:id="rId64" ref="N65"/>
-    <hyperlink r:id="rId65" ref="P65"/>
-    <hyperlink r:id="rId66" ref="J66"/>
-    <hyperlink r:id="rId67" ref="L66"/>
-    <hyperlink r:id="rId68" ref="N66"/>
-    <hyperlink r:id="rId69" ref="P66"/>
-    <hyperlink r:id="rId70" ref="J68"/>
-    <hyperlink r:id="rId71" ref="L68"/>
-    <hyperlink r:id="rId72" ref="N68"/>
-    <hyperlink r:id="rId73" ref="J69"/>
-    <hyperlink r:id="rId74" ref="J70"/>
-    <hyperlink r:id="rId75" ref="L70"/>
-    <hyperlink r:id="rId76" ref="N70"/>
-    <hyperlink r:id="rId77" ref="P70"/>
-    <hyperlink r:id="rId78" ref="J71"/>
-    <hyperlink r:id="rId79" ref="L71"/>
-    <hyperlink r:id="rId80" ref="N71"/>
-    <hyperlink r:id="rId81" ref="P71"/>
-    <hyperlink r:id="rId82" ref="L72"/>
-    <hyperlink r:id="rId83" ref="P72"/>
-    <hyperlink r:id="rId84" ref="L82"/>
-    <hyperlink r:id="rId85" ref="P82"/>
-    <hyperlink r:id="rId86" ref="J91"/>
-    <hyperlink r:id="rId87" ref="L91"/>
-    <hyperlink r:id="rId88" ref="N91"/>
-    <hyperlink r:id="rId89" ref="P91"/>
-    <hyperlink r:id="rId90" ref="J103"/>
-    <hyperlink r:id="rId91" ref="L103"/>
-    <hyperlink r:id="rId92" ref="N103"/>
-    <hyperlink r:id="rId93" ref="P103"/>
-    <hyperlink r:id="rId94" ref="L111"/>
-    <hyperlink r:id="rId95" ref="J114"/>
-    <hyperlink r:id="rId96" ref="L114"/>
-    <hyperlink r:id="rId97" ref="N114"/>
-    <hyperlink r:id="rId98" ref="P114"/>
-    <hyperlink r:id="rId99" ref="J115"/>
-    <hyperlink r:id="rId100" ref="L115"/>
-    <hyperlink r:id="rId101" ref="N115"/>
-    <hyperlink r:id="rId102" ref="P115"/>
-    <hyperlink r:id="rId103" ref="L118"/>
-    <hyperlink r:id="rId104" ref="N118"/>
-    <hyperlink r:id="rId105" ref="P118"/>
-    <hyperlink r:id="rId106" ref="J120"/>
-    <hyperlink r:id="rId107" ref="L120"/>
-    <hyperlink r:id="rId108" ref="N120"/>
-    <hyperlink r:id="rId109" ref="J123"/>
-    <hyperlink r:id="rId110" ref="L123"/>
-    <hyperlink r:id="rId111" ref="N123"/>
-    <hyperlink r:id="rId112" ref="P123"/>
-    <hyperlink r:id="rId113" ref="L127"/>
-    <hyperlink r:id="rId114" ref="N127"/>
-    <hyperlink r:id="rId115" ref="J128"/>
-    <hyperlink r:id="rId116" ref="L128"/>
-    <hyperlink r:id="rId117" ref="N128"/>
-    <hyperlink r:id="rId118" ref="P128"/>
-    <hyperlink r:id="rId119" ref="L129"/>
-    <hyperlink r:id="rId120" ref="N129"/>
-    <hyperlink r:id="rId121" ref="P129"/>
-    <hyperlink r:id="rId122" ref="J130"/>
-    <hyperlink r:id="rId123" ref="N130"/>
-    <hyperlink r:id="rId124" ref="P130"/>
-    <hyperlink r:id="rId125" ref="J131"/>
-    <hyperlink r:id="rId126" ref="L131"/>
-    <hyperlink r:id="rId127" ref="N131"/>
-    <hyperlink r:id="rId128" ref="P131"/>
-    <hyperlink r:id="rId129" ref="J138"/>
-    <hyperlink r:id="rId130" ref="L138"/>
-    <hyperlink r:id="rId131" ref="N138"/>
-    <hyperlink r:id="rId132" ref="P138"/>
-    <hyperlink r:id="rId133" ref="J139"/>
-    <hyperlink r:id="rId134" ref="L139"/>
-    <hyperlink r:id="rId135" ref="N139"/>
-    <hyperlink r:id="rId136" ref="P139"/>
-    <hyperlink r:id="rId137" ref="L141"/>
-    <hyperlink r:id="rId138" ref="P141"/>
+    <hyperlink r:id="rId1" ref="V2"/>
+    <hyperlink r:id="rId2" ref="X2"/>
+    <hyperlink r:id="rId3" ref="L4"/>
+    <hyperlink r:id="rId4" ref="N4"/>
+    <hyperlink r:id="rId5" ref="P4"/>
+    <hyperlink r:id="rId6" ref="R4"/>
+    <hyperlink r:id="rId7" ref="T4"/>
+    <hyperlink r:id="rId8" location="slide=id.g3b70900641_0_203" ref="V4"/>
+    <hyperlink r:id="rId9" ref="X4"/>
+    <hyperlink r:id="rId10" ref="J9"/>
+    <hyperlink r:id="rId11" ref="L9"/>
+    <hyperlink r:id="rId12" ref="P9"/>
+    <hyperlink r:id="rId13" ref="R9"/>
+    <hyperlink r:id="rId14" ref="T9"/>
+    <hyperlink r:id="rId15" ref="X9"/>
+    <hyperlink r:id="rId16" ref="J11"/>
+    <hyperlink r:id="rId17" ref="L11"/>
+    <hyperlink r:id="rId18" ref="N11"/>
+    <hyperlink r:id="rId19" ref="P11"/>
+    <hyperlink r:id="rId20" ref="R11"/>
+    <hyperlink r:id="rId21" ref="T11"/>
+    <hyperlink r:id="rId22" location="slide=id.p" ref="V11"/>
+    <hyperlink r:id="rId23" ref="X11"/>
+    <hyperlink r:id="rId24" ref="J12"/>
+    <hyperlink r:id="rId25" ref="L12"/>
+    <hyperlink r:id="rId26" ref="N12"/>
+    <hyperlink r:id="rId27" ref="R12"/>
+    <hyperlink r:id="rId28" ref="T12"/>
+    <hyperlink r:id="rId29" ref="V12"/>
+    <hyperlink r:id="rId30" ref="X12"/>
+    <hyperlink r:id="rId31" ref="L13"/>
+    <hyperlink r:id="rId32" ref="N13"/>
+    <hyperlink r:id="rId33" ref="P13"/>
+    <hyperlink r:id="rId34" ref="R13"/>
+    <hyperlink r:id="rId35" ref="T13"/>
+    <hyperlink r:id="rId36" location="slide=id.g3b70900641_0_0" ref="V13"/>
+    <hyperlink r:id="rId37" ref="X13"/>
+    <hyperlink r:id="rId38" ref="J20"/>
+    <hyperlink r:id="rId39" ref="L20"/>
+    <hyperlink r:id="rId40" ref="N20"/>
+    <hyperlink r:id="rId41" ref="P20"/>
+    <hyperlink r:id="rId42" ref="T20"/>
+    <hyperlink r:id="rId43" ref="X20"/>
+    <hyperlink r:id="rId44" ref="L26"/>
+    <hyperlink r:id="rId45" ref="N26"/>
+    <hyperlink r:id="rId46" ref="P26"/>
+    <hyperlink r:id="rId47" ref="R26"/>
+    <hyperlink r:id="rId48" ref="T26"/>
+    <hyperlink r:id="rId49" ref="V26"/>
+    <hyperlink r:id="rId50" ref="X26"/>
+    <hyperlink r:id="rId51" ref="L28"/>
+    <hyperlink r:id="rId52" ref="N28"/>
+    <hyperlink r:id="rId53" ref="P28"/>
+    <hyperlink r:id="rId54" ref="R28"/>
+    <hyperlink r:id="rId55" ref="T28"/>
+    <hyperlink r:id="rId56" ref="V28"/>
+    <hyperlink r:id="rId57" ref="X28"/>
+    <hyperlink r:id="rId58" ref="J32"/>
+    <hyperlink r:id="rId59" ref="L32"/>
+    <hyperlink r:id="rId60" ref="N32"/>
+    <hyperlink r:id="rId61" ref="R32"/>
+    <hyperlink r:id="rId62" ref="T32"/>
+    <hyperlink r:id="rId63" ref="X32"/>
+    <hyperlink r:id="rId64" ref="L33"/>
+    <hyperlink r:id="rId65" ref="L36"/>
+    <hyperlink r:id="rId66" ref="N36"/>
+    <hyperlink r:id="rId67" ref="P36"/>
+    <hyperlink r:id="rId68" location="slide=id.g3b70900641_0_0" ref="V36"/>
+    <hyperlink r:id="rId69" ref="L40"/>
+    <hyperlink r:id="rId70" ref="R40"/>
+    <hyperlink r:id="rId71" ref="T40"/>
+    <hyperlink r:id="rId72" ref="X40"/>
+    <hyperlink r:id="rId73" ref="J44"/>
+    <hyperlink r:id="rId74" ref="L44"/>
+    <hyperlink r:id="rId75" ref="N44"/>
+    <hyperlink r:id="rId76" ref="R44"/>
+    <hyperlink r:id="rId77" ref="T44"/>
+    <hyperlink r:id="rId78" ref="V44"/>
+    <hyperlink r:id="rId79" ref="X44"/>
+    <hyperlink r:id="rId80" ref="N47"/>
+    <hyperlink r:id="rId81" ref="T47"/>
+    <hyperlink r:id="rId82" ref="J50"/>
+    <hyperlink r:id="rId83" ref="L50"/>
+    <hyperlink r:id="rId84" ref="N50"/>
+    <hyperlink r:id="rId85" ref="P50"/>
+    <hyperlink r:id="rId86" ref="R50"/>
+    <hyperlink r:id="rId87" ref="T50"/>
+    <hyperlink r:id="rId88" location="slide=id.g3b70900641_0_0" ref="V50"/>
+    <hyperlink r:id="rId89" ref="X50"/>
+    <hyperlink r:id="rId90" ref="J52"/>
+    <hyperlink r:id="rId91" ref="L52"/>
+    <hyperlink r:id="rId92" ref="N52"/>
+    <hyperlink r:id="rId93" ref="P52"/>
+    <hyperlink r:id="rId94" ref="R52"/>
+    <hyperlink r:id="rId95" location="slide=id.g3a394584c0_2_2" ref="V52"/>
+    <hyperlink r:id="rId96" ref="X52"/>
+    <hyperlink r:id="rId97" ref="J54"/>
+    <hyperlink r:id="rId98" ref="L54"/>
+    <hyperlink r:id="rId99" ref="N54"/>
+    <hyperlink r:id="rId100" ref="P54"/>
+    <hyperlink r:id="rId101" ref="R54"/>
+    <hyperlink r:id="rId102" ref="T54"/>
+    <hyperlink r:id="rId103" ref="X56"/>
+    <hyperlink r:id="rId104" ref="L61"/>
+    <hyperlink r:id="rId105" ref="P61"/>
+    <hyperlink r:id="rId106" ref="R61"/>
+    <hyperlink r:id="rId107" ref="T61"/>
+    <hyperlink r:id="rId108" location="slide=id.g3b70900641_0_0" ref="V61"/>
+    <hyperlink r:id="rId109" ref="X61"/>
+    <hyperlink r:id="rId110" ref="J62"/>
+    <hyperlink r:id="rId111" ref="L62"/>
+    <hyperlink r:id="rId112" ref="N62"/>
+    <hyperlink r:id="rId113" ref="P62"/>
+    <hyperlink r:id="rId114" location="slide=id.p1" ref="V62"/>
+    <hyperlink r:id="rId115" ref="X62"/>
+    <hyperlink r:id="rId116" ref="J64"/>
+    <hyperlink r:id="rId117" ref="L64"/>
+    <hyperlink r:id="rId118" ref="N64"/>
+    <hyperlink r:id="rId119" ref="P64"/>
+    <hyperlink r:id="rId120" ref="R64"/>
+    <hyperlink r:id="rId121" ref="T64"/>
+    <hyperlink r:id="rId122" location="slide=id.g3b70900641_0_0" ref="V64"/>
+    <hyperlink r:id="rId123" ref="X64"/>
+    <hyperlink r:id="rId124" ref="L65"/>
+    <hyperlink r:id="rId125" ref="N65"/>
+    <hyperlink r:id="rId126" ref="P65"/>
+    <hyperlink r:id="rId127" ref="R65"/>
+    <hyperlink r:id="rId128" ref="T65"/>
+    <hyperlink r:id="rId129" ref="V65"/>
+    <hyperlink r:id="rId130" ref="J66"/>
+    <hyperlink r:id="rId131" ref="L66"/>
+    <hyperlink r:id="rId132" ref="N66"/>
+    <hyperlink r:id="rId133" ref="P66"/>
+    <hyperlink r:id="rId134" ref="R66"/>
+    <hyperlink r:id="rId135" ref="T66"/>
+    <hyperlink r:id="rId136" location="slide=id.g3b70900641_0_0" ref="V66"/>
+    <hyperlink r:id="rId137" ref="X66"/>
+    <hyperlink r:id="rId138" ref="J68"/>
+    <hyperlink r:id="rId139" ref="L68"/>
+    <hyperlink r:id="rId140" ref="N68"/>
+    <hyperlink r:id="rId141" ref="R68"/>
+    <hyperlink r:id="rId142" ref="T68"/>
+    <hyperlink r:id="rId143" location="slide=id.g3b70900641_0_0" ref="V68"/>
+    <hyperlink r:id="rId144" ref="X68"/>
+    <hyperlink r:id="rId145" ref="J69"/>
+    <hyperlink r:id="rId146" ref="R69"/>
+    <hyperlink r:id="rId147" ref="T69"/>
+    <hyperlink r:id="rId148" ref="V69"/>
+    <hyperlink r:id="rId149" ref="X69"/>
+    <hyperlink r:id="rId150" ref="J70"/>
+    <hyperlink r:id="rId151" ref="L70"/>
+    <hyperlink r:id="rId152" ref="N70"/>
+    <hyperlink r:id="rId153" ref="P70"/>
+    <hyperlink r:id="rId154" ref="R70"/>
+    <hyperlink r:id="rId155" ref="T70"/>
+    <hyperlink r:id="rId156" location="slide=id.g3b70900641_0_0" ref="V70"/>
+    <hyperlink r:id="rId157" ref="X70"/>
+    <hyperlink r:id="rId158" ref="J71"/>
+    <hyperlink r:id="rId159" ref="L71"/>
+    <hyperlink r:id="rId160" ref="N71"/>
+    <hyperlink r:id="rId161" ref="P71"/>
+    <hyperlink r:id="rId162" ref="R71"/>
+    <hyperlink r:id="rId163" ref="T71"/>
+    <hyperlink r:id="rId164" ref="V71"/>
+    <hyperlink r:id="rId165" ref="X71"/>
+    <hyperlink r:id="rId166" ref="L72"/>
+    <hyperlink r:id="rId167" ref="P72"/>
+    <hyperlink r:id="rId168" ref="L82"/>
+    <hyperlink r:id="rId169" ref="P82"/>
+    <hyperlink r:id="rId170" location="slide=id.g3a3f5f2f0e_1_5" ref="V82"/>
+    <hyperlink r:id="rId171" ref="X82"/>
+    <hyperlink r:id="rId172" ref="J91"/>
+    <hyperlink r:id="rId173" ref="L91"/>
+    <hyperlink r:id="rId174" ref="N91"/>
+    <hyperlink r:id="rId175" ref="P91"/>
+    <hyperlink r:id="rId176" ref="R91"/>
+    <hyperlink r:id="rId177" ref="T91"/>
+    <hyperlink r:id="rId178" location="slide=id.g3b70900641_0_0" ref="V91"/>
+    <hyperlink r:id="rId179" ref="X91"/>
+    <hyperlink r:id="rId180" ref="J103"/>
+    <hyperlink r:id="rId181" ref="L103"/>
+    <hyperlink r:id="rId182" ref="N103"/>
+    <hyperlink r:id="rId183" ref="P103"/>
+    <hyperlink r:id="rId184" ref="T103"/>
+    <hyperlink r:id="rId185" location="slide=id.g3b70900641_0_0" ref="V103"/>
+    <hyperlink r:id="rId186" ref="X103"/>
+    <hyperlink r:id="rId187" ref="L111"/>
+    <hyperlink r:id="rId188" ref="R111"/>
+    <hyperlink r:id="rId189" ref="T111"/>
+    <hyperlink r:id="rId190" ref="X111"/>
+    <hyperlink r:id="rId191" ref="J114"/>
+    <hyperlink r:id="rId192" ref="L114"/>
+    <hyperlink r:id="rId193" ref="N114"/>
+    <hyperlink r:id="rId194" ref="P114"/>
+    <hyperlink r:id="rId195" ref="J115"/>
+    <hyperlink r:id="rId196" ref="L115"/>
+    <hyperlink r:id="rId197" ref="N115"/>
+    <hyperlink r:id="rId198" ref="P115"/>
+    <hyperlink r:id="rId199" ref="T115"/>
+    <hyperlink r:id="rId200" ref="X115"/>
+    <hyperlink r:id="rId201" ref="L118"/>
+    <hyperlink r:id="rId202" ref="N118"/>
+    <hyperlink r:id="rId203" ref="P118"/>
+    <hyperlink r:id="rId204" location="slide=id.g3b70900641_0_0" ref="V118"/>
+    <hyperlink r:id="rId205" ref="X118"/>
+    <hyperlink r:id="rId206" ref="J120"/>
+    <hyperlink r:id="rId207" ref="L120"/>
+    <hyperlink r:id="rId208" ref="N120"/>
+    <hyperlink r:id="rId209" ref="J123"/>
+    <hyperlink r:id="rId210" ref="L123"/>
+    <hyperlink r:id="rId211" ref="N123"/>
+    <hyperlink r:id="rId212" ref="P123"/>
+    <hyperlink r:id="rId213" ref="R123"/>
+    <hyperlink r:id="rId214" ref="T123"/>
+    <hyperlink r:id="rId215" location="slide=id.g3b70900641_0_0" ref="V123"/>
+    <hyperlink r:id="rId216" ref="X123"/>
+    <hyperlink r:id="rId217" ref="L127"/>
+    <hyperlink r:id="rId218" ref="N127"/>
+    <hyperlink r:id="rId219" ref="J128"/>
+    <hyperlink r:id="rId220" ref="L128"/>
+    <hyperlink r:id="rId221" ref="N128"/>
+    <hyperlink r:id="rId222" ref="P128"/>
+    <hyperlink r:id="rId223" ref="R128"/>
+    <hyperlink r:id="rId224" ref="T128"/>
+    <hyperlink r:id="rId225" location="slide=id.g3b70900641_0_0" ref="V128"/>
+    <hyperlink r:id="rId226" ref="X128"/>
+    <hyperlink r:id="rId227" ref="L129"/>
+    <hyperlink r:id="rId228" ref="N129"/>
+    <hyperlink r:id="rId229" ref="P129"/>
+    <hyperlink r:id="rId230" ref="R129"/>
+    <hyperlink r:id="rId231" ref="T129"/>
+    <hyperlink r:id="rId232" ref="V129"/>
+    <hyperlink r:id="rId233" ref="X129"/>
+    <hyperlink r:id="rId234" ref="J130"/>
+    <hyperlink r:id="rId235" ref="N130"/>
+    <hyperlink r:id="rId236" ref="P130"/>
+    <hyperlink r:id="rId237" ref="T130"/>
+    <hyperlink r:id="rId238" ref="J131"/>
+    <hyperlink r:id="rId239" ref="L131"/>
+    <hyperlink r:id="rId240" ref="N131"/>
+    <hyperlink r:id="rId241" ref="P131"/>
+    <hyperlink r:id="rId242" ref="R131"/>
+    <hyperlink r:id="rId243" ref="T131"/>
+    <hyperlink r:id="rId244" ref="V131"/>
+    <hyperlink r:id="rId245" ref="X131"/>
+    <hyperlink r:id="rId246" ref="J138"/>
+    <hyperlink r:id="rId247" ref="L138"/>
+    <hyperlink r:id="rId248" ref="N138"/>
+    <hyperlink r:id="rId249" ref="P138"/>
+    <hyperlink r:id="rId250" ref="R138"/>
+    <hyperlink r:id="rId251" ref="T138"/>
+    <hyperlink r:id="rId252" ref="V138"/>
+    <hyperlink r:id="rId253" ref="X138"/>
+    <hyperlink r:id="rId254" ref="J139"/>
+    <hyperlink r:id="rId255" ref="L139"/>
+    <hyperlink r:id="rId256" ref="N139"/>
+    <hyperlink r:id="rId257" ref="P139"/>
+    <hyperlink r:id="rId258" ref="R139"/>
+    <hyperlink r:id="rId259" ref="T139"/>
+    <hyperlink r:id="rId260" location="slide=id.g3a4571af9b_0_0" ref="V139"/>
+    <hyperlink r:id="rId261" ref="X139"/>
+    <hyperlink r:id="rId262" ref="L141"/>
+    <hyperlink r:id="rId263" ref="P141"/>
+    <hyperlink r:id="rId264" ref="R141"/>
+    <hyperlink r:id="rId265" ref="T141"/>
+    <hyperlink r:id="rId266" location="slide=id.g3b70900641_0_0" ref="V141"/>
+    <hyperlink r:id="rId267" ref="X141"/>
   </hyperlinks>
-  <drawing r:id="rId139"/>
-  <legacyDrawing r:id="rId140"/>
+  <drawing r:id="rId268"/>
   <tableParts count="1">
-    <tablePart r:id="rId142"/>
+    <tablePart r:id="rId270"/>
   </tableParts>
 </worksheet>
 </file>
--- a/archivos_para_importacion/copa-tic_tablero.xlsx
+++ b/archivos_para_importacion/copa-tic_tablero.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="822">
   <si>
     <t>N°</t>
   </si>
@@ -211,6 +211,12 @@
     <t>https://www.instagram.com/p/BlBRlr9hGI3/?taken-by=equipoalmafuerte</t>
   </si>
   <si>
+    <t>http://telegra.ph/Practicas-antidiscriminatorias-07-16</t>
+  </si>
+  <si>
+    <t>https://timeline.knightlab.com/#preview-embed</t>
+  </si>
+  <si>
     <t>a04</t>
   </si>
   <si>
@@ -337,6 +343,15 @@
     <t>https://www.facebook.com/Anael.Argento1889/posts/1652679644849651</t>
   </si>
   <si>
+    <t>https://docs.google.com/document/d/13IBK-TEjuLGKDNzjPNyvilG4jK6hZ_BN6q36u-sW5CM/edit?ts=5b4bd08e</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1Ri_6r6bLeh1KiClSEfxrCQcnapM6yq60wdwU2VRvli0/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://cdn.knightlab.com/libs/timeline3/latest/embed/index.html?source=1wjFn1dKV9ELHsyntxJgGPgnh67GoRxQfa_1AVQzfhd0&amp;font=Default</t>
+  </si>
+  <si>
     <t>a11</t>
   </si>
   <si>
@@ -388,6 +403,12 @@
     <t>https://drive.google.com/file/d/0B3omEZWA1FCIazMzcFdHbGpMTTBucEZVUC04UG5WT3UzcnE0/view</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/0B3omEZWA1FCIdnVaTFRXQi0zczBTYVdFUXlTZ0VybDBVb2c4/view</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1YWX7QTdA2N1ckZoTEio4pv5yi118q2KjG9XiFe8ZQ2s/edit#gid=0</t>
+  </si>
+  <si>
     <t>a12</t>
   </si>
   <si>
@@ -631,6 +652,15 @@
     <t>https://www.instagram.com/p/Bk8Meijnhjx/?taken-by=eest1copatic</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1AIUpjsBQyVuU38XbWaW7tyWi1YPI_OF9/view</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1nPrsXOM0t2iJxwltoWthqUmGehmGB1MwDdkNMfopliU/edit</t>
+  </si>
+  <si>
+    <t>https://cdn.knightlab.com/libs/timeline3/latest/embed/index.html?source=1Dh6TZ3ZYN1l0MA3JIiziUm2kV-y_I7tRMtxwXwKBzDc&amp;font=Default&amp;lang=en&amp;initial_zoom=2&amp;height=650</t>
+  </si>
+  <si>
     <t>a28</t>
   </si>
   <si>
@@ -685,6 +715,9 @@
     <t>https://www.facebook.com/100003990736032/posts/1157097447766602/</t>
   </si>
   <si>
+    <t>https://docs.google.com/spreadsheets/d/1jbxJa6MPGMBGLdWvUBndFfqQ8W8_rb34JGcyIs8T0qk/edit?usp=drivesdk</t>
+  </si>
+  <si>
     <t>a32</t>
   </si>
   <si>
@@ -856,6 +889,9 @@
     <t>https://www.instagram.com/p/Bk8iee3HLH3/?utm_source=ig_share_sheet&amp;igshid=tpaxbg3ve2c1</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=166hqgZqpd3naiOi9PnDl06sWQTrBRBlZ</t>
+  </si>
+  <si>
     <t>a44</t>
   </si>
   <si>
@@ -997,6 +1033,15 @@
     <t>https://www.instagram.com/p/BlDbOnBlVs2/?utm_source=ig_share_sheet&amp;igshid=1wktp8l2kal6p</t>
   </si>
   <si>
+    <t>https://docs.google.com/document/d/1WpmxNY5LdQO4z0-y9A6m0RY5eqDjiK6IEj6y3saoDgY/edit</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1L6drF28Bg2DqG3-VIrt1koaKuam309-c4bZJJYC2U44/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://cdn.knightlab.com/libs/timeline3/latest/embed/index.html?source=18lqtPsC5Si10v0LTey8H81RI03IKQzzH4N6YrgXWHHU&amp;font=Default&amp;lang=en&amp;initial_zoom=2&amp;height=650</t>
+  </si>
+  <si>
     <t>a52</t>
   </si>
   <si>
@@ -1141,6 +1186,15 @@
     <t>https://www.instagram.com/p/BlDLvGfDx9k/?utm_source=ig_share_sheet&amp;igshid=611ot8npkv42&amp;r=wa1</t>
   </si>
   <si>
+    <t>https://docs.google.com/document/d/1pje8A2dSwvmradSepwGFpBt769VdlTLJi0jR4cP1fcY/edit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CP7abLCmHJYFl6xfQ-2Eygu0_Q8BsgFR/view</t>
+  </si>
+  <si>
+    <t>https://cdn.knightlab.com/libs/timeline3/latest/embed/index.html?source=1bgueayIYfNdFsDrP6WiZUkAA8lxRb5uExfPB1L8a5NA&amp;font=Default&amp;lang=en&amp;initial_zoom=2&amp;height=650</t>
+  </si>
+  <si>
     <t>a61</t>
   </si>
   <si>
@@ -1225,6 +1279,12 @@
     <t>https://twitter.com/Josefina_Melo/status/1016857991755288576</t>
   </si>
   <si>
+    <t>https://docs.google.com/spreadsheets/d/1MkyakL3JbZm6K31SOwMZlzVeX3YTwlObNBYsIn-aXQg/edit#gid=0</t>
+  </si>
+  <si>
+    <t>https://cdn.knightlab.com/libs/timeline3/latest/embed/index.html?source=1AtwY2l5vQRRdhTjAr_dixn6wvF6cu_9TemG0qXt09ro&amp;font=Default&amp;lang=en&amp;initial_zoom=2&amp;height=650</t>
+  </si>
+  <si>
     <t>a64</t>
   </si>
   <si>
@@ -1261,6 +1321,9 @@
     <t>https://i.imgur.com/5z5uWAo.png</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1xiR3b5o-QN9UfS2SUMDR-nvGtAieSfmV</t>
+  </si>
+  <si>
     <t>a65</t>
   </si>
   <si>
@@ -1309,6 +1372,15 @@
     <t>https://twitter.com/YaninaRivero14/status/1015450819171422209?s=03</t>
   </si>
   <si>
+    <t>https://docs.google.com/document/d/1WF3VPcxVrjMYP84f3RMwz7cKAFiBhPMta_I8yp9KbfI/edit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sQ56Ic65h5-k3773UjY8X8IRDZ5zmnpG/view</t>
+  </si>
+  <si>
+    <t>https://cdn.knightlab.com/libs/timeline3/latest/embed/index.html?source=1lST1R8Pa92TO-Sp6aGHmw8QmqejzAjVKv0l8GOemf8o&amp;font=Default&amp;lang=en&amp;initial_zoom=2&amp;height=650</t>
+  </si>
+  <si>
     <t>a66</t>
   </si>
   <si>
@@ -1369,6 +1441,15 @@
     <t>https://www.instagram.com/ees61mdp/</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=s5dzdg9upx4</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/mFL9nDQ.png</t>
+  </si>
+  <si>
+    <t>https://cdn.knightlab.com/libs/timeline3/latest/embed/index.html?source=17p-XRGG_-QZAap3EdQ3fcA1EfznzxtlxB7DpzXg6sBM&amp;font=Default&amp;lang=es&amp;initial_zoom=2&amp;height=650</t>
+  </si>
+  <si>
     <t>a68</t>
   </si>
   <si>
@@ -1453,6 +1534,15 @@
     <t>https://www.facebook.com/636382016552512/posts/816576541866391/</t>
   </si>
   <si>
+    <t>https://docs.google.com/document/d/1ob3zlIjJ6ORv0YYKRDFYkA3pjg-_rTBYyBxCzPP7lFY/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1RphyVxNov41RdunmpqPfrfDeS-qb_wM9</t>
+  </si>
+  <si>
+    <t>https://cdn.knightlab.com/libs/timeline3/latest/embed/index.html?source=1v8sxYwUPyd4_5-v13VzYT1zRgP6qlkp_3c4ZvDF7TbY&amp;font=Default&amp;lang=en&amp;initial_zoom=2&amp;height=650</t>
+  </si>
+  <si>
     <t>a70</t>
   </si>
   <si>
@@ -1501,6 +1591,15 @@
     <t>https://i.imgur.com/OXP75U0.jpg</t>
   </si>
   <si>
+    <t>https://padlet.com/TICALSINA/CopaTic</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1FLT4hYr2W4uTjQEzKwuJunP4l9LyGF8ut8ohYqtd17Y/edit</t>
+  </si>
+  <si>
+    <t>https://cdn.knightlab.com/libs/timeline3/latest/embed/index.html?source=1s3Nmjj5EGroadCYVIUfMvrxfnhCvWfBjy4TKHZOStL4&amp;font=Default&amp;lang=en&amp;initial_zoom=2&amp;height=650</t>
+  </si>
+  <si>
     <t>a71</t>
   </si>
   <si>
@@ -1534,6 +1633,15 @@
     <t>https://i.imgur.com/Le3fnaq.jpg</t>
   </si>
   <si>
+    <t>https://docs.google.com/document/d/1B5UTqbxULx14-vIo8XaZjNcHC1Lp8h_Od9PIhgTCO2k/edit</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rw1jotH.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.knightlab.com/libs/timeline3/latest/embed/index.html?source=1xWxkZbrLEnxy0p6RdsYOM6wkGBSVT9unoYD6VoSCO5k&amp;font=Default&amp;lang=en&amp;initial_zoom=2&amp;height=650</t>
+  </si>
+  <si>
     <t>b01</t>
   </si>
   <si>
@@ -1597,6 +1705,12 @@
     <t>https://www.instagram.com/p/Bk5wrKbjSB1Wb10MnLAdwp8ZO047Z-VkWYP_JU0/?utm_source=ig_share_sheet&amp;igshid=1pglzlbizp031&amp;r=wa1</t>
   </si>
   <si>
+    <t>https://docs.google.com/spreadsheets/d/1hR-YI5URSC5VWEsxMcWDA_qGFkZnjuseCxmvYyxwYV8/edit</t>
+  </si>
+  <si>
+    <t>https://cdn.knightlab.com/libs/timeline3/latest/embed/index.html?source=1RV6uKLcOpW9kxeP4gCQazniUZpSnjJIUG0VHKsqpK9c&amp;font=Default&amp;lang=es&amp;initial_zoom=2&amp;height=650</t>
+  </si>
+  <si>
     <t>b11</t>
   </si>
   <si>
@@ -1744,6 +1858,9 @@
     <t>https://www.instagram.com/buscadores_de_gloria/</t>
   </si>
   <si>
+    <t>https://docs.google.com/document/d/1H0_pOq95wwgzhv2gvcXGLoT3qTS8abPxuSJmMDClMs0/edit</t>
+  </si>
+  <si>
     <t>b32</t>
   </si>
   <si>
@@ -1783,6 +1900,15 @@
     <t>Myrna Liliana Vaccarini</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1BQmsUvwWGMkhZR29bcIzN-5eRikIl2So</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/13f93zog_wQdCE22aRlqmrFEDMnkQAOkYAdq-13gKN8w/edit#gid=980550210</t>
+  </si>
+  <si>
+    <t>https://cdn.knightlab.com/libs/timeline3/latest/embed/index.html?source=1Cy2TfO6MKW3yCcDkyVeFbbOba1yV9_mDg19v877JpsA&amp;font=Default&amp;lang=en&amp;initial_zoom=2&amp;height=650</t>
+  </si>
+  <si>
     <t>b40</t>
   </si>
   <si>
@@ -1837,12 +1963,18 @@
     <t>https://www.youtube.com/watch?v=o1NnqfvXdCo</t>
   </si>
   <si>
+    <t>https://soundcloud.com/claudio-augusto-470038875/rap-de-japon</t>
+  </si>
+  <si>
     <t>https://www.instagram.com/escuela.19/</t>
   </si>
   <si>
     <t>https://www.instagram.com/p/BlBQtoYHbHg/?taken-by=escuela.19</t>
   </si>
   <si>
+    <t>https://docs.google.com/spreadsheets/d/1YwM7AmCP3F3B3awVEknJaNsFaRb1mb539Hq0P1_BxEk/edit</t>
+  </si>
+  <si>
     <t>b44</t>
   </si>
   <si>
@@ -1948,6 +2080,15 @@
     <t>https://soundcloud.com/alina-gallo-372924026/ritmo-musical-ensna</t>
   </si>
   <si>
+    <t>https://docs.google.com/document/d/1RX48rzYnny0tW5nYof7NF81mELSiyEtafI8RsPatnWw/edit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1-ASqEenGmKqP3iTvGPNpklkjX2G_BwFXbp3WqJE4BDI</t>
+  </si>
+  <si>
+    <t>https://cdn.knightlab.com/libs/timeline3/latest/embed/index.html?source=1GvbwOedJgQDPSZdl36l03yIzEVqTAsoGjNSolGbzEgw&amp;font=Default&amp;lang=en&amp;initial_zoom=2&amp;height=650</t>
+  </si>
+  <si>
     <t>b52</t>
   </si>
   <si>
@@ -2020,6 +2161,18 @@
     <t>https://www.instagram.com/p/Bk2RZ1lg8Fu/?utm_source=ig_share_sheet&amp;igshid=1cconwbeopk2m</t>
   </si>
   <si>
+    <t>https://scratch.mit.edu/projects/236116448/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/BlK2ASiB8hw/?utm_source=ig_share_sheet&amp;igshid=1mps7p5bzt4xl</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/14tkhefBs8Ur1FwnbDKN1S-FJ5zjXWoHbyHLa-h19G_Y/edit</t>
+  </si>
+  <si>
+    <t>https://cdn.knightlab.com/libs/timeline3/latest/embed/index.html?source=1rObqkMAoP4DqWSruIrv0QcCMDB-g-AfX4lde3NDl1mU&amp;font=Default</t>
+  </si>
+  <si>
     <t>b57</t>
   </si>
   <si>
@@ -2077,6 +2230,12 @@
     <t>https://www.instagram.com/p/Bk6MkbVnOwh/?taken-by=tecnicafutbol</t>
   </si>
   <si>
+    <t>https://i.imgur.com/ooKM1Gl.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/WAjEwxy.png</t>
+  </si>
+  <si>
     <t>b59</t>
   </si>
   <si>
@@ -2119,6 +2278,15 @@
     <t>https://twitter.com/edusandez1</t>
   </si>
   <si>
+    <t>https://prezi.com/2ctow5765foz/1/?utm_campaign=share&amp;utm_medium=copy</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1xK0aX8dorXWGiyT88ugSfM_QchNtAEBAJzn4gvEyYEc/edit</t>
+  </si>
+  <si>
+    <t>https://cdn.knightlab.com/libs/timeline3/latest/embed/index.html?source=1J8EAafO0gXFz94SdmJHxsxCdVJ2EAo7IiiYekPBaapc&amp;font=Default&amp;lang=en&amp;initial_zoom=2&amp;height=650</t>
+  </si>
+  <si>
     <t>b60</t>
   </si>
   <si>
@@ -2188,6 +2356,15 @@
     <t>https://www.instagram.com/p/BlEr_nfB1vi/?utm_source=ig_share_sheet&amp;igshid=1qoozcwtnh106</t>
   </si>
   <si>
+    <t>https://drive.google.com/drive/folders/1-4MSAbTisDpXKrILm05nmekVO3I1Ig-I?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1XJ5v1Wrnc2TxiuOTnZxVprsJrJsYyTpe</t>
+  </si>
+  <si>
+    <t>https://cdn.knightlab.com/libs/timeline3/latest/embed/index.html?source=1dJbHsR6OPNJC52QwuSz-OiT7LhxR1DRPz_7Ovd0ikys&amp;font=Default&amp;lang=en&amp;initial_zoom=2&amp;height=650</t>
+  </si>
+  <si>
     <t>b67</t>
   </si>
   <si>
@@ -2227,9 +2404,21 @@
     <t>https://soundcloud.com/user-558064627-674428752/al-ritmo-del-mundial-mp3</t>
   </si>
   <si>
+    <t>https://www.instagram.com/elpabellon61/</t>
+  </si>
+  <si>
     <t>https://i.imgur.com/bKZSX7R.jpg</t>
   </si>
   <si>
+    <t>https://docs.google.com/document/d/12VmPZlEsw3TlStf-iDwmEPPgByvujbrWG1vwckc6uFk/edit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/0B4lAIoSgBlTUcS14SlNjVWNjQmtYaTVOQ0lxaFowLVhwcFdz/view</t>
+  </si>
+  <si>
+    <t>https://cdn.knightlab.com/libs/timeline3/latest/embed/index.html?source=1gknhHLazvmr1dVzwgklGdgXjrHgX4iMShzvWetluFxA&amp;font=Default&amp;lang=en&amp;initial_zoom=2&amp;height=650</t>
+  </si>
+  <si>
     <t>b68</t>
   </si>
   <si>
@@ -2270,6 +2459,15 @@
   </si>
   <si>
     <t>https://www.instagram.com/p/Bk5_yfcAsgE/?utm_source=ig_web_share</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cAPZ8xtoJyA</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1Z7FDRbNjE42tETFQ1tXSb4jRTUO35auHtD_oNHOeswQ/edit</t>
+  </si>
+  <si>
+    <t>https://cdn.knightlab.com/libs/timeline3/latest/embed/index.html?source=1-UdxmNY8r33PcK-TO3y8GJLcqgEg_xuyWKccQp4p50w&amp;font=Default&amp;lang=en&amp;initial_zoom=2&amp;height=650</t>
   </si>
   <si>
     <t>b70</t>
@@ -2855,7 +3053,7 @@
         <v>55</v>
       </c>
       <c r="H4" s="4">
-        <v>45.0</v>
+        <v>60.0</v>
       </c>
       <c r="I4" s="7" t="b">
         <v>1</v>
@@ -2926,21 +3124,25 @@
         <v>65</v>
       </c>
       <c r="AG4" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="8"/>
       <c r="AI4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="AK4" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4">
@@ -2950,10 +3152,10 @@
         <v>6.08846E7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>42</v>
@@ -3038,10 +3240,10 @@
         <v>6.08977E7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>42</v>
@@ -3126,10 +3328,10 @@
         <v>6.17713E7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>42</v>
@@ -3138,7 +3340,7 @@
         <v>43</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H7" s="4">
         <v>0.0</v>
@@ -3216,10 +3418,10 @@
         <v>6.17729E7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>42</v>
@@ -3304,19 +3506,19 @@
         <v>6.18589E7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H9" s="4">
         <v>45.0</v>
@@ -3325,13 +3527,13 @@
         <v>1</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M9" s="7" t="b">
         <v>1</v>
@@ -3341,19 +3543,19 @@
         <v>1</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U9" s="7" t="b">
         <v>1</v>
@@ -3363,31 +3565,31 @@
         <v>1</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Y9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z9" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AA9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB9" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AC9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD9" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AE9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF9" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AG9" s="7" t="b">
         <v>0</v>
@@ -3414,10 +3616,10 @@
         <v>6.1898E7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>42</v>
@@ -3502,111 +3704,117 @@
         <v>6.10971E7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H11" s="4">
-        <v>45.0</v>
+        <v>60.0</v>
       </c>
       <c r="I11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="S11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="U11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Y11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z11" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AA11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB11" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AC11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD11" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AE11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF11" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AG11" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11" s="8"/>
       <c r="AI11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="AK11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL11" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="AM11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN11" s="9" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4">
@@ -3616,109 +3824,113 @@
         <v>6.07662E7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H12" s="4">
-        <v>45.0</v>
+        <v>60.0</v>
       </c>
       <c r="I12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="M12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="O12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="S12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="U12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="W12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Y12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z12" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AA12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB12" s="9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AC12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD12" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AE12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF12" s="10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AG12" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12" s="8"/>
       <c r="AI12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="AK12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL12" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="AM12" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12" s="8"/>
     </row>
@@ -3730,19 +3942,19 @@
         <v>6.10399E7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H13" s="4">
         <v>29.0</v>
@@ -3755,43 +3967,43 @@
         <v>1</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="O13" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="S13" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="U13" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="W13" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="Y13" s="7" t="b">
         <v>0</v>
@@ -3834,19 +4046,19 @@
         <v>6.09171E7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H14" s="4">
         <v>3.0</v>
@@ -3887,7 +4099,7 @@
         <v>1</v>
       </c>
       <c r="Z14" s="9" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AA14" s="7" t="b">
         <v>0</v>
@@ -3926,13 +4138,13 @@
         <v>6.07653E7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>43</v>
@@ -4014,13 +4226,13 @@
         <v>6.17242E7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>43</v>
@@ -4102,13 +4314,13 @@
         <v>6.1757E7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>43</v>
@@ -4190,13 +4402,13 @@
         <v>6.18945E7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>43</v>
@@ -4278,19 +4490,19 @@
         <v>6.18947E7</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="H19" s="4">
         <v>0.0</v>
@@ -4368,19 +4580,19 @@
         <v>6.18972E7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H20" s="4">
         <v>32.0</v>
@@ -4389,25 +4601,25 @@
         <v>1</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="K20" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M20" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O20" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="Q20" s="7" t="b">
         <v>0</v>
@@ -4417,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="U20" s="7" t="b">
         <v>0</v>
@@ -4427,13 +4639,13 @@
         <v>1</v>
       </c>
       <c r="X20" s="9" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="Y20" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z20" s="9" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AA20" s="7" t="b">
         <v>0</v>
@@ -4443,13 +4655,13 @@
         <v>1</v>
       </c>
       <c r="AD20" s="10" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AE20" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF20" s="10" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AG20" s="7" t="b">
         <v>0</v>
@@ -4476,13 +4688,13 @@
         <v>6.19822E7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>43</v>
@@ -4564,13 +4776,13 @@
         <v>6.12125E7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>43</v>
@@ -4652,13 +4864,13 @@
         <v>6.12126E7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>43</v>
@@ -4740,13 +4952,13 @@
         <v>6.12271E7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>43</v>
@@ -4828,13 +5040,13 @@
         <v>6.12282E7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>43</v>
@@ -4916,19 +5128,19 @@
         <v>6.12304E7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H26" s="4">
         <v>40.0</v>
@@ -4941,49 +5153,49 @@
         <v>1</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="O26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="S26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="U26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V26" s="9" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="W26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X26" s="9" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Y26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z26" s="9" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AA26" s="7" t="b">
         <v>0</v>
@@ -4993,13 +5205,13 @@
         <v>1</v>
       </c>
       <c r="AD26" s="10" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AE26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF26" s="10" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AG26" s="7" t="b">
         <v>0</v>
@@ -5026,19 +5238,19 @@
         <v>6.07819E7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H27" s="4">
         <v>0.0</v>
@@ -5116,22 +5328,22 @@
         <v>6.10973E7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="H28" s="4">
-        <v>45.0</v>
+        <v>56.0</v>
       </c>
       <c r="I28" s="7" t="b">
         <v>1</v>
@@ -5141,84 +5353,90 @@
         <v>1</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="O28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="S28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="U28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V28" s="9" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="W28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X28" s="9" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Y28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z28" s="9" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="AA28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB28" s="9" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AC28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD28" s="10" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="AE28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF28" s="10" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AG28" s="7" t="b">
         <v>0</v>
       </c>
       <c r="AH28" s="8"/>
       <c r="AI28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="AK28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL28" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="AM28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN28" s="9" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="4">
@@ -5228,13 +5446,13 @@
         <v>6.18292E7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>43</v>
@@ -5316,13 +5534,13 @@
         <v>6.18294E7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>43</v>
@@ -5404,13 +5622,13 @@
         <v>6.1901E7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>43</v>
@@ -5492,40 +5710,40 @@
         <v>6.20401E7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="H32" s="4">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="I32" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="O32" s="7" t="b">
         <v>0</v>
@@ -5535,13 +5753,13 @@
         <v>1</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="S32" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T32" s="9" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="U32" s="7" t="b">
         <v>0</v>
@@ -5551,13 +5769,13 @@
         <v>1</v>
       </c>
       <c r="X32" s="9" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Y32" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z32" s="9" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="AA32" s="7" t="b">
         <v>0</v>
@@ -5567,13 +5785,13 @@
         <v>1</v>
       </c>
       <c r="AD32" s="10" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="AE32" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF32" s="10" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="AG32" s="7" t="b">
         <v>0</v>
@@ -5584,9 +5802,11 @@
       </c>
       <c r="AJ32" s="8"/>
       <c r="AK32" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL32" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="AM32" s="7" t="b">
         <v>0</v>
       </c>
@@ -5600,19 +5820,19 @@
         <v>6.07507E7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="H33" s="4">
         <v>3.0</v>
@@ -5625,7 +5845,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="M33" s="7" t="b">
         <v>0</v>
@@ -5692,13 +5912,13 @@
         <v>6.07895E7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>43</v>
@@ -5780,19 +6000,19 @@
         <v>6.00452E7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="H35" s="4">
         <v>0.0</v>
@@ -5870,19 +6090,19 @@
         <v>6.07469E7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="H36" s="4">
         <v>19.0</v>
@@ -5895,19 +6115,19 @@
         <v>1</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="M36" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="O36" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="Q36" s="7" t="b">
         <v>0</v>
@@ -5921,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="V36" s="9" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="W36" s="7" t="b">
         <v>0</v>
@@ -5968,19 +6188,19 @@
         <v>6.0747E7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="H37" s="4">
         <v>0.0</v>
@@ -6058,19 +6278,19 @@
         <v>6.11554E7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="H38" s="4">
         <v>0.0</v>
@@ -6148,19 +6368,19 @@
         <v>6.17939E7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="H39" s="4">
         <v>0.0</v>
@@ -6238,19 +6458,19 @@
         <v>6.05546E7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="H40" s="4">
         <v>34.0</v>
@@ -6263,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="M40" s="7" t="b">
         <v>0</v>
@@ -6277,13 +6497,13 @@
         <v>1</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="S40" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T40" s="9" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="U40" s="7" t="b">
         <v>1</v>
@@ -6293,19 +6513,19 @@
         <v>1</v>
       </c>
       <c r="X40" s="9" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="Y40" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z40" s="9" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="AA40" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB40" s="9" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="AC40" s="7" t="b">
         <v>1</v>
@@ -6340,19 +6560,19 @@
         <v>6.09278E7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="H41" s="4">
         <v>0.0</v>
@@ -6430,13 +6650,13 @@
         <v>6.17596E7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>43</v>
@@ -6518,19 +6738,19 @@
         <v>6.18186E7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="H43" s="4">
         <v>0.0</v>
@@ -6608,40 +6828,40 @@
         <v>6.18964E7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="H44" s="4">
-        <v>45.0</v>
+        <v>53.0</v>
       </c>
       <c r="I44" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="K44" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="M44" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="O44" s="7" t="b">
         <v>1</v>
@@ -6651,37 +6871,37 @@
         <v>1</v>
       </c>
       <c r="R44" s="9" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="S44" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T44" s="9" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="U44" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V44" s="9" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="W44" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X44" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="Y44" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z44" s="9" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="AA44" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB44" s="9" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="AC44" s="7" t="b">
         <v>1</v>
@@ -6691,10 +6911,10 @@
         <v>1</v>
       </c>
       <c r="AF44" s="10" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="AG44" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH44" s="8"/>
       <c r="AI44" s="7" t="b">
@@ -6702,9 +6922,11 @@
       </c>
       <c r="AJ44" s="8"/>
       <c r="AK44" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL44" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL44" s="9" t="s">
+        <v>292</v>
+      </c>
       <c r="AM44" s="7" t="b">
         <v>0</v>
       </c>
@@ -6718,19 +6940,19 @@
         <v>6.11816E7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="H45" s="4">
         <v>0.0</v>
@@ -6808,19 +7030,19 @@
         <v>6.17994E7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="H46" s="4">
         <v>0.0</v>
@@ -6898,19 +7120,19 @@
         <v>6.1743E7</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="H47" s="4">
         <v>11.0</v>
@@ -6927,7 +7149,7 @@
         <v>1</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="O47" s="7" t="b">
         <v>0</v>
@@ -6941,7 +7163,7 @@
         <v>1</v>
       </c>
       <c r="T47" s="9" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="U47" s="7" t="b">
         <v>0</v>
@@ -6992,19 +7214,19 @@
         <v>6.18899E7</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="H48" s="4">
         <v>0.0</v>
@@ -7082,13 +7304,13 @@
         <v>6.17639E7</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>43</v>
@@ -7170,19 +7392,19 @@
         <v>6.20268E7</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="H50" s="4">
         <v>29.0</v>
@@ -7191,49 +7413,49 @@
         <v>1</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="K50" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="M50" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="O50" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P50" s="9" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="Q50" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R50" s="9" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="S50" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T50" s="9" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="U50" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V50" s="9" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="W50" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X50" s="9" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="Y50" s="7" t="b">
         <v>0</v>
@@ -7276,13 +7498,13 @@
         <v>6.19806E7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>43</v>
@@ -7364,52 +7586,52 @@
         <v>6.07754E7</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="H52" s="4">
-        <v>45.0</v>
+        <v>60.0</v>
       </c>
       <c r="I52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="K52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="M52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="O52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P52" s="9" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="Q52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R52" s="9" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="S52" s="7" t="b">
         <v>1</v>
@@ -7419,54 +7641,60 @@
         <v>1</v>
       </c>
       <c r="V52" s="9" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="W52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X52" s="9" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="Y52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z52" s="9" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="AA52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB52" s="9" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="AC52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD52" s="10" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="AE52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF52" s="10" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="AG52" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH52" s="8"/>
       <c r="AI52" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ52" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ52" s="9" t="s">
+        <v>340</v>
+      </c>
       <c r="AK52" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL52" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL52" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="AM52" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN52" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN52" s="9" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="4">
@@ -7476,19 +7704,19 @@
         <v>6.1886101E7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="H53" s="4">
         <v>0.0</v>
@@ -7566,19 +7794,19 @@
         <v>6.19702E7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="H54" s="4">
         <v>32.0</v>
@@ -7587,37 +7815,37 @@
         <v>1</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="K54" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="M54" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="O54" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="Q54" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R54" s="13" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="S54" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T54" s="9" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="U54" s="7" t="b">
         <v>0</v>
@@ -7631,7 +7859,7 @@
         <v>1</v>
       </c>
       <c r="Z54" s="9" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="AA54" s="7" t="b">
         <v>0</v>
@@ -7641,13 +7869,13 @@
         <v>1</v>
       </c>
       <c r="AD54" s="10" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="AE54" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF54" s="10" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="AG54" s="7" t="b">
         <v>0</v>
@@ -7674,19 +7902,19 @@
         <v>6.1062E7</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="H55" s="4">
         <v>0.0</v>
@@ -7764,19 +7992,19 @@
         <v>6.11971E7</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="H56" s="4">
         <v>3.0</v>
@@ -7813,7 +8041,7 @@
         <v>1</v>
       </c>
       <c r="X56" s="9" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="Y56" s="7" t="b">
         <v>0</v>
@@ -7856,13 +8084,13 @@
         <v>6.07142E7</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>43</v>
@@ -7944,13 +8172,13 @@
         <v>6.18841E7</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>43</v>
@@ -8032,13 +8260,13 @@
         <v>6.22913E7</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>43</v>
@@ -8120,13 +8348,13 @@
         <v>6.18917E7</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>43</v>
@@ -8208,22 +8436,22 @@
         <v>6.17949E7</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="H61" s="4">
-        <v>45.0</v>
+        <v>60.0</v>
       </c>
       <c r="I61" s="7" t="b">
         <v>1</v>
@@ -8233,7 +8461,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="M61" s="7" t="b">
         <v>1</v>
@@ -8243,72 +8471,78 @@
         <v>1</v>
       </c>
       <c r="P61" s="9" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="Q61" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R61" s="9" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="S61" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T61" s="9" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="U61" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V61" s="9" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="W61" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X61" s="9" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="Y61" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z61" s="9" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="AA61" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB61" s="9" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="AC61" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD61" s="10" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="AE61" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF61" s="10" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="AG61" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH61" s="8"/>
       <c r="AI61" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ61" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ61" s="9" t="s">
+        <v>391</v>
+      </c>
       <c r="AK61" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL61" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL61" s="9" t="s">
+        <v>392</v>
+      </c>
       <c r="AM61" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN61" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN61" s="9" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="4">
@@ -8318,19 +8552,19 @@
         <v>6.18136E7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="H62" s="4">
         <v>25.0</v>
@@ -8339,25 +8573,25 @@
         <v>1</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="K62" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="M62" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N62" s="9" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="O62" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P62" s="9" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="Q62" s="7" t="b">
         <v>0</v>
@@ -8371,19 +8605,19 @@
         <v>1</v>
       </c>
       <c r="V62" s="9" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="W62" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X62" s="9" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="Y62" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z62" s="9" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="AA62" s="7" t="b">
         <v>0</v>
@@ -8422,13 +8656,13 @@
         <v>6.18636E7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>43</v>
@@ -8510,76 +8744,76 @@
         <v>6.20248E7</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="H64" s="4">
-        <v>36.0</v>
+        <v>48.0</v>
       </c>
       <c r="I64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="K64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="M64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N64" s="9" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="O64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P64" s="9" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="Q64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R64" s="9" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="S64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T64" s="9" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="U64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V64" s="9" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="W64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X64" s="9" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="Y64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z64" s="9" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="AA64" s="7" t="b">
         <v>0</v>
@@ -8593,10 +8827,10 @@
         <v>1</v>
       </c>
       <c r="AF64" s="10" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="AG64" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH64" s="8"/>
       <c r="AI64" s="7" t="b">
@@ -8604,13 +8838,17 @@
       </c>
       <c r="AJ64" s="8"/>
       <c r="AK64" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL64" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL64" s="9" t="s">
+        <v>422</v>
+      </c>
       <c r="AM64" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN64" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN64" s="9" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="4">
@@ -8620,22 +8858,22 @@
         <v>6.07387E7</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="H65" s="4">
-        <v>35.0</v>
+        <v>39.0</v>
       </c>
       <c r="I65" s="7" t="b">
         <v>1</v>
@@ -8645,37 +8883,37 @@
         <v>1</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="M65" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N65" s="9" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="O65" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P65" s="9" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="Q65" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R65" s="9" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="S65" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T65" s="9" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="U65" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V65" s="9" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="W65" s="7" t="b">
         <v>0</v>
@@ -8689,7 +8927,7 @@
         <v>1</v>
       </c>
       <c r="AB65" s="9" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="AC65" s="7" t="b">
         <v>0</v>
@@ -8699,7 +8937,7 @@
         <v>1</v>
       </c>
       <c r="AF65" s="10" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="AG65" s="7" t="b">
         <v>0</v>
@@ -8710,9 +8948,11 @@
       </c>
       <c r="AJ65" s="8"/>
       <c r="AK65" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL65" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL65" s="9" t="s">
+        <v>436</v>
+      </c>
       <c r="AM65" s="7" t="b">
         <v>0</v>
       </c>
@@ -8726,111 +8966,117 @@
         <v>6.1986E7</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="H66" s="4">
-        <v>45.0</v>
+        <v>56.0</v>
       </c>
       <c r="I66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="K66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="M66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="O66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P66" s="9" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="Q66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R66" s="9" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="S66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T66" s="9" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="U66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V66" s="9" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="W66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X66" s="9" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="Y66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z66" s="9" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="AA66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB66" s="9" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="AC66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD66" s="10" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="AE66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF66" s="10" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="AG66" s="7" t="b">
         <v>0</v>
       </c>
       <c r="AH66" s="8"/>
       <c r="AI66" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ66" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ66" s="9" t="s">
+        <v>453</v>
+      </c>
       <c r="AK66" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL66" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL66" s="9" t="s">
+        <v>454</v>
+      </c>
       <c r="AM66" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN66" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN66" s="9" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="4">
@@ -8840,16 +9086,16 @@
         <v>6.22418E7</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4">
@@ -8924,40 +9170,40 @@
         <v>6.17422E7</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="H68" s="4">
-        <v>36.0</v>
+        <v>56.0</v>
       </c>
       <c r="I68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="K68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="M68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N68" s="9" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="O68" s="7" t="b">
         <v>0</v>
@@ -8967,66 +9213,72 @@
         <v>1</v>
       </c>
       <c r="R68" s="9" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="S68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T68" s="9" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="U68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V68" s="9" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="W68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X68" s="9" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="Y68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z68" s="9" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="AA68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB68" s="9" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="AC68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD68" s="10" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="AE68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF68" s="10" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="AG68" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH68" s="8"/>
       <c r="AI68" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ68" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ68" s="9" t="s">
+        <v>476</v>
+      </c>
       <c r="AK68" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL68" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL68" s="9" t="s">
+        <v>477</v>
+      </c>
       <c r="AM68" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN68" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN68" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="4">
@@ -9036,19 +9288,19 @@
         <v>6.0677E7</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
       <c r="H69" s="4">
         <v>30.0</v>
@@ -9057,7 +9309,7 @@
         <v>1</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>456</v>
+        <v>483</v>
       </c>
       <c r="K69" s="7" t="b">
         <v>0</v>
@@ -9075,31 +9327,31 @@
         <v>1</v>
       </c>
       <c r="R69" s="9" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
       <c r="S69" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T69" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="U69" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V69" s="9" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="W69" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X69" s="9" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="Y69" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z69" s="9" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="AA69" s="7" t="b">
         <v>0</v>
@@ -9109,13 +9361,13 @@
         <v>1</v>
       </c>
       <c r="AD69" s="10" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="AE69" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF69" s="10" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="AG69" s="7" t="b">
         <v>0</v>
@@ -9142,111 +9394,117 @@
         <v>6.05979E7</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="H70" s="4">
-        <v>45.0</v>
+        <v>60.0</v>
       </c>
       <c r="I70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="K70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
       <c r="M70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="O70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P70" s="9" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="Q70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R70" s="9" t="s">
-        <v>472</v>
+        <v>499</v>
       </c>
       <c r="S70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T70" s="9" t="s">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="U70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V70" s="9" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="W70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X70" s="9" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="Y70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z70" s="9" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="AA70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB70" s="9" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
       <c r="AC70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD70" s="10" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="AE70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF70" s="10" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="AG70" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH70" s="8"/>
       <c r="AI70" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ70" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ70" s="9" t="s">
+        <v>507</v>
+      </c>
       <c r="AK70" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL70" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL70" s="9" t="s">
+        <v>508</v>
+      </c>
       <c r="AM70" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN70" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN70" s="9" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="4">
@@ -9256,111 +9514,117 @@
         <v>6.20475E7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="H71" s="4">
-        <v>45.0</v>
+        <v>60.0</v>
       </c>
       <c r="I71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="K71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="M71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>486</v>
+        <v>516</v>
       </c>
       <c r="O71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P71" s="9" t="s">
-        <v>487</v>
+        <v>517</v>
       </c>
       <c r="Q71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R71" s="9" t="s">
-        <v>488</v>
+        <v>518</v>
       </c>
       <c r="S71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T71" s="9" t="s">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="U71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V71" s="9" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="W71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X71" s="9" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="Y71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z71" s="9" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="AA71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB71" s="9" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="AC71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD71" s="10" t="s">
-        <v>494</v>
+        <v>524</v>
       </c>
       <c r="AE71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF71" s="10" t="s">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="AG71" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH71" s="8"/>
       <c r="AI71" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ71" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ71" s="9" t="s">
+        <v>526</v>
+      </c>
       <c r="AK71" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL71" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL71" s="9" t="s">
+        <v>527</v>
+      </c>
       <c r="AM71" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN71" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN71" s="9" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="4">
@@ -9370,22 +9634,22 @@
         <v>6.22495E7</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>496</v>
+        <v>529</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>499</v>
+        <v>532</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="H72" s="4">
-        <v>27.0</v>
+        <v>42.0</v>
       </c>
       <c r="I72" s="7" t="b">
         <v>1</v>
@@ -9395,7 +9659,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>501</v>
+        <v>534</v>
       </c>
       <c r="M72" s="7" t="b">
         <v>0</v>
@@ -9405,7 +9669,7 @@
         <v>1</v>
       </c>
       <c r="P72" s="9" t="s">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="Q72" s="7" t="b">
         <v>0</v>
@@ -9427,42 +9691,48 @@
         <v>1</v>
       </c>
       <c r="Z72" s="9" t="s">
-        <v>503</v>
+        <v>536</v>
       </c>
       <c r="AA72" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB72" s="9" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="AC72" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD72" s="10" t="s">
-        <v>505</v>
+        <v>538</v>
       </c>
       <c r="AE72" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF72" s="10" t="s">
-        <v>506</v>
+        <v>539</v>
       </c>
       <c r="AG72" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH72" s="8"/>
       <c r="AI72" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ72" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ72" s="9" t="s">
+        <v>540</v>
+      </c>
       <c r="AK72" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL72" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL72" s="9" t="s">
+        <v>541</v>
+      </c>
       <c r="AM72" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN72" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN72" s="9" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="4">
@@ -9472,7 +9742,7 @@
         <v>6.06231E7</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>41</v>
@@ -9481,7 +9751,7 @@
         <v>42</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="4">
@@ -9560,7 +9830,7 @@
         <v>6.06261E7</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>50</v>
@@ -9569,10 +9839,10 @@
         <v>42</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>510</v>
+        <v>546</v>
       </c>
       <c r="H74" s="4">
         <v>0.0</v>
@@ -9650,7 +9920,7 @@
         <v>6.08821E7</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>53</v>
@@ -9659,7 +9929,7 @@
         <v>42</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="4">
@@ -9738,16 +10008,16 @@
         <v>6.08846E7</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="4">
@@ -9826,16 +10096,16 @@
         <v>6.08977E7</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>513</v>
+        <v>549</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="4">
@@ -9914,16 +10184,16 @@
         <v>6.17713E7</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G78" s="8"/>
       <c r="H78" s="4">
@@ -10002,16 +10272,16 @@
         <v>6.17729E7</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>515</v>
+        <v>551</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="4">
@@ -10090,19 +10360,19 @@
         <v>6.18589E7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="H80" s="4">
         <v>0.0</v>
@@ -10180,16 +10450,16 @@
         <v>6.1898E7</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>518</v>
+        <v>554</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G81" s="8"/>
       <c r="H81" s="4">
@@ -10268,22 +10538,22 @@
         <v>6.10971E7</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="H82" s="4">
-        <v>31.0</v>
+        <v>43.0</v>
       </c>
       <c r="I82" s="7" t="b">
         <v>1</v>
@@ -10293,7 +10563,7 @@
         <v>1</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="M82" s="7" t="b">
         <v>0</v>
@@ -10303,7 +10573,7 @@
         <v>1</v>
       </c>
       <c r="P82" s="9" t="s">
-        <v>522</v>
+        <v>558</v>
       </c>
       <c r="Q82" s="7" t="b">
         <v>0</v>
@@ -10317,25 +10587,25 @@
         <v>1</v>
       </c>
       <c r="V82" s="9" t="s">
-        <v>523</v>
+        <v>559</v>
       </c>
       <c r="W82" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X82" s="9" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="Y82" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z82" s="9" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="AA82" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB82" s="9" t="s">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="AC82" s="7" t="b">
         <v>0</v>
@@ -10345,10 +10615,10 @@
         <v>1</v>
       </c>
       <c r="AF82" s="10" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="AG82" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH82" s="8"/>
       <c r="AI82" s="7" t="b">
@@ -10356,13 +10626,17 @@
       </c>
       <c r="AJ82" s="8"/>
       <c r="AK82" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL82" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL82" s="9" t="s">
+        <v>564</v>
+      </c>
       <c r="AM82" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN82" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN82" s="9" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="4">
@@ -10372,19 +10646,19 @@
         <v>6.07662E7</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>528</v>
+        <v>566</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>529</v>
+        <v>567</v>
       </c>
       <c r="H83" s="4">
         <v>0.0</v>
@@ -10462,19 +10736,19 @@
         <v>6.10399E7</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>531</v>
+        <v>569</v>
       </c>
       <c r="H84" s="4">
         <v>0.0</v>
@@ -10552,19 +10826,19 @@
         <v>6.09171E7</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>532</v>
+        <v>570</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H85" s="4">
         <v>0.0</v>
@@ -10642,16 +10916,16 @@
         <v>6.07653E7</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>533</v>
+        <v>571</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="4">
@@ -10730,16 +11004,16 @@
         <v>6.17242E7</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>534</v>
+        <v>572</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="4">
@@ -10818,16 +11092,16 @@
         <v>6.1757E7</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>535</v>
+        <v>573</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="4">
@@ -10906,16 +11180,16 @@
         <v>6.18945E7</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>536</v>
+        <v>574</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="4">
@@ -10994,19 +11268,19 @@
         <v>6.18947E7</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>537</v>
+        <v>575</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>538</v>
+        <v>576</v>
       </c>
       <c r="H90" s="4">
         <v>0.0</v>
@@ -11084,19 +11358,19 @@
         <v>6.18972E7</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>540</v>
+        <v>578</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>541</v>
+        <v>579</v>
       </c>
       <c r="H91" s="4">
         <v>45.0</v>
@@ -11105,88 +11379,88 @@
         <v>1</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>542</v>
+        <v>580</v>
       </c>
       <c r="K91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L91" s="9" t="s">
-        <v>543</v>
+        <v>581</v>
       </c>
       <c r="M91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N91" s="9" t="s">
-        <v>544</v>
+        <v>582</v>
       </c>
       <c r="O91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P91" s="9" t="s">
-        <v>545</v>
+        <v>583</v>
       </c>
       <c r="Q91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R91" s="9" t="s">
-        <v>546</v>
+        <v>584</v>
       </c>
       <c r="S91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T91" s="9" t="s">
-        <v>547</v>
+        <v>585</v>
       </c>
       <c r="U91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V91" s="9" t="s">
-        <v>548</v>
+        <v>586</v>
       </c>
       <c r="W91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X91" s="9" t="s">
-        <v>549</v>
+        <v>587</v>
       </c>
       <c r="Y91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z91" s="9" t="s">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="AA91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB91" s="9" t="s">
-        <v>551</v>
+        <v>589</v>
       </c>
       <c r="AC91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD91" s="10" t="s">
-        <v>552</v>
+        <v>590</v>
       </c>
       <c r="AE91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF91" s="10" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="AG91" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH91" s="8"/>
       <c r="AI91" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ91" s="8"/>
       <c r="AK91" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL91" s="8"/>
       <c r="AM91" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN91" s="8"/>
     </row>
@@ -11198,16 +11472,16 @@
         <v>6.19822E7</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>554</v>
+        <v>592</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G92" s="8"/>
       <c r="H92" s="4">
@@ -11286,16 +11560,16 @@
         <v>6.12125E7</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>555</v>
+        <v>593</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G93" s="8"/>
       <c r="H93" s="4">
@@ -11374,16 +11648,16 @@
         <v>6.12126E7</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>556</v>
+        <v>594</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="4">
@@ -11462,16 +11736,16 @@
         <v>6.12271E7</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>557</v>
+        <v>595</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="4">
@@ -11550,16 +11824,16 @@
         <v>6.12282E7</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>558</v>
+        <v>596</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="4">
@@ -11638,19 +11912,19 @@
         <v>6.12304E7</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>559</v>
+        <v>597</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H97" s="4">
         <v>0.0</v>
@@ -11728,19 +12002,19 @@
         <v>6.07819E7</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>560</v>
+        <v>598</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H98" s="4">
         <v>0.0</v>
@@ -11818,19 +12092,19 @@
         <v>6.10973E7</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>561</v>
+        <v>599</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="H99" s="4">
         <v>0.0</v>
@@ -11908,16 +12182,16 @@
         <v>6.18292E7</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>562</v>
+        <v>600</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="4">
@@ -11996,16 +12270,16 @@
         <v>6.18294E7</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>563</v>
+        <v>601</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="4">
@@ -12084,16 +12358,16 @@
         <v>6.1901E7</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="4">
@@ -12172,46 +12446,46 @@
         <v>6.20401E7</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>565</v>
+        <v>603</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>566</v>
+        <v>604</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>567</v>
+        <v>605</v>
       </c>
       <c r="H103" s="4">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="I103" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>568</v>
+        <v>606</v>
       </c>
       <c r="K103" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>569</v>
+        <v>607</v>
       </c>
       <c r="M103" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N103" s="9" t="s">
-        <v>570</v>
+        <v>608</v>
       </c>
       <c r="O103" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P103" s="9" t="s">
-        <v>571</v>
+        <v>609</v>
       </c>
       <c r="Q103" s="7" t="b">
         <v>0</v>
@@ -12221,19 +12495,19 @@
         <v>1</v>
       </c>
       <c r="T103" s="9" t="s">
-        <v>572</v>
+        <v>610</v>
       </c>
       <c r="U103" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V103" s="9" t="s">
-        <v>573</v>
+        <v>611</v>
       </c>
       <c r="W103" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X103" s="9" t="s">
-        <v>574</v>
+        <v>612</v>
       </c>
       <c r="Y103" s="7" t="b">
         <v>0</v>
@@ -12243,13 +12517,13 @@
         <v>1</v>
       </c>
       <c r="AB103" s="9" t="s">
-        <v>575</v>
+        <v>613</v>
       </c>
       <c r="AC103" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD103" s="10" t="s">
-        <v>576</v>
+        <v>614</v>
       </c>
       <c r="AE103" s="7" t="b">
         <v>0</v>
@@ -12260,9 +12534,11 @@
       </c>
       <c r="AH103" s="8"/>
       <c r="AI103" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ103" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ103" s="9" t="s">
+        <v>615</v>
+      </c>
       <c r="AK103" s="7" t="b">
         <v>0</v>
       </c>
@@ -12280,19 +12556,19 @@
         <v>6.07507E7</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>577</v>
+        <v>616</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>578</v>
+        <v>617</v>
       </c>
       <c r="H104" s="4">
         <v>0.0</v>
@@ -12370,16 +12646,16 @@
         <v>6.07895E7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>579</v>
+        <v>618</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="4">
@@ -12458,19 +12734,19 @@
         <v>6.00452E7</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>580</v>
+        <v>619</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="H106" s="4">
         <v>0.0</v>
@@ -12548,19 +12824,19 @@
         <v>6.07469E7</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>581</v>
+        <v>620</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>582</v>
+        <v>621</v>
       </c>
       <c r="H107" s="4">
         <v>0.0</v>
@@ -12638,19 +12914,19 @@
         <v>6.0747E7</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>583</v>
+        <v>622</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="H108" s="4">
         <v>0.0</v>
@@ -12728,19 +13004,19 @@
         <v>6.11554E7</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>584</v>
+        <v>623</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H109" s="4">
         <v>0.0</v>
@@ -12818,19 +13094,19 @@
         <v>6.17939E7</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>586</v>
+        <v>625</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H110" s="4">
         <v>0.0</v>
@@ -12908,22 +13184,22 @@
         <v>6.05546E7</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>588</v>
+        <v>627</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>589</v>
+        <v>628</v>
       </c>
       <c r="H111" s="4">
-        <v>41.0</v>
+        <v>52.0</v>
       </c>
       <c r="I111" s="7" t="b">
         <v>1</v>
@@ -12933,7 +13209,7 @@
         <v>1</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="M111" s="7" t="b">
         <v>1</v>
@@ -12947,13 +13223,13 @@
         <v>1</v>
       </c>
       <c r="R111" s="9" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="S111" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T111" s="9" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="U111" s="7" t="b">
         <v>1</v>
@@ -12963,19 +13239,19 @@
         <v>1</v>
       </c>
       <c r="X111" s="9" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="Y111" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z111" s="9" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="AA111" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB111" s="9" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="AC111" s="7" t="b">
         <v>1</v>
@@ -12990,17 +13266,23 @@
       </c>
       <c r="AH111" s="8"/>
       <c r="AI111" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ111" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ111" s="9" t="s">
+        <v>629</v>
+      </c>
       <c r="AK111" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL111" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL111" s="9" t="s">
+        <v>630</v>
+      </c>
       <c r="AM111" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN111" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN111" s="9" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="4">
@@ -13010,16 +13292,16 @@
         <v>6.09278E7</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>590</v>
+        <v>632</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="7">
@@ -13098,19 +13380,19 @@
         <v>6.17596E7</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>591</v>
+        <v>633</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>592</v>
+        <v>634</v>
       </c>
       <c r="H113" s="4">
         <v>0.0</v>
@@ -13188,19 +13470,19 @@
         <v>6.18186E7</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>594</v>
+        <v>636</v>
       </c>
       <c r="H114" s="4">
         <v>22.0</v>
@@ -13209,25 +13491,25 @@
         <v>1</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>595</v>
+        <v>637</v>
       </c>
       <c r="K114" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="M114" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N114" s="9" t="s">
-        <v>597</v>
+        <v>639</v>
       </c>
       <c r="O114" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P114" s="9" t="s">
-        <v>598</v>
+        <v>640</v>
       </c>
       <c r="Q114" s="7" t="b">
         <v>0</v>
@@ -13286,46 +13568,46 @@
         <v>6.18964E7</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>599</v>
+        <v>641</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>600</v>
+        <v>642</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="H115" s="4">
-        <v>40.0</v>
+        <v>48.0</v>
       </c>
       <c r="I115" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>602</v>
+        <v>644</v>
       </c>
       <c r="K115" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>603</v>
+        <v>645</v>
       </c>
       <c r="M115" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N115" s="9" t="s">
-        <v>604</v>
+        <v>646</v>
       </c>
       <c r="O115" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P115" s="9" t="s">
-        <v>605</v>
+        <v>647</v>
       </c>
       <c r="Q115" s="7" t="b">
         <v>1</v>
@@ -13335,7 +13617,7 @@
         <v>1</v>
       </c>
       <c r="T115" s="9" t="s">
-        <v>606</v>
+        <v>648</v>
       </c>
       <c r="U115" s="7" t="b">
         <v>0</v>
@@ -13345,32 +13627,34 @@
         <v>1</v>
       </c>
       <c r="X115" s="9" t="s">
-        <v>607</v>
+        <v>649</v>
       </c>
       <c r="Y115" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z115" s="9" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="AA115" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AB115" s="8"/>
+      <c r="AB115" s="9" t="s">
+        <v>650</v>
+      </c>
       <c r="AC115" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD115" s="10" t="s">
-        <v>608</v>
+        <v>651</v>
       </c>
       <c r="AE115" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF115" s="10" t="s">
-        <v>609</v>
+        <v>652</v>
       </c>
       <c r="AG115" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH115" s="8"/>
       <c r="AI115" s="7" t="b">
@@ -13378,9 +13662,11 @@
       </c>
       <c r="AJ115" s="8"/>
       <c r="AK115" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL115" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL115" s="9" t="s">
+        <v>653</v>
+      </c>
       <c r="AM115" s="7" t="b">
         <v>0</v>
       </c>
@@ -13394,19 +13680,19 @@
         <v>6.11816E7</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>610</v>
+        <v>654</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="H116" s="4">
         <v>0.0</v>
@@ -13484,16 +13770,16 @@
         <v>6.17994E7</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>611</v>
+        <v>655</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G117" s="8"/>
       <c r="H117" s="4">
@@ -13572,19 +13858,19 @@
         <v>6.1743E7</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>612</v>
+        <v>656</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>613</v>
+        <v>657</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>614</v>
+        <v>658</v>
       </c>
       <c r="H118" s="4">
         <v>30.0</v>
@@ -13597,19 +13883,19 @@
         <v>1</v>
       </c>
       <c r="L118" s="9" t="s">
-        <v>615</v>
+        <v>659</v>
       </c>
       <c r="M118" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N118" s="9" t="s">
-        <v>616</v>
+        <v>660</v>
       </c>
       <c r="O118" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P118" s="9" t="s">
-        <v>617</v>
+        <v>661</v>
       </c>
       <c r="Q118" s="7" t="b">
         <v>0</v>
@@ -13623,25 +13909,25 @@
         <v>1</v>
       </c>
       <c r="V118" s="9" t="s">
-        <v>618</v>
+        <v>662</v>
       </c>
       <c r="W118" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X118" s="9" t="s">
-        <v>619</v>
+        <v>663</v>
       </c>
       <c r="Y118" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z118" s="9" t="s">
-        <v>620</v>
+        <v>664</v>
       </c>
       <c r="AA118" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB118" s="9" t="s">
-        <v>621</v>
+        <v>665</v>
       </c>
       <c r="AC118" s="7" t="b">
         <v>0</v>
@@ -13651,7 +13937,7 @@
         <v>1</v>
       </c>
       <c r="AF118" s="10" t="s">
-        <v>622</v>
+        <v>666</v>
       </c>
       <c r="AG118" s="7" t="b">
         <v>0</v>
@@ -13678,19 +13964,19 @@
         <v>6.18899E7</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>623</v>
+        <v>667</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="H119" s="4">
         <v>0.0</v>
@@ -13768,19 +14054,19 @@
         <v>6.17639E7</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>625</v>
+        <v>669</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>626</v>
+        <v>670</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>627</v>
+        <v>671</v>
       </c>
       <c r="H120" s="4">
         <v>10.0</v>
@@ -13789,19 +14075,19 @@
         <v>1</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>628</v>
+        <v>672</v>
       </c>
       <c r="K120" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L120" s="9" t="s">
-        <v>629</v>
+        <v>673</v>
       </c>
       <c r="M120" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N120" s="9" t="s">
-        <v>630</v>
+        <v>674</v>
       </c>
       <c r="O120" s="7" t="b">
         <v>0</v>
@@ -13864,19 +14150,19 @@
         <v>6.20268E7</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>631</v>
+        <v>675</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="H121" s="4">
         <v>0.0</v>
@@ -13954,16 +14240,16 @@
         <v>6.19806E7</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>632</v>
+        <v>676</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G122" s="8"/>
       <c r="H122" s="4">
@@ -14042,109 +14328,115 @@
         <v>6.07754E7</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>633</v>
+        <v>677</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>634</v>
+        <v>678</v>
       </c>
       <c r="H123" s="4">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
       <c r="I123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>635</v>
+        <v>679</v>
       </c>
       <c r="K123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L123" s="9" t="s">
-        <v>636</v>
+        <v>680</v>
       </c>
       <c r="M123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N123" s="9" t="s">
-        <v>637</v>
+        <v>681</v>
       </c>
       <c r="O123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P123" s="9" t="s">
-        <v>638</v>
+        <v>682</v>
       </c>
       <c r="Q123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R123" s="9" t="s">
-        <v>639</v>
+        <v>683</v>
       </c>
       <c r="S123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T123" s="9" t="s">
-        <v>640</v>
+        <v>684</v>
       </c>
       <c r="U123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V123" s="9" t="s">
-        <v>641</v>
+        <v>685</v>
       </c>
       <c r="W123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X123" s="9" t="s">
-        <v>642</v>
+        <v>686</v>
       </c>
       <c r="Y123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z123" s="9" t="s">
-        <v>643</v>
+        <v>687</v>
       </c>
       <c r="AA123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB123" s="9" t="s">
-        <v>644</v>
+        <v>688</v>
       </c>
       <c r="AC123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD123" s="10" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="AE123" s="7" t="b">
         <v>0</v>
       </c>
       <c r="AF123" s="5"/>
       <c r="AG123" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH123" s="8"/>
       <c r="AI123" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ123" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ123" s="9" t="s">
+        <v>689</v>
+      </c>
       <c r="AK123" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL123" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL123" s="9" t="s">
+        <v>690</v>
+      </c>
       <c r="AM123" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN123" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN123" s="9" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="4">
@@ -14154,16 +14446,16 @@
         <v>6.1886101E7</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>645</v>
+        <v>692</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="4">
@@ -14242,19 +14534,19 @@
         <v>6.19702E7</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>646</v>
+        <v>693</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="H125" s="4">
         <v>0.0</v>
@@ -14332,19 +14624,19 @@
         <v>6.1062E7</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>647</v>
+        <v>694</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>648</v>
+        <v>695</v>
       </c>
       <c r="H126" s="4">
         <v>0.0</v>
@@ -14422,19 +14714,19 @@
         <v>6.11971E7</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>649</v>
+        <v>696</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>650</v>
+        <v>697</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>651</v>
+        <v>698</v>
       </c>
       <c r="H127" s="4">
         <v>10.0</v>
@@ -14447,13 +14739,13 @@
         <v>1</v>
       </c>
       <c r="L127" s="9" t="s">
-        <v>652</v>
+        <v>699</v>
       </c>
       <c r="M127" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N127" s="9" t="s">
-        <v>653</v>
+        <v>700</v>
       </c>
       <c r="O127" s="7" t="b">
         <v>0</v>
@@ -14516,111 +14808,119 @@
         <v>6.07142E7</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>654</v>
+        <v>701</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>655</v>
+        <v>702</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>656</v>
+        <v>703</v>
       </c>
       <c r="H128" s="4">
-        <v>45.0</v>
+        <v>60.0</v>
       </c>
       <c r="I128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>657</v>
+        <v>704</v>
       </c>
       <c r="K128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L128" s="9" t="s">
-        <v>658</v>
+        <v>705</v>
       </c>
       <c r="M128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N128" s="9" t="s">
-        <v>659</v>
+        <v>706</v>
       </c>
       <c r="O128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P128" s="13" t="s">
-        <v>660</v>
+        <v>707</v>
       </c>
       <c r="Q128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R128" s="9" t="s">
-        <v>661</v>
+        <v>708</v>
       </c>
       <c r="S128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T128" s="9" t="s">
-        <v>662</v>
+        <v>709</v>
       </c>
       <c r="U128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V128" s="9" t="s">
-        <v>663</v>
+        <v>710</v>
       </c>
       <c r="W128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X128" s="9" t="s">
-        <v>664</v>
+        <v>711</v>
       </c>
       <c r="Y128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z128" s="9" t="s">
-        <v>665</v>
+        <v>712</v>
       </c>
       <c r="AA128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB128" s="9" t="s">
-        <v>666</v>
+        <v>713</v>
       </c>
       <c r="AC128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD128" s="10" t="s">
-        <v>667</v>
+        <v>714</v>
       </c>
       <c r="AE128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF128" s="10" t="s">
-        <v>668</v>
+        <v>715</v>
       </c>
       <c r="AG128" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH128" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AH128" s="9" t="s">
+        <v>716</v>
+      </c>
       <c r="AI128" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ128" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ128" s="9" t="s">
+        <v>717</v>
+      </c>
       <c r="AK128" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL128" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL128" s="9" t="s">
+        <v>718</v>
+      </c>
       <c r="AM128" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN128" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN128" s="9" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="4">
@@ -14630,19 +14930,19 @@
         <v>6.18841E7</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>669</v>
+        <v>720</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>670</v>
+        <v>721</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>671</v>
+        <v>722</v>
       </c>
       <c r="H129" s="4">
         <v>25.0</v>
@@ -14655,43 +14955,43 @@
         <v>1</v>
       </c>
       <c r="L129" s="9" t="s">
-        <v>672</v>
+        <v>723</v>
       </c>
       <c r="M129" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N129" s="9" t="s">
-        <v>673</v>
+        <v>724</v>
       </c>
       <c r="O129" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P129" s="9" t="s">
-        <v>674</v>
+        <v>725</v>
       </c>
       <c r="Q129" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R129" s="9" t="s">
-        <v>675</v>
+        <v>726</v>
       </c>
       <c r="S129" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T129" s="9" t="s">
-        <v>676</v>
+        <v>727</v>
       </c>
       <c r="U129" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V129" s="9" t="s">
-        <v>677</v>
+        <v>728</v>
       </c>
       <c r="W129" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X129" s="9" t="s">
-        <v>678</v>
+        <v>729</v>
       </c>
       <c r="Y129" s="7" t="b">
         <v>0</v>
@@ -14734,28 +15034,28 @@
         <v>6.22913E7</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>679</v>
+        <v>730</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>680</v>
+        <v>731</v>
       </c>
       <c r="H130" s="4">
-        <v>26.0</v>
+        <v>33.0</v>
       </c>
       <c r="I130" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>681</v>
+        <v>732</v>
       </c>
       <c r="K130" s="7" t="b">
         <v>0</v>
@@ -14765,13 +15065,13 @@
         <v>1</v>
       </c>
       <c r="N130" s="9" t="s">
-        <v>682</v>
+        <v>733</v>
       </c>
       <c r="O130" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P130" s="9" t="s">
-        <v>683</v>
+        <v>734</v>
       </c>
       <c r="Q130" s="7" t="b">
         <v>0</v>
@@ -14781,7 +15081,7 @@
         <v>1</v>
       </c>
       <c r="T130" s="9" t="s">
-        <v>684</v>
+        <v>735</v>
       </c>
       <c r="U130" s="7" t="b">
         <v>0</v>
@@ -14795,7 +15095,7 @@
         <v>1</v>
       </c>
       <c r="Z130" s="9" t="s">
-        <v>685</v>
+        <v>736</v>
       </c>
       <c r="AA130" s="7" t="b">
         <v>0</v>
@@ -14805,26 +15105,30 @@
         <v>1</v>
       </c>
       <c r="AD130" s="10" t="s">
-        <v>686</v>
+        <v>737</v>
       </c>
       <c r="AE130" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF130" s="10" t="s">
-        <v>687</v>
+        <v>738</v>
       </c>
       <c r="AG130" s="7" t="b">
         <v>0</v>
       </c>
       <c r="AH130" s="8"/>
       <c r="AI130" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ130" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ130" s="9" t="s">
+        <v>739</v>
+      </c>
       <c r="AK130" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL130" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL130" s="9" t="s">
+        <v>740</v>
+      </c>
       <c r="AM130" s="7" t="b">
         <v>0</v>
       </c>
@@ -14838,111 +15142,117 @@
         <v>6.18917E7</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>688</v>
+        <v>741</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>689</v>
+        <v>742</v>
       </c>
       <c r="H131" s="4">
-        <v>45.0</v>
+        <v>60.0</v>
       </c>
       <c r="I131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>690</v>
+        <v>743</v>
       </c>
       <c r="K131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L131" s="9" t="s">
-        <v>691</v>
+        <v>744</v>
       </c>
       <c r="M131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N131" s="9" t="s">
-        <v>692</v>
+        <v>745</v>
       </c>
       <c r="O131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P131" s="9" t="s">
-        <v>693</v>
+        <v>746</v>
       </c>
       <c r="Q131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R131" s="9" t="s">
-        <v>694</v>
+        <v>747</v>
       </c>
       <c r="S131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T131" s="9" t="s">
-        <v>695</v>
+        <v>748</v>
       </c>
       <c r="U131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V131" s="9" t="s">
-        <v>696</v>
+        <v>749</v>
       </c>
       <c r="W131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X131" s="9" t="s">
-        <v>697</v>
+        <v>750</v>
       </c>
       <c r="Y131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z131" s="9" t="s">
-        <v>698</v>
+        <v>751</v>
       </c>
       <c r="AA131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB131" s="9" t="s">
-        <v>699</v>
+        <v>752</v>
       </c>
       <c r="AC131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD131" s="10" t="s">
-        <v>700</v>
+        <v>753</v>
       </c>
       <c r="AE131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF131" s="10" t="s">
-        <v>701</v>
+        <v>754</v>
       </c>
       <c r="AG131" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH131" s="8"/>
       <c r="AI131" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ131" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ131" s="9" t="s">
+        <v>755</v>
+      </c>
       <c r="AK131" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL131" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL131" s="9" t="s">
+        <v>756</v>
+      </c>
       <c r="AM131" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN131" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN131" s="9" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="4">
@@ -14952,19 +15262,19 @@
         <v>6.17949E7</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>702</v>
+        <v>758</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="H132" s="4">
         <v>0.0</v>
@@ -15042,19 +15352,19 @@
         <v>6.18136E7</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>703</v>
+        <v>759</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="H133" s="4">
         <v>0.0</v>
@@ -15132,19 +15442,19 @@
         <v>6.18636E7</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>704</v>
+        <v>760</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>705</v>
+        <v>761</v>
       </c>
       <c r="H134" s="4">
         <v>0.0</v>
@@ -15222,19 +15532,19 @@
         <v>6.20248E7</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>706</v>
+        <v>762</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>707</v>
+        <v>763</v>
       </c>
       <c r="H135" s="4">
         <v>0.0</v>
@@ -15312,19 +15622,19 @@
         <v>6.07387E7</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>708</v>
+        <v>764</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="H136" s="4">
         <v>0.0</v>
@@ -15402,19 +15712,19 @@
         <v>6.1986E7</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>709</v>
+        <v>765</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="H137" s="4">
         <v>0.0</v>
@@ -15492,111 +15802,117 @@
         <v>6.22418E7</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>710</v>
+        <v>766</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>711</v>
+        <v>767</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>712</v>
+        <v>768</v>
       </c>
       <c r="H138" s="4">
-        <v>45.0</v>
+        <v>60.0</v>
       </c>
       <c r="I138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>713</v>
+        <v>769</v>
       </c>
       <c r="K138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L138" s="9" t="s">
-        <v>714</v>
+        <v>770</v>
       </c>
       <c r="M138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N138" s="9" t="s">
-        <v>715</v>
+        <v>771</v>
       </c>
       <c r="O138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P138" s="9" t="s">
-        <v>716</v>
+        <v>772</v>
       </c>
       <c r="Q138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R138" s="9" t="s">
-        <v>717</v>
+        <v>773</v>
       </c>
       <c r="S138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T138" s="9" t="s">
-        <v>718</v>
+        <v>774</v>
       </c>
       <c r="U138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V138" s="9" t="s">
-        <v>719</v>
+        <v>775</v>
       </c>
       <c r="W138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X138" s="9" t="s">
-        <v>720</v>
+        <v>776</v>
       </c>
       <c r="Y138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z138" s="9" t="s">
-        <v>721</v>
+        <v>777</v>
       </c>
       <c r="AA138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB138" s="9" t="s">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="AC138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD138" s="10" t="s">
-        <v>723</v>
+        <v>779</v>
       </c>
       <c r="AE138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF138" s="10" t="s">
-        <v>724</v>
+        <v>780</v>
       </c>
       <c r="AG138" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH138" s="8"/>
       <c r="AI138" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ138" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ138" s="9" t="s">
+        <v>781</v>
+      </c>
       <c r="AK138" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL138" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL138" s="9" t="s">
+        <v>782</v>
+      </c>
       <c r="AM138" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN138" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN138" s="9" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="4">
@@ -15606,109 +15922,117 @@
         <v>6.17422E7</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>725</v>
+        <v>784</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>726</v>
+        <v>785</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>727</v>
+        <v>786</v>
       </c>
       <c r="H139" s="15">
-        <v>45.0</v>
+        <v>60.0</v>
       </c>
       <c r="I139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="K139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L139" s="9" t="s">
-        <v>729</v>
+        <v>788</v>
       </c>
       <c r="M139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N139" s="9" t="s">
-        <v>730</v>
+        <v>789</v>
       </c>
       <c r="O139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P139" s="9" t="s">
-        <v>731</v>
+        <v>790</v>
       </c>
       <c r="Q139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R139" s="9" t="s">
-        <v>732</v>
+        <v>791</v>
       </c>
       <c r="S139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T139" s="9" t="s">
-        <v>733</v>
+        <v>792</v>
       </c>
       <c r="U139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V139" s="9" t="s">
-        <v>734</v>
+        <v>793</v>
       </c>
       <c r="W139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X139" s="9" t="s">
-        <v>735</v>
+        <v>794</v>
       </c>
       <c r="Y139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z139" s="9" t="s">
-        <v>736</v>
+        <v>795</v>
       </c>
       <c r="AA139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB139" s="9" t="s">
-        <v>737</v>
+        <v>796</v>
       </c>
       <c r="AC139" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AD139" s="5"/>
+      <c r="AD139" s="10" t="s">
+        <v>797</v>
+      </c>
       <c r="AE139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF139" s="10" t="s">
-        <v>738</v>
+        <v>798</v>
       </c>
       <c r="AG139" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH139" s="8"/>
       <c r="AI139" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ139" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ139" s="9" t="s">
+        <v>799</v>
+      </c>
       <c r="AK139" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL139" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL139" s="9" t="s">
+        <v>800</v>
+      </c>
       <c r="AM139" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN139" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN139" s="9" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="4">
@@ -15718,19 +16042,19 @@
         <v>6.0677E7</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>739</v>
+        <v>802</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>740</v>
+        <v>803</v>
       </c>
       <c r="H140" s="4">
         <v>0.0</v>
@@ -15808,19 +16132,19 @@
         <v>6.05979E7</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>741</v>
+        <v>804</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>742</v>
+        <v>805</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>743</v>
+        <v>806</v>
       </c>
       <c r="H141" s="4">
         <v>38.0</v>
@@ -15833,7 +16157,7 @@
         <v>1</v>
       </c>
       <c r="L141" s="9" t="s">
-        <v>744</v>
+        <v>807</v>
       </c>
       <c r="M141" s="7" t="b">
         <v>0</v>
@@ -15843,43 +16167,43 @@
         <v>1</v>
       </c>
       <c r="P141" s="9" t="s">
-        <v>745</v>
+        <v>808</v>
       </c>
       <c r="Q141" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R141" s="9" t="s">
-        <v>746</v>
+        <v>809</v>
       </c>
       <c r="S141" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T141" s="9" t="s">
-        <v>747</v>
+        <v>810</v>
       </c>
       <c r="U141" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V141" s="9" t="s">
-        <v>748</v>
+        <v>811</v>
       </c>
       <c r="W141" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X141" s="9" t="s">
-        <v>749</v>
+        <v>812</v>
       </c>
       <c r="Y141" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z141" s="9" t="s">
-        <v>750</v>
+        <v>813</v>
       </c>
       <c r="AA141" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB141" s="9" t="s">
-        <v>751</v>
+        <v>814</v>
       </c>
       <c r="AC141" s="7" t="b">
         <v>0</v>
@@ -15889,24 +16213,30 @@
         <v>1</v>
       </c>
       <c r="AF141" s="10" t="s">
-        <v>752</v>
+        <v>815</v>
       </c>
       <c r="AG141" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH141" s="8"/>
       <c r="AI141" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ141" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ141" s="9" t="s">
+        <v>816</v>
+      </c>
       <c r="AK141" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL141" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL141" s="9" t="s">
+        <v>817</v>
+      </c>
       <c r="AM141" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN141" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN141" s="9" t="s">
+        <v>818</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="4">
@@ -15916,19 +16246,19 @@
         <v>6.20475E7</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>753</v>
+        <v>819</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>754</v>
+        <v>820</v>
       </c>
       <c r="H142" s="4">
         <v>0.0</v>
@@ -16006,19 +16336,19 @@
         <v>6.22495E7</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>755</v>
+        <v>821</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="H143" s="4">
         <v>0.0</v>
@@ -16098,7 +16428,7 @@
       <c r="G144" s="8"/>
       <c r="H144" s="5">
         <f>SUM(H2:H143)</f>
-        <v>1539</v>
+        <v>1845</v>
       </c>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
@@ -52101,380 +52431,446 @@
     <hyperlink r:id="rId12" ref="AB4"/>
     <hyperlink r:id="rId13" ref="AD4"/>
     <hyperlink r:id="rId14" ref="AF4"/>
-    <hyperlink r:id="rId15" ref="J9"/>
-    <hyperlink r:id="rId16" ref="L9"/>
-    <hyperlink r:id="rId17" ref="P9"/>
-    <hyperlink r:id="rId18" ref="R9"/>
-    <hyperlink r:id="rId19" ref="T9"/>
-    <hyperlink r:id="rId20" ref="X9"/>
-    <hyperlink r:id="rId21" ref="Z9"/>
-    <hyperlink r:id="rId22" ref="AB9"/>
-    <hyperlink r:id="rId23" ref="AD9"/>
-    <hyperlink r:id="rId24" ref="AF9"/>
-    <hyperlink r:id="rId25" ref="J11"/>
-    <hyperlink r:id="rId26" ref="L11"/>
-    <hyperlink r:id="rId27" ref="N11"/>
-    <hyperlink r:id="rId28" ref="P11"/>
-    <hyperlink r:id="rId29" ref="R11"/>
-    <hyperlink r:id="rId30" ref="T11"/>
-    <hyperlink r:id="rId31" location="slide=id.p" ref="V11"/>
-    <hyperlink r:id="rId32" ref="X11"/>
-    <hyperlink r:id="rId33" ref="Z11"/>
-    <hyperlink r:id="rId34" ref="AB11"/>
-    <hyperlink r:id="rId35" ref="AD11"/>
-    <hyperlink r:id="rId36" ref="AF11"/>
-    <hyperlink r:id="rId37" ref="J12"/>
-    <hyperlink r:id="rId38" ref="L12"/>
-    <hyperlink r:id="rId39" ref="N12"/>
-    <hyperlink r:id="rId40" ref="P12"/>
-    <hyperlink r:id="rId41" ref="R12"/>
-    <hyperlink r:id="rId42" ref="T12"/>
-    <hyperlink r:id="rId43" ref="V12"/>
-    <hyperlink r:id="rId44" ref="X12"/>
-    <hyperlink r:id="rId45" location="gid=0" ref="Z12"/>
-    <hyperlink r:id="rId46" ref="AB12"/>
-    <hyperlink r:id="rId47" ref="AD12"/>
-    <hyperlink r:id="rId48" ref="AF12"/>
-    <hyperlink r:id="rId49" ref="L13"/>
-    <hyperlink r:id="rId50" ref="N13"/>
-    <hyperlink r:id="rId51" ref="P13"/>
-    <hyperlink r:id="rId52" ref="R13"/>
-    <hyperlink r:id="rId53" ref="T13"/>
-    <hyperlink r:id="rId54" location="slide=id.g3b70900641_0_0" ref="V13"/>
-    <hyperlink r:id="rId55" ref="X13"/>
-    <hyperlink r:id="rId56" ref="Z14"/>
-    <hyperlink r:id="rId57" ref="J20"/>
-    <hyperlink r:id="rId58" ref="L20"/>
-    <hyperlink r:id="rId59" ref="N20"/>
-    <hyperlink r:id="rId60" ref="P20"/>
-    <hyperlink r:id="rId61" ref="T20"/>
-    <hyperlink r:id="rId62" ref="X20"/>
-    <hyperlink r:id="rId63" ref="Z20"/>
-    <hyperlink r:id="rId64" ref="AD20"/>
-    <hyperlink r:id="rId65" ref="AF20"/>
-    <hyperlink r:id="rId66" ref="L26"/>
-    <hyperlink r:id="rId67" ref="N26"/>
-    <hyperlink r:id="rId68" ref="P26"/>
-    <hyperlink r:id="rId69" ref="R26"/>
-    <hyperlink r:id="rId70" ref="T26"/>
-    <hyperlink r:id="rId71" ref="V26"/>
-    <hyperlink r:id="rId72" ref="X26"/>
-    <hyperlink r:id="rId73" location="gid=0" ref="Z26"/>
-    <hyperlink r:id="rId74" ref="AD26"/>
-    <hyperlink r:id="rId75" ref="AF26"/>
-    <hyperlink r:id="rId76" ref="L28"/>
-    <hyperlink r:id="rId77" ref="N28"/>
-    <hyperlink r:id="rId78" ref="P28"/>
-    <hyperlink r:id="rId79" ref="R28"/>
-    <hyperlink r:id="rId80" ref="T28"/>
-    <hyperlink r:id="rId81" ref="V28"/>
-    <hyperlink r:id="rId82" ref="X28"/>
-    <hyperlink r:id="rId83" location="gid=0" ref="Z28"/>
-    <hyperlink r:id="rId84" ref="AB28"/>
-    <hyperlink r:id="rId85" ref="AD28"/>
-    <hyperlink r:id="rId86" ref="AF28"/>
-    <hyperlink r:id="rId87" ref="J32"/>
-    <hyperlink r:id="rId88" ref="L32"/>
-    <hyperlink r:id="rId89" ref="N32"/>
-    <hyperlink r:id="rId90" ref="R32"/>
-    <hyperlink r:id="rId91" ref="T32"/>
-    <hyperlink r:id="rId92" ref="X32"/>
-    <hyperlink r:id="rId93" ref="Z32"/>
-    <hyperlink r:id="rId94" ref="AD32"/>
-    <hyperlink r:id="rId95" ref="AF32"/>
-    <hyperlink r:id="rId96" ref="L33"/>
-    <hyperlink r:id="rId97" ref="L36"/>
-    <hyperlink r:id="rId98" ref="N36"/>
-    <hyperlink r:id="rId99" ref="P36"/>
-    <hyperlink r:id="rId100" location="slide=id.g3b70900641_0_0" ref="V36"/>
-    <hyperlink r:id="rId101" ref="L40"/>
-    <hyperlink r:id="rId102" ref="R40"/>
-    <hyperlink r:id="rId103" ref="T40"/>
-    <hyperlink r:id="rId104" ref="X40"/>
-    <hyperlink r:id="rId105" location="gid=1586758783" ref="Z40"/>
-    <hyperlink r:id="rId106" ref="AB40"/>
-    <hyperlink r:id="rId107" ref="J44"/>
-    <hyperlink r:id="rId108" ref="L44"/>
-    <hyperlink r:id="rId109" ref="N44"/>
-    <hyperlink r:id="rId110" ref="R44"/>
-    <hyperlink r:id="rId111" ref="T44"/>
-    <hyperlink r:id="rId112" ref="V44"/>
-    <hyperlink r:id="rId113" ref="X44"/>
-    <hyperlink r:id="rId114" location="gid=1064681298" ref="Z44"/>
-    <hyperlink r:id="rId115" ref="AB44"/>
-    <hyperlink r:id="rId116" ref="AF44"/>
-    <hyperlink r:id="rId117" ref="N47"/>
-    <hyperlink r:id="rId118" ref="T47"/>
-    <hyperlink r:id="rId119" ref="J50"/>
-    <hyperlink r:id="rId120" ref="L50"/>
-    <hyperlink r:id="rId121" ref="N50"/>
-    <hyperlink r:id="rId122" ref="P50"/>
-    <hyperlink r:id="rId123" ref="R50"/>
-    <hyperlink r:id="rId124" ref="T50"/>
-    <hyperlink r:id="rId125" location="slide=id.g3b70900641_0_0" ref="V50"/>
-    <hyperlink r:id="rId126" ref="X50"/>
-    <hyperlink r:id="rId127" ref="J52"/>
-    <hyperlink r:id="rId128" ref="L52"/>
-    <hyperlink r:id="rId129" ref="N52"/>
-    <hyperlink r:id="rId130" ref="P52"/>
-    <hyperlink r:id="rId131" ref="R52"/>
-    <hyperlink r:id="rId132" location="slide=id.g3a394584c0_2_2" ref="V52"/>
-    <hyperlink r:id="rId133" ref="X52"/>
-    <hyperlink r:id="rId134" ref="Z52"/>
-    <hyperlink r:id="rId135" ref="AB52"/>
-    <hyperlink r:id="rId136" ref="AD52"/>
-    <hyperlink r:id="rId137" ref="AF52"/>
-    <hyperlink r:id="rId138" ref="J54"/>
-    <hyperlink r:id="rId139" ref="L54"/>
-    <hyperlink r:id="rId140" ref="N54"/>
-    <hyperlink r:id="rId141" ref="P54"/>
-    <hyperlink r:id="rId142" ref="R54"/>
-    <hyperlink r:id="rId143" ref="T54"/>
-    <hyperlink r:id="rId144" location="gid=0" ref="Z54"/>
-    <hyperlink r:id="rId145" ref="AD54"/>
-    <hyperlink r:id="rId146" ref="AF54"/>
-    <hyperlink r:id="rId147" ref="X56"/>
-    <hyperlink r:id="rId148" ref="L61"/>
-    <hyperlink r:id="rId149" ref="P61"/>
-    <hyperlink r:id="rId150" ref="R61"/>
-    <hyperlink r:id="rId151" ref="T61"/>
-    <hyperlink r:id="rId152" location="slide=id.g3b70900641_0_0" ref="V61"/>
-    <hyperlink r:id="rId153" ref="X61"/>
-    <hyperlink r:id="rId154" ref="Z61"/>
-    <hyperlink r:id="rId155" ref="AB61"/>
-    <hyperlink r:id="rId156" ref="AD61"/>
-    <hyperlink r:id="rId157" ref="AF61"/>
-    <hyperlink r:id="rId158" ref="J62"/>
-    <hyperlink r:id="rId159" ref="L62"/>
-    <hyperlink r:id="rId160" ref="N62"/>
-    <hyperlink r:id="rId161" ref="P62"/>
-    <hyperlink r:id="rId162" location="slide=id.p1" ref="V62"/>
-    <hyperlink r:id="rId163" ref="X62"/>
-    <hyperlink r:id="rId164" ref="Z62"/>
-    <hyperlink r:id="rId165" ref="J64"/>
-    <hyperlink r:id="rId166" ref="L64"/>
-    <hyperlink r:id="rId167" ref="N64"/>
-    <hyperlink r:id="rId168" ref="P64"/>
-    <hyperlink r:id="rId169" ref="R64"/>
-    <hyperlink r:id="rId170" ref="T64"/>
-    <hyperlink r:id="rId171" location="slide=id.g3b70900641_0_0" ref="V64"/>
-    <hyperlink r:id="rId172" ref="X64"/>
-    <hyperlink r:id="rId173" location="gid=0" ref="Z64"/>
-    <hyperlink r:id="rId174" ref="AF64"/>
-    <hyperlink r:id="rId175" ref="L65"/>
-    <hyperlink r:id="rId176" ref="N65"/>
-    <hyperlink r:id="rId177" ref="P65"/>
-    <hyperlink r:id="rId178" ref="R65"/>
-    <hyperlink r:id="rId179" ref="T65"/>
-    <hyperlink r:id="rId180" ref="V65"/>
-    <hyperlink r:id="rId181" ref="AB65"/>
-    <hyperlink r:id="rId182" ref="AF65"/>
-    <hyperlink r:id="rId183" ref="J66"/>
-    <hyperlink r:id="rId184" ref="L66"/>
-    <hyperlink r:id="rId185" ref="N66"/>
-    <hyperlink r:id="rId186" ref="P66"/>
-    <hyperlink r:id="rId187" ref="R66"/>
-    <hyperlink r:id="rId188" ref="T66"/>
-    <hyperlink r:id="rId189" location="slide=id.g3b70900641_0_0" ref="V66"/>
-    <hyperlink r:id="rId190" ref="X66"/>
-    <hyperlink r:id="rId191" ref="Z66"/>
-    <hyperlink r:id="rId192" ref="AB66"/>
-    <hyperlink r:id="rId193" ref="AD66"/>
-    <hyperlink r:id="rId194" ref="AF66"/>
-    <hyperlink r:id="rId195" ref="J68"/>
-    <hyperlink r:id="rId196" ref="L68"/>
-    <hyperlink r:id="rId197" ref="N68"/>
-    <hyperlink r:id="rId198" ref="R68"/>
-    <hyperlink r:id="rId199" ref="T68"/>
-    <hyperlink r:id="rId200" location="slide=id.g3b70900641_0_0" ref="V68"/>
-    <hyperlink r:id="rId201" ref="X68"/>
-    <hyperlink r:id="rId202" ref="Z68"/>
-    <hyperlink r:id="rId203" ref="AB68"/>
-    <hyperlink r:id="rId204" ref="AD68"/>
-    <hyperlink r:id="rId205" ref="AF68"/>
-    <hyperlink r:id="rId206" ref="J69"/>
-    <hyperlink r:id="rId207" ref="R69"/>
-    <hyperlink r:id="rId208" ref="T69"/>
-    <hyperlink r:id="rId209" ref="V69"/>
-    <hyperlink r:id="rId210" ref="X69"/>
-    <hyperlink r:id="rId211" ref="Z69"/>
-    <hyperlink r:id="rId212" ref="AD69"/>
-    <hyperlink r:id="rId213" ref="AF69"/>
-    <hyperlink r:id="rId214" ref="J70"/>
-    <hyperlink r:id="rId215" ref="L70"/>
-    <hyperlink r:id="rId216" ref="N70"/>
-    <hyperlink r:id="rId217" ref="P70"/>
-    <hyperlink r:id="rId218" ref="R70"/>
-    <hyperlink r:id="rId219" ref="T70"/>
-    <hyperlink r:id="rId220" location="slide=id.g3b70900641_0_0" ref="V70"/>
-    <hyperlink r:id="rId221" ref="X70"/>
-    <hyperlink r:id="rId222" ref="Z70"/>
-    <hyperlink r:id="rId223" ref="AB70"/>
-    <hyperlink r:id="rId224" ref="AD70"/>
-    <hyperlink r:id="rId225" ref="AF70"/>
-    <hyperlink r:id="rId226" ref="J71"/>
-    <hyperlink r:id="rId227" ref="L71"/>
-    <hyperlink r:id="rId228" ref="N71"/>
-    <hyperlink r:id="rId229" ref="P71"/>
-    <hyperlink r:id="rId230" ref="R71"/>
-    <hyperlink r:id="rId231" ref="T71"/>
-    <hyperlink r:id="rId232" ref="V71"/>
-    <hyperlink r:id="rId233" ref="X71"/>
-    <hyperlink r:id="rId234" ref="Z71"/>
-    <hyperlink r:id="rId235" ref="AB71"/>
-    <hyperlink r:id="rId236" ref="AD71"/>
-    <hyperlink r:id="rId237" ref="AF71"/>
-    <hyperlink r:id="rId238" ref="L72"/>
-    <hyperlink r:id="rId239" ref="P72"/>
-    <hyperlink r:id="rId240" location="gid=899114190" ref="Z72"/>
-    <hyperlink r:id="rId241" ref="AB72"/>
-    <hyperlink r:id="rId242" ref="AD72"/>
-    <hyperlink r:id="rId243" ref="AF72"/>
-    <hyperlink r:id="rId244" ref="L82"/>
-    <hyperlink r:id="rId245" ref="P82"/>
-    <hyperlink r:id="rId246" location="slide=id.g3a3f5f2f0e_1_5" ref="V82"/>
-    <hyperlink r:id="rId247" ref="X82"/>
-    <hyperlink r:id="rId248" location="gid=0" ref="Z82"/>
-    <hyperlink r:id="rId249" ref="AB82"/>
-    <hyperlink r:id="rId250" ref="AF82"/>
-    <hyperlink r:id="rId251" ref="J91"/>
-    <hyperlink r:id="rId252" ref="L91"/>
-    <hyperlink r:id="rId253" ref="N91"/>
-    <hyperlink r:id="rId254" ref="P91"/>
-    <hyperlink r:id="rId255" ref="R91"/>
-    <hyperlink r:id="rId256" ref="T91"/>
-    <hyperlink r:id="rId257" location="slide=id.g3b70900641_0_0" ref="V91"/>
-    <hyperlink r:id="rId258" ref="X91"/>
-    <hyperlink r:id="rId259" ref="Z91"/>
-    <hyperlink r:id="rId260" ref="AB91"/>
-    <hyperlink r:id="rId261" ref="AD91"/>
-    <hyperlink r:id="rId262" ref="AF91"/>
-    <hyperlink r:id="rId263" ref="J103"/>
-    <hyperlink r:id="rId264" ref="L103"/>
-    <hyperlink r:id="rId265" ref="N103"/>
-    <hyperlink r:id="rId266" ref="P103"/>
-    <hyperlink r:id="rId267" ref="T103"/>
-    <hyperlink r:id="rId268" location="slide=id.g3b70900641_0_0" ref="V103"/>
-    <hyperlink r:id="rId269" ref="X103"/>
-    <hyperlink r:id="rId270" ref="AB103"/>
-    <hyperlink r:id="rId271" ref="AD103"/>
-    <hyperlink r:id="rId272" ref="L111"/>
-    <hyperlink r:id="rId273" ref="R111"/>
-    <hyperlink r:id="rId274" ref="T111"/>
-    <hyperlink r:id="rId275" ref="X111"/>
-    <hyperlink r:id="rId276" location="gid=1586758783" ref="Z111"/>
-    <hyperlink r:id="rId277" ref="AB111"/>
-    <hyperlink r:id="rId278" ref="J114"/>
-    <hyperlink r:id="rId279" ref="L114"/>
-    <hyperlink r:id="rId280" ref="N114"/>
-    <hyperlink r:id="rId281" ref="P114"/>
-    <hyperlink r:id="rId282" ref="J115"/>
-    <hyperlink r:id="rId283" ref="L115"/>
-    <hyperlink r:id="rId284" ref="N115"/>
-    <hyperlink r:id="rId285" ref="P115"/>
-    <hyperlink r:id="rId286" ref="T115"/>
-    <hyperlink r:id="rId287" ref="X115"/>
-    <hyperlink r:id="rId288" location="gid=1064681298" ref="Z115"/>
-    <hyperlink r:id="rId289" ref="AD115"/>
-    <hyperlink r:id="rId290" ref="AF115"/>
-    <hyperlink r:id="rId291" ref="L118"/>
-    <hyperlink r:id="rId292" ref="N118"/>
-    <hyperlink r:id="rId293" ref="P118"/>
-    <hyperlink r:id="rId294" location="slide=id.g3b70900641_0_0" ref="V118"/>
-    <hyperlink r:id="rId295" ref="X118"/>
-    <hyperlink r:id="rId296" ref="Z118"/>
-    <hyperlink r:id="rId297" ref="AB118"/>
-    <hyperlink r:id="rId298" ref="AF118"/>
-    <hyperlink r:id="rId299" ref="J120"/>
-    <hyperlink r:id="rId300" ref="L120"/>
-    <hyperlink r:id="rId301" ref="N120"/>
-    <hyperlink r:id="rId302" ref="J123"/>
-    <hyperlink r:id="rId303" ref="L123"/>
-    <hyperlink r:id="rId304" ref="N123"/>
-    <hyperlink r:id="rId305" ref="P123"/>
-    <hyperlink r:id="rId306" ref="R123"/>
-    <hyperlink r:id="rId307" ref="T123"/>
-    <hyperlink r:id="rId308" location="slide=id.g3b70900641_0_0" ref="V123"/>
-    <hyperlink r:id="rId309" ref="X123"/>
-    <hyperlink r:id="rId310" location="gid=0" ref="Z123"/>
-    <hyperlink r:id="rId311" ref="AB123"/>
-    <hyperlink r:id="rId312" ref="AD123"/>
-    <hyperlink r:id="rId313" ref="L127"/>
-    <hyperlink r:id="rId314" ref="N127"/>
-    <hyperlink r:id="rId315" ref="J128"/>
-    <hyperlink r:id="rId316" ref="L128"/>
-    <hyperlink r:id="rId317" ref="N128"/>
-    <hyperlink r:id="rId318" ref="P128"/>
-    <hyperlink r:id="rId319" ref="R128"/>
-    <hyperlink r:id="rId320" ref="T128"/>
-    <hyperlink r:id="rId321" location="slide=id.g3b70900641_0_0" ref="V128"/>
-    <hyperlink r:id="rId322" ref="X128"/>
-    <hyperlink r:id="rId323" ref="Z128"/>
-    <hyperlink r:id="rId324" ref="AB128"/>
-    <hyperlink r:id="rId325" ref="AD128"/>
-    <hyperlink r:id="rId326" ref="AF128"/>
-    <hyperlink r:id="rId327" ref="L129"/>
-    <hyperlink r:id="rId328" ref="N129"/>
-    <hyperlink r:id="rId329" ref="P129"/>
-    <hyperlink r:id="rId330" ref="R129"/>
-    <hyperlink r:id="rId331" ref="T129"/>
-    <hyperlink r:id="rId332" ref="V129"/>
-    <hyperlink r:id="rId333" ref="X129"/>
-    <hyperlink r:id="rId334" ref="J130"/>
-    <hyperlink r:id="rId335" ref="N130"/>
-    <hyperlink r:id="rId336" ref="P130"/>
-    <hyperlink r:id="rId337" ref="T130"/>
-    <hyperlink r:id="rId338" ref="Z130"/>
-    <hyperlink r:id="rId339" ref="AD130"/>
-    <hyperlink r:id="rId340" ref="AF130"/>
-    <hyperlink r:id="rId341" ref="J131"/>
-    <hyperlink r:id="rId342" ref="L131"/>
-    <hyperlink r:id="rId343" ref="N131"/>
-    <hyperlink r:id="rId344" ref="P131"/>
-    <hyperlink r:id="rId345" ref="R131"/>
-    <hyperlink r:id="rId346" ref="T131"/>
-    <hyperlink r:id="rId347" ref="V131"/>
-    <hyperlink r:id="rId348" ref="X131"/>
-    <hyperlink r:id="rId349" location="gid=0" ref="Z131"/>
-    <hyperlink r:id="rId350" ref="AB131"/>
-    <hyperlink r:id="rId351" ref="AD131"/>
-    <hyperlink r:id="rId352" ref="AF131"/>
-    <hyperlink r:id="rId353" ref="J138"/>
-    <hyperlink r:id="rId354" ref="L138"/>
-    <hyperlink r:id="rId355" ref="N138"/>
-    <hyperlink r:id="rId356" ref="P138"/>
-    <hyperlink r:id="rId357" ref="R138"/>
-    <hyperlink r:id="rId358" ref="T138"/>
-    <hyperlink r:id="rId359" ref="V138"/>
-    <hyperlink r:id="rId360" ref="X138"/>
-    <hyperlink r:id="rId361" ref="Z138"/>
-    <hyperlink r:id="rId362" ref="AB138"/>
-    <hyperlink r:id="rId363" ref="AD138"/>
-    <hyperlink r:id="rId364" ref="AF138"/>
-    <hyperlink r:id="rId365" ref="J139"/>
-    <hyperlink r:id="rId366" ref="L139"/>
-    <hyperlink r:id="rId367" ref="N139"/>
-    <hyperlink r:id="rId368" ref="P139"/>
-    <hyperlink r:id="rId369" ref="R139"/>
-    <hyperlink r:id="rId370" ref="T139"/>
-    <hyperlink r:id="rId371" location="slide=id.g3a4571af9b_0_0" ref="V139"/>
-    <hyperlink r:id="rId372" ref="X139"/>
-    <hyperlink r:id="rId373" location="gid=0" ref="Z139"/>
-    <hyperlink r:id="rId374" ref="AB139"/>
-    <hyperlink r:id="rId375" ref="AF139"/>
-    <hyperlink r:id="rId376" ref="L141"/>
-    <hyperlink r:id="rId377" ref="P141"/>
-    <hyperlink r:id="rId378" ref="R141"/>
-    <hyperlink r:id="rId379" ref="T141"/>
-    <hyperlink r:id="rId380" location="slide=id.g3b70900641_0_0" ref="V141"/>
-    <hyperlink r:id="rId381" ref="X141"/>
-    <hyperlink r:id="rId382" ref="Z141"/>
-    <hyperlink r:id="rId383" ref="AB141"/>
-    <hyperlink r:id="rId384" ref="AF141"/>
+    <hyperlink r:id="rId15" ref="AJ4"/>
+    <hyperlink r:id="rId16" location="preview-embed" ref="AN4"/>
+    <hyperlink r:id="rId17" ref="J9"/>
+    <hyperlink r:id="rId18" ref="L9"/>
+    <hyperlink r:id="rId19" ref="P9"/>
+    <hyperlink r:id="rId20" ref="R9"/>
+    <hyperlink r:id="rId21" ref="T9"/>
+    <hyperlink r:id="rId22" ref="X9"/>
+    <hyperlink r:id="rId23" ref="Z9"/>
+    <hyperlink r:id="rId24" ref="AB9"/>
+    <hyperlink r:id="rId25" ref="AD9"/>
+    <hyperlink r:id="rId26" ref="AF9"/>
+    <hyperlink r:id="rId27" ref="J11"/>
+    <hyperlink r:id="rId28" ref="L11"/>
+    <hyperlink r:id="rId29" ref="N11"/>
+    <hyperlink r:id="rId30" ref="P11"/>
+    <hyperlink r:id="rId31" ref="R11"/>
+    <hyperlink r:id="rId32" ref="T11"/>
+    <hyperlink r:id="rId33" location="slide=id.p" ref="V11"/>
+    <hyperlink r:id="rId34" ref="X11"/>
+    <hyperlink r:id="rId35" ref="Z11"/>
+    <hyperlink r:id="rId36" ref="AB11"/>
+    <hyperlink r:id="rId37" ref="AD11"/>
+    <hyperlink r:id="rId38" ref="AF11"/>
+    <hyperlink r:id="rId39" ref="AJ11"/>
+    <hyperlink r:id="rId40" ref="AL11"/>
+    <hyperlink r:id="rId41" ref="AN11"/>
+    <hyperlink r:id="rId42" ref="J12"/>
+    <hyperlink r:id="rId43" ref="L12"/>
+    <hyperlink r:id="rId44" ref="N12"/>
+    <hyperlink r:id="rId45" ref="P12"/>
+    <hyperlink r:id="rId46" ref="R12"/>
+    <hyperlink r:id="rId47" ref="T12"/>
+    <hyperlink r:id="rId48" ref="V12"/>
+    <hyperlink r:id="rId49" ref="X12"/>
+    <hyperlink r:id="rId50" location="gid=0" ref="Z12"/>
+    <hyperlink r:id="rId51" ref="AB12"/>
+    <hyperlink r:id="rId52" ref="AD12"/>
+    <hyperlink r:id="rId53" ref="AF12"/>
+    <hyperlink r:id="rId54" ref="AJ12"/>
+    <hyperlink r:id="rId55" location="gid=0" ref="AL12"/>
+    <hyperlink r:id="rId56" ref="L13"/>
+    <hyperlink r:id="rId57" ref="N13"/>
+    <hyperlink r:id="rId58" ref="P13"/>
+    <hyperlink r:id="rId59" ref="R13"/>
+    <hyperlink r:id="rId60" ref="T13"/>
+    <hyperlink r:id="rId61" location="slide=id.g3b70900641_0_0" ref="V13"/>
+    <hyperlink r:id="rId62" ref="X13"/>
+    <hyperlink r:id="rId63" ref="Z14"/>
+    <hyperlink r:id="rId64" ref="J20"/>
+    <hyperlink r:id="rId65" ref="L20"/>
+    <hyperlink r:id="rId66" ref="N20"/>
+    <hyperlink r:id="rId67" ref="P20"/>
+    <hyperlink r:id="rId68" ref="T20"/>
+    <hyperlink r:id="rId69" ref="X20"/>
+    <hyperlink r:id="rId70" ref="Z20"/>
+    <hyperlink r:id="rId71" ref="AD20"/>
+    <hyperlink r:id="rId72" ref="AF20"/>
+    <hyperlink r:id="rId73" ref="L26"/>
+    <hyperlink r:id="rId74" ref="N26"/>
+    <hyperlink r:id="rId75" ref="P26"/>
+    <hyperlink r:id="rId76" ref="R26"/>
+    <hyperlink r:id="rId77" ref="T26"/>
+    <hyperlink r:id="rId78" ref="V26"/>
+    <hyperlink r:id="rId79" ref="X26"/>
+    <hyperlink r:id="rId80" location="gid=0" ref="Z26"/>
+    <hyperlink r:id="rId81" ref="AD26"/>
+    <hyperlink r:id="rId82" ref="AF26"/>
+    <hyperlink r:id="rId83" ref="L28"/>
+    <hyperlink r:id="rId84" ref="N28"/>
+    <hyperlink r:id="rId85" ref="P28"/>
+    <hyperlink r:id="rId86" ref="R28"/>
+    <hyperlink r:id="rId87" ref="T28"/>
+    <hyperlink r:id="rId88" ref="V28"/>
+    <hyperlink r:id="rId89" ref="X28"/>
+    <hyperlink r:id="rId90" location="gid=0" ref="Z28"/>
+    <hyperlink r:id="rId91" ref="AB28"/>
+    <hyperlink r:id="rId92" ref="AD28"/>
+    <hyperlink r:id="rId93" ref="AF28"/>
+    <hyperlink r:id="rId94" ref="AJ28"/>
+    <hyperlink r:id="rId95" ref="AL28"/>
+    <hyperlink r:id="rId96" ref="AN28"/>
+    <hyperlink r:id="rId97" ref="J32"/>
+    <hyperlink r:id="rId98" ref="L32"/>
+    <hyperlink r:id="rId99" ref="N32"/>
+    <hyperlink r:id="rId100" ref="R32"/>
+    <hyperlink r:id="rId101" ref="T32"/>
+    <hyperlink r:id="rId102" ref="X32"/>
+    <hyperlink r:id="rId103" ref="Z32"/>
+    <hyperlink r:id="rId104" ref="AD32"/>
+    <hyperlink r:id="rId105" ref="AF32"/>
+    <hyperlink r:id="rId106" ref="AL32"/>
+    <hyperlink r:id="rId107" ref="L33"/>
+    <hyperlink r:id="rId108" ref="L36"/>
+    <hyperlink r:id="rId109" ref="N36"/>
+    <hyperlink r:id="rId110" ref="P36"/>
+    <hyperlink r:id="rId111" location="slide=id.g3b70900641_0_0" ref="V36"/>
+    <hyperlink r:id="rId112" ref="L40"/>
+    <hyperlink r:id="rId113" ref="R40"/>
+    <hyperlink r:id="rId114" ref="T40"/>
+    <hyperlink r:id="rId115" ref="X40"/>
+    <hyperlink r:id="rId116" location="gid=1586758783" ref="Z40"/>
+    <hyperlink r:id="rId117" ref="AB40"/>
+    <hyperlink r:id="rId118" ref="J44"/>
+    <hyperlink r:id="rId119" ref="L44"/>
+    <hyperlink r:id="rId120" ref="N44"/>
+    <hyperlink r:id="rId121" ref="R44"/>
+    <hyperlink r:id="rId122" ref="T44"/>
+    <hyperlink r:id="rId123" ref="V44"/>
+    <hyperlink r:id="rId124" ref="X44"/>
+    <hyperlink r:id="rId125" location="gid=1064681298" ref="Z44"/>
+    <hyperlink r:id="rId126" ref="AB44"/>
+    <hyperlink r:id="rId127" ref="AF44"/>
+    <hyperlink r:id="rId128" ref="AL44"/>
+    <hyperlink r:id="rId129" ref="N47"/>
+    <hyperlink r:id="rId130" ref="T47"/>
+    <hyperlink r:id="rId131" ref="J50"/>
+    <hyperlink r:id="rId132" ref="L50"/>
+    <hyperlink r:id="rId133" ref="N50"/>
+    <hyperlink r:id="rId134" ref="P50"/>
+    <hyperlink r:id="rId135" ref="R50"/>
+    <hyperlink r:id="rId136" ref="T50"/>
+    <hyperlink r:id="rId137" location="slide=id.g3b70900641_0_0" ref="V50"/>
+    <hyperlink r:id="rId138" ref="X50"/>
+    <hyperlink r:id="rId139" ref="J52"/>
+    <hyperlink r:id="rId140" ref="L52"/>
+    <hyperlink r:id="rId141" ref="N52"/>
+    <hyperlink r:id="rId142" ref="P52"/>
+    <hyperlink r:id="rId143" ref="R52"/>
+    <hyperlink r:id="rId144" location="slide=id.g3a394584c0_2_2" ref="V52"/>
+    <hyperlink r:id="rId145" ref="X52"/>
+    <hyperlink r:id="rId146" ref="Z52"/>
+    <hyperlink r:id="rId147" ref="AB52"/>
+    <hyperlink r:id="rId148" ref="AD52"/>
+    <hyperlink r:id="rId149" ref="AF52"/>
+    <hyperlink r:id="rId150" ref="AJ52"/>
+    <hyperlink r:id="rId151" ref="AL52"/>
+    <hyperlink r:id="rId152" ref="AN52"/>
+    <hyperlink r:id="rId153" ref="J54"/>
+    <hyperlink r:id="rId154" ref="L54"/>
+    <hyperlink r:id="rId155" ref="N54"/>
+    <hyperlink r:id="rId156" ref="P54"/>
+    <hyperlink r:id="rId157" ref="R54"/>
+    <hyperlink r:id="rId158" ref="T54"/>
+    <hyperlink r:id="rId159" location="gid=0" ref="Z54"/>
+    <hyperlink r:id="rId160" ref="AD54"/>
+    <hyperlink r:id="rId161" ref="AF54"/>
+    <hyperlink r:id="rId162" ref="X56"/>
+    <hyperlink r:id="rId163" ref="L61"/>
+    <hyperlink r:id="rId164" ref="P61"/>
+    <hyperlink r:id="rId165" ref="R61"/>
+    <hyperlink r:id="rId166" ref="T61"/>
+    <hyperlink r:id="rId167" location="slide=id.g3b70900641_0_0" ref="V61"/>
+    <hyperlink r:id="rId168" ref="X61"/>
+    <hyperlink r:id="rId169" ref="Z61"/>
+    <hyperlink r:id="rId170" ref="AB61"/>
+    <hyperlink r:id="rId171" ref="AD61"/>
+    <hyperlink r:id="rId172" ref="AF61"/>
+    <hyperlink r:id="rId173" ref="AJ61"/>
+    <hyperlink r:id="rId174" ref="AL61"/>
+    <hyperlink r:id="rId175" ref="AN61"/>
+    <hyperlink r:id="rId176" ref="J62"/>
+    <hyperlink r:id="rId177" ref="L62"/>
+    <hyperlink r:id="rId178" ref="N62"/>
+    <hyperlink r:id="rId179" ref="P62"/>
+    <hyperlink r:id="rId180" location="slide=id.p1" ref="V62"/>
+    <hyperlink r:id="rId181" ref="X62"/>
+    <hyperlink r:id="rId182" ref="Z62"/>
+    <hyperlink r:id="rId183" ref="J64"/>
+    <hyperlink r:id="rId184" ref="L64"/>
+    <hyperlink r:id="rId185" ref="N64"/>
+    <hyperlink r:id="rId186" ref="P64"/>
+    <hyperlink r:id="rId187" ref="R64"/>
+    <hyperlink r:id="rId188" ref="T64"/>
+    <hyperlink r:id="rId189" location="slide=id.g3b70900641_0_0" ref="V64"/>
+    <hyperlink r:id="rId190" ref="X64"/>
+    <hyperlink r:id="rId191" location="gid=0" ref="Z64"/>
+    <hyperlink r:id="rId192" ref="AF64"/>
+    <hyperlink r:id="rId193" location="gid=0" ref="AL64"/>
+    <hyperlink r:id="rId194" ref="AN64"/>
+    <hyperlink r:id="rId195" ref="L65"/>
+    <hyperlink r:id="rId196" ref="N65"/>
+    <hyperlink r:id="rId197" ref="P65"/>
+    <hyperlink r:id="rId198" ref="R65"/>
+    <hyperlink r:id="rId199" ref="T65"/>
+    <hyperlink r:id="rId200" ref="V65"/>
+    <hyperlink r:id="rId201" ref="AB65"/>
+    <hyperlink r:id="rId202" ref="AF65"/>
+    <hyperlink r:id="rId203" ref="AL65"/>
+    <hyperlink r:id="rId204" ref="J66"/>
+    <hyperlink r:id="rId205" ref="L66"/>
+    <hyperlink r:id="rId206" ref="N66"/>
+    <hyperlink r:id="rId207" ref="P66"/>
+    <hyperlink r:id="rId208" ref="R66"/>
+    <hyperlink r:id="rId209" ref="T66"/>
+    <hyperlink r:id="rId210" location="slide=id.g3b70900641_0_0" ref="V66"/>
+    <hyperlink r:id="rId211" ref="X66"/>
+    <hyperlink r:id="rId212" ref="Z66"/>
+    <hyperlink r:id="rId213" ref="AB66"/>
+    <hyperlink r:id="rId214" ref="AD66"/>
+    <hyperlink r:id="rId215" ref="AF66"/>
+    <hyperlink r:id="rId216" ref="AJ66"/>
+    <hyperlink r:id="rId217" ref="AL66"/>
+    <hyperlink r:id="rId218" ref="AN66"/>
+    <hyperlink r:id="rId219" ref="J68"/>
+    <hyperlink r:id="rId220" ref="L68"/>
+    <hyperlink r:id="rId221" ref="N68"/>
+    <hyperlink r:id="rId222" ref="R68"/>
+    <hyperlink r:id="rId223" ref="T68"/>
+    <hyperlink r:id="rId224" location="slide=id.g3b70900641_0_0" ref="V68"/>
+    <hyperlink r:id="rId225" ref="X68"/>
+    <hyperlink r:id="rId226" ref="Z68"/>
+    <hyperlink r:id="rId227" ref="AB68"/>
+    <hyperlink r:id="rId228" ref="AD68"/>
+    <hyperlink r:id="rId229" ref="AF68"/>
+    <hyperlink r:id="rId230" ref="AJ68"/>
+    <hyperlink r:id="rId231" ref="AL68"/>
+    <hyperlink r:id="rId232" ref="AN68"/>
+    <hyperlink r:id="rId233" ref="J69"/>
+    <hyperlink r:id="rId234" ref="R69"/>
+    <hyperlink r:id="rId235" ref="T69"/>
+    <hyperlink r:id="rId236" ref="V69"/>
+    <hyperlink r:id="rId237" ref="X69"/>
+    <hyperlink r:id="rId238" ref="Z69"/>
+    <hyperlink r:id="rId239" ref="AD69"/>
+    <hyperlink r:id="rId240" ref="AF69"/>
+    <hyperlink r:id="rId241" ref="J70"/>
+    <hyperlink r:id="rId242" ref="L70"/>
+    <hyperlink r:id="rId243" ref="N70"/>
+    <hyperlink r:id="rId244" ref="P70"/>
+    <hyperlink r:id="rId245" ref="R70"/>
+    <hyperlink r:id="rId246" ref="T70"/>
+    <hyperlink r:id="rId247" location="slide=id.g3b70900641_0_0" ref="V70"/>
+    <hyperlink r:id="rId248" ref="X70"/>
+    <hyperlink r:id="rId249" ref="Z70"/>
+    <hyperlink r:id="rId250" ref="AB70"/>
+    <hyperlink r:id="rId251" ref="AD70"/>
+    <hyperlink r:id="rId252" ref="AF70"/>
+    <hyperlink r:id="rId253" ref="AJ70"/>
+    <hyperlink r:id="rId254" ref="AL70"/>
+    <hyperlink r:id="rId255" ref="AN70"/>
+    <hyperlink r:id="rId256" ref="J71"/>
+    <hyperlink r:id="rId257" ref="L71"/>
+    <hyperlink r:id="rId258" ref="N71"/>
+    <hyperlink r:id="rId259" ref="P71"/>
+    <hyperlink r:id="rId260" ref="R71"/>
+    <hyperlink r:id="rId261" ref="T71"/>
+    <hyperlink r:id="rId262" ref="V71"/>
+    <hyperlink r:id="rId263" ref="X71"/>
+    <hyperlink r:id="rId264" ref="Z71"/>
+    <hyperlink r:id="rId265" ref="AB71"/>
+    <hyperlink r:id="rId266" ref="AD71"/>
+    <hyperlink r:id="rId267" ref="AF71"/>
+    <hyperlink r:id="rId268" ref="AJ71"/>
+    <hyperlink r:id="rId269" ref="AL71"/>
+    <hyperlink r:id="rId270" ref="AN71"/>
+    <hyperlink r:id="rId271" ref="L72"/>
+    <hyperlink r:id="rId272" ref="P72"/>
+    <hyperlink r:id="rId273" location="gid=899114190" ref="Z72"/>
+    <hyperlink r:id="rId274" ref="AB72"/>
+    <hyperlink r:id="rId275" ref="AD72"/>
+    <hyperlink r:id="rId276" ref="AF72"/>
+    <hyperlink r:id="rId277" ref="AJ72"/>
+    <hyperlink r:id="rId278" ref="AL72"/>
+    <hyperlink r:id="rId279" ref="AN72"/>
+    <hyperlink r:id="rId280" ref="L82"/>
+    <hyperlink r:id="rId281" ref="P82"/>
+    <hyperlink r:id="rId282" location="slide=id.g3a3f5f2f0e_1_5" ref="V82"/>
+    <hyperlink r:id="rId283" ref="X82"/>
+    <hyperlink r:id="rId284" location="gid=0" ref="Z82"/>
+    <hyperlink r:id="rId285" ref="AB82"/>
+    <hyperlink r:id="rId286" ref="AF82"/>
+    <hyperlink r:id="rId287" ref="AL82"/>
+    <hyperlink r:id="rId288" ref="AN82"/>
+    <hyperlink r:id="rId289" ref="J91"/>
+    <hyperlink r:id="rId290" ref="L91"/>
+    <hyperlink r:id="rId291" ref="N91"/>
+    <hyperlink r:id="rId292" ref="P91"/>
+    <hyperlink r:id="rId293" ref="R91"/>
+    <hyperlink r:id="rId294" ref="T91"/>
+    <hyperlink r:id="rId295" location="slide=id.g3b70900641_0_0" ref="V91"/>
+    <hyperlink r:id="rId296" ref="X91"/>
+    <hyperlink r:id="rId297" ref="Z91"/>
+    <hyperlink r:id="rId298" ref="AB91"/>
+    <hyperlink r:id="rId299" ref="AD91"/>
+    <hyperlink r:id="rId300" ref="AF91"/>
+    <hyperlink r:id="rId301" ref="J103"/>
+    <hyperlink r:id="rId302" ref="L103"/>
+    <hyperlink r:id="rId303" ref="N103"/>
+    <hyperlink r:id="rId304" ref="P103"/>
+    <hyperlink r:id="rId305" ref="T103"/>
+    <hyperlink r:id="rId306" location="slide=id.g3b70900641_0_0" ref="V103"/>
+    <hyperlink r:id="rId307" ref="X103"/>
+    <hyperlink r:id="rId308" ref="AB103"/>
+    <hyperlink r:id="rId309" ref="AD103"/>
+    <hyperlink r:id="rId310" ref="AJ103"/>
+    <hyperlink r:id="rId311" ref="L111"/>
+    <hyperlink r:id="rId312" ref="R111"/>
+    <hyperlink r:id="rId313" ref="T111"/>
+    <hyperlink r:id="rId314" ref="X111"/>
+    <hyperlink r:id="rId315" location="gid=1586758783" ref="Z111"/>
+    <hyperlink r:id="rId316" ref="AB111"/>
+    <hyperlink r:id="rId317" ref="AJ111"/>
+    <hyperlink r:id="rId318" location="gid=980550210" ref="AL111"/>
+    <hyperlink r:id="rId319" ref="AN111"/>
+    <hyperlink r:id="rId320" ref="J114"/>
+    <hyperlink r:id="rId321" ref="L114"/>
+    <hyperlink r:id="rId322" ref="N114"/>
+    <hyperlink r:id="rId323" ref="P114"/>
+    <hyperlink r:id="rId324" ref="J115"/>
+    <hyperlink r:id="rId325" ref="L115"/>
+    <hyperlink r:id="rId326" ref="N115"/>
+    <hyperlink r:id="rId327" ref="P115"/>
+    <hyperlink r:id="rId328" ref="T115"/>
+    <hyperlink r:id="rId329" ref="X115"/>
+    <hyperlink r:id="rId330" location="gid=1064681298" ref="Z115"/>
+    <hyperlink r:id="rId331" ref="AB115"/>
+    <hyperlink r:id="rId332" ref="AD115"/>
+    <hyperlink r:id="rId333" ref="AF115"/>
+    <hyperlink r:id="rId334" ref="AL115"/>
+    <hyperlink r:id="rId335" ref="L118"/>
+    <hyperlink r:id="rId336" ref="N118"/>
+    <hyperlink r:id="rId337" ref="P118"/>
+    <hyperlink r:id="rId338" location="slide=id.g3b70900641_0_0" ref="V118"/>
+    <hyperlink r:id="rId339" ref="X118"/>
+    <hyperlink r:id="rId340" ref="Z118"/>
+    <hyperlink r:id="rId341" ref="AB118"/>
+    <hyperlink r:id="rId342" ref="AF118"/>
+    <hyperlink r:id="rId343" ref="J120"/>
+    <hyperlink r:id="rId344" ref="L120"/>
+    <hyperlink r:id="rId345" ref="N120"/>
+    <hyperlink r:id="rId346" ref="J123"/>
+    <hyperlink r:id="rId347" ref="L123"/>
+    <hyperlink r:id="rId348" ref="N123"/>
+    <hyperlink r:id="rId349" ref="P123"/>
+    <hyperlink r:id="rId350" ref="R123"/>
+    <hyperlink r:id="rId351" ref="T123"/>
+    <hyperlink r:id="rId352" location="slide=id.g3b70900641_0_0" ref="V123"/>
+    <hyperlink r:id="rId353" ref="X123"/>
+    <hyperlink r:id="rId354" location="gid=0" ref="Z123"/>
+    <hyperlink r:id="rId355" ref="AB123"/>
+    <hyperlink r:id="rId356" ref="AD123"/>
+    <hyperlink r:id="rId357" ref="AJ123"/>
+    <hyperlink r:id="rId358" ref="AL123"/>
+    <hyperlink r:id="rId359" ref="AN123"/>
+    <hyperlink r:id="rId360" ref="L127"/>
+    <hyperlink r:id="rId361" ref="N127"/>
+    <hyperlink r:id="rId362" ref="J128"/>
+    <hyperlink r:id="rId363" ref="L128"/>
+    <hyperlink r:id="rId364" ref="N128"/>
+    <hyperlink r:id="rId365" ref="P128"/>
+    <hyperlink r:id="rId366" ref="R128"/>
+    <hyperlink r:id="rId367" ref="T128"/>
+    <hyperlink r:id="rId368" location="slide=id.g3b70900641_0_0" ref="V128"/>
+    <hyperlink r:id="rId369" ref="X128"/>
+    <hyperlink r:id="rId370" ref="Z128"/>
+    <hyperlink r:id="rId371" ref="AB128"/>
+    <hyperlink r:id="rId372" ref="AD128"/>
+    <hyperlink r:id="rId373" ref="AF128"/>
+    <hyperlink r:id="rId374" ref="AH128"/>
+    <hyperlink r:id="rId375" ref="AJ128"/>
+    <hyperlink r:id="rId376" ref="AL128"/>
+    <hyperlink r:id="rId377" ref="AN128"/>
+    <hyperlink r:id="rId378" ref="L129"/>
+    <hyperlink r:id="rId379" ref="N129"/>
+    <hyperlink r:id="rId380" ref="P129"/>
+    <hyperlink r:id="rId381" ref="R129"/>
+    <hyperlink r:id="rId382" ref="T129"/>
+    <hyperlink r:id="rId383" ref="V129"/>
+    <hyperlink r:id="rId384" ref="X129"/>
+    <hyperlink r:id="rId385" ref="J130"/>
+    <hyperlink r:id="rId386" ref="N130"/>
+    <hyperlink r:id="rId387" ref="P130"/>
+    <hyperlink r:id="rId388" ref="T130"/>
+    <hyperlink r:id="rId389" ref="Z130"/>
+    <hyperlink r:id="rId390" ref="AD130"/>
+    <hyperlink r:id="rId391" ref="AF130"/>
+    <hyperlink r:id="rId392" ref="AJ130"/>
+    <hyperlink r:id="rId393" ref="AL130"/>
+    <hyperlink r:id="rId394" ref="J131"/>
+    <hyperlink r:id="rId395" ref="L131"/>
+    <hyperlink r:id="rId396" ref="N131"/>
+    <hyperlink r:id="rId397" ref="P131"/>
+    <hyperlink r:id="rId398" ref="R131"/>
+    <hyperlink r:id="rId399" ref="T131"/>
+    <hyperlink r:id="rId400" ref="V131"/>
+    <hyperlink r:id="rId401" ref="X131"/>
+    <hyperlink r:id="rId402" location="gid=0" ref="Z131"/>
+    <hyperlink r:id="rId403" ref="AB131"/>
+    <hyperlink r:id="rId404" ref="AD131"/>
+    <hyperlink r:id="rId405" ref="AF131"/>
+    <hyperlink r:id="rId406" ref="AJ131"/>
+    <hyperlink r:id="rId407" ref="AL131"/>
+    <hyperlink r:id="rId408" ref="AN131"/>
+    <hyperlink r:id="rId409" ref="J138"/>
+    <hyperlink r:id="rId410" ref="L138"/>
+    <hyperlink r:id="rId411" ref="N138"/>
+    <hyperlink r:id="rId412" ref="P138"/>
+    <hyperlink r:id="rId413" ref="R138"/>
+    <hyperlink r:id="rId414" ref="T138"/>
+    <hyperlink r:id="rId415" ref="V138"/>
+    <hyperlink r:id="rId416" ref="X138"/>
+    <hyperlink r:id="rId417" ref="Z138"/>
+    <hyperlink r:id="rId418" ref="AB138"/>
+    <hyperlink r:id="rId419" ref="AD138"/>
+    <hyperlink r:id="rId420" ref="AF138"/>
+    <hyperlink r:id="rId421" ref="AJ138"/>
+    <hyperlink r:id="rId422" ref="AL138"/>
+    <hyperlink r:id="rId423" ref="AN138"/>
+    <hyperlink r:id="rId424" ref="J139"/>
+    <hyperlink r:id="rId425" ref="L139"/>
+    <hyperlink r:id="rId426" ref="N139"/>
+    <hyperlink r:id="rId427" ref="P139"/>
+    <hyperlink r:id="rId428" ref="R139"/>
+    <hyperlink r:id="rId429" ref="T139"/>
+    <hyperlink r:id="rId430" location="slide=id.g3a4571af9b_0_0" ref="V139"/>
+    <hyperlink r:id="rId431" ref="X139"/>
+    <hyperlink r:id="rId432" location="gid=0" ref="Z139"/>
+    <hyperlink r:id="rId433" ref="AB139"/>
+    <hyperlink r:id="rId434" ref="AD139"/>
+    <hyperlink r:id="rId435" ref="AF139"/>
+    <hyperlink r:id="rId436" ref="AJ139"/>
+    <hyperlink r:id="rId437" ref="AL139"/>
+    <hyperlink r:id="rId438" ref="AN139"/>
+    <hyperlink r:id="rId439" ref="L141"/>
+    <hyperlink r:id="rId440" ref="P141"/>
+    <hyperlink r:id="rId441" ref="R141"/>
+    <hyperlink r:id="rId442" ref="T141"/>
+    <hyperlink r:id="rId443" location="slide=id.g3b70900641_0_0" ref="V141"/>
+    <hyperlink r:id="rId444" ref="X141"/>
+    <hyperlink r:id="rId445" ref="Z141"/>
+    <hyperlink r:id="rId446" ref="AB141"/>
+    <hyperlink r:id="rId447" ref="AF141"/>
+    <hyperlink r:id="rId448" ref="AJ141"/>
+    <hyperlink r:id="rId449" ref="AL141"/>
+    <hyperlink r:id="rId450" ref="AN141"/>
   </hyperlinks>
-  <drawing r:id="rId385"/>
+  <drawing r:id="rId451"/>
   <tableParts count="1">
-    <tablePart r:id="rId387"/>
+    <tablePart r:id="rId453"/>
   </tableParts>
 </worksheet>
 </file>
--- a/archivos_para_importacion/copa-tic_tablero.xlsx
+++ b/archivos_para_importacion/copa-tic_tablero.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="842">
   <si>
     <t>N°</t>
   </si>
@@ -211,10 +211,13 @@
     <t>https://www.instagram.com/p/BlBRlr9hGI3/?taken-by=equipoalmafuerte</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=10YoJjkT-Sr1zPTZFjvAif1oDdEKsOn8T</t>
+  </si>
+  <si>
     <t>http://telegra.ph/Practicas-antidiscriminatorias-07-16</t>
   </si>
   <si>
-    <t>https://timeline.knightlab.com/#preview-embed</t>
+    <t>https://cdn.knightlab.com/libs/timeline3/latest/embed/index.html?source=1ty00_AxdpgbUC677m5oaNSikH-oBOma3efac-9xtEYc&amp;font=Default&amp;lang=en&amp;initial_zoom=2&amp;height=650</t>
   </si>
   <si>
     <t>a04</t>
@@ -343,6 +346,9 @@
     <t>https://www.facebook.com/Anael.Argento1889/posts/1652679644849651</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1_0Af3MenG7oTtxW7L6UsnYRGEYVeNXlb</t>
+  </si>
+  <si>
     <t>https://docs.google.com/document/d/13IBK-TEjuLGKDNzjPNyvilG4jK6hZ_BN6q36u-sW5CM/edit?ts=5b4bd08e</t>
   </si>
   <si>
@@ -403,6 +409,9 @@
     <t>https://drive.google.com/file/d/0B3omEZWA1FCIazMzcFdHbGpMTTBucEZVUC04UG5WT3UzcnE0/view</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1lpdMtq1iGq0eyqrboptvVvZBW7_dLPph</t>
+  </si>
+  <si>
     <t>https://drive.google.com/file/d/0B3omEZWA1FCIdnVaTFRXQi0zczBTYVdFUXlTZ0VybDBVb2c4/view</t>
   </si>
   <si>
@@ -889,6 +898,9 @@
     <t>https://www.instagram.com/p/Bk8iee3HLH3/?utm_source=ig_share_sheet&amp;igshid=tpaxbg3ve2c1</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1i2IDUlGnQCGfE5SB-TCyiDrjLsDFP1f6</t>
+  </si>
+  <si>
     <t>https://drive.google.com/open?id=166hqgZqpd3naiOi9PnDl06sWQTrBRBlZ</t>
   </si>
   <si>
@@ -1033,6 +1045,9 @@
     <t>https://www.instagram.com/p/BlDbOnBlVs2/?utm_source=ig_share_sheet&amp;igshid=1wktp8l2kal6p</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1W0MAlPX0xpmuTXbydnWYJ2obsjBOv4QV</t>
+  </si>
+  <si>
     <t>https://docs.google.com/document/d/1WpmxNY5LdQO4z0-y9A6m0RY5eqDjiK6IEj6y3saoDgY/edit</t>
   </si>
   <si>
@@ -1186,6 +1201,9 @@
     <t>https://www.instagram.com/p/BlDLvGfDx9k/?utm_source=ig_share_sheet&amp;igshid=611ot8npkv42&amp;r=wa1</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1MNok4uGM4E4hbneFvja3BdJWve2qZlbN</t>
+  </si>
+  <si>
     <t>https://docs.google.com/document/d/1pje8A2dSwvmradSepwGFpBt769VdlTLJi0jR4cP1fcY/edit</t>
   </si>
   <si>
@@ -1279,6 +1297,9 @@
     <t>https://twitter.com/Josefina_Melo/status/1016857991755288576</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=11ZvVntzIZJElELznTKp8cRvlXKe9aP0S</t>
+  </si>
+  <si>
     <t>https://docs.google.com/spreadsheets/d/1MkyakL3JbZm6K31SOwMZlzVeX3YTwlObNBYsIn-aXQg/edit#gid=0</t>
   </si>
   <si>
@@ -1372,6 +1393,9 @@
     <t>https://twitter.com/YaninaRivero14/status/1015450819171422209?s=03</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1ji_Exck4N4AKrrQh7YSh3mvdG3znwdj3</t>
+  </si>
+  <si>
     <t>https://docs.google.com/document/d/1WF3VPcxVrjMYP84f3RMwz7cKAFiBhPMta_I8yp9KbfI/edit</t>
   </si>
   <si>
@@ -1441,6 +1465,9 @@
     <t>https://www.instagram.com/ees61mdp/</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1LxgFjGo-hDEPkTItp2a9BPLKbkBieh2E</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=s5dzdg9upx4</t>
   </si>
   <si>
@@ -1534,6 +1561,9 @@
     <t>https://www.facebook.com/636382016552512/posts/816576541866391/</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1vS_-oaZcZUniZ6lWWajbJf41prgBy66Q</t>
+  </si>
+  <si>
     <t>https://docs.google.com/document/d/1ob3zlIjJ6ORv0YYKRDFYkA3pjg-_rTBYyBxCzPP7lFY/edit?usp=sharing</t>
   </si>
   <si>
@@ -1591,6 +1621,9 @@
     <t>https://i.imgur.com/OXP75U0.jpg</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1mYKV0TvMrWuaZ8zVaEjh07NQ1hBVcdzt</t>
+  </si>
+  <si>
     <t>https://padlet.com/TICALSINA/CopaTic</t>
   </si>
   <si>
@@ -1633,6 +1666,9 @@
     <t>https://i.imgur.com/Le3fnaq.jpg</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=16Jsr0sF2qsL7vnY---SRcmbv2dWaEoiH</t>
+  </si>
+  <si>
     <t>https://docs.google.com/document/d/1B5UTqbxULx14-vIo8XaZjNcHC1Lp8h_Od9PIhgTCO2k/edit</t>
   </si>
   <si>
@@ -1789,6 +1825,12 @@
     <t>https://docs.google.com/document/d/1rNbKXIqtJzkTvc0dFlvhDTWXvFAHZ3E0MFxy9vpSyT8/edit</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=14xVf_eygKhFaxkdwlLocrrpOIFlIv0df</t>
+  </si>
+  <si>
+    <t>https://cdn.knightlab.com/libs/timeline3/latest/embed/index.html?source=1J8ANHj3kueYibW7C3Y_lld2IJYYH-wAPJvHRyDNx54k&amp;font=Default&amp;lang=en&amp;initial_zoom=2&amp;height=650</t>
+  </si>
+  <si>
     <t>b20</t>
   </si>
   <si>
@@ -1972,6 +2014,9 @@
     <t>https://www.instagram.com/p/BlBQtoYHbHg/?taken-by=escuela.19</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=146tMmMB-YB2K7TXygAHKGIIUYjj0bj5_</t>
+  </si>
+  <si>
     <t>https://docs.google.com/spreadsheets/d/1YwM7AmCP3F3B3awVEknJaNsFaRb1mb539Hq0P1_BxEk/edit</t>
   </si>
   <si>
@@ -2080,6 +2125,9 @@
     <t>https://soundcloud.com/alina-gallo-372924026/ritmo-musical-ensna</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1d-0JaSeQyI9_P53KXKHI-_SDm1lGS08F</t>
+  </si>
+  <si>
     <t>https://docs.google.com/document/d/1RX48rzYnny0tW5nYof7NF81mELSiyEtafI8RsPatnWw/edit</t>
   </si>
   <si>
@@ -2278,6 +2326,9 @@
     <t>https://twitter.com/edusandez1</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1od__hsgRdmsVy4VDG2CSas9O5e_R6AKE</t>
+  </si>
+  <si>
     <t>https://prezi.com/2ctow5765foz/1/?utm_campaign=share&amp;utm_medium=copy</t>
   </si>
   <si>
@@ -2356,6 +2407,9 @@
     <t>https://www.instagram.com/p/BlEr_nfB1vi/?utm_source=ig_share_sheet&amp;igshid=1qoozcwtnh106</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1D3u7kfEO3yAkT9-aFD_z399EwAad22GZ</t>
+  </si>
+  <si>
     <t>https://drive.google.com/drive/folders/1-4MSAbTisDpXKrILm05nmekVO3I1Ig-I?usp=sharing</t>
   </si>
   <si>
@@ -2410,6 +2464,9 @@
     <t>https://i.imgur.com/bKZSX7R.jpg</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1YCtJ2nLg3qrkXcQDCdxAK5qOw5v1NSat</t>
+  </si>
+  <si>
     <t>https://docs.google.com/document/d/12VmPZlEsw3TlStf-iDwmEPPgByvujbrWG1vwckc6uFk/edit</t>
   </si>
   <si>
@@ -2459,6 +2516,9 @@
   </si>
   <si>
     <t>https://www.instagram.com/p/Bk5_yfcAsgE/?utm_source=ig_web_share</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1TVejCs9MbeCFZ4QF_09HqhT1m7OXj3WC</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=cAPZ8xtoJyA</t>
@@ -3126,12 +3186,14 @@
       <c r="AG4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AH4" s="8"/>
+      <c r="AH4" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="AI4" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK4" s="7" t="b">
         <v>1</v>
@@ -3141,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="AN4" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -3152,10 +3214,10 @@
         <v>6.08846E7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>42</v>
@@ -3240,10 +3302,10 @@
         <v>6.08977E7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>42</v>
@@ -3328,10 +3390,10 @@
         <v>6.17713E7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>42</v>
@@ -3340,7 +3402,7 @@
         <v>43</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H7" s="4">
         <v>0.0</v>
@@ -3418,10 +3480,10 @@
         <v>6.17729E7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>42</v>
@@ -3506,19 +3568,19 @@
         <v>6.18589E7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" s="4">
         <v>45.0</v>
@@ -3527,13 +3589,13 @@
         <v>1</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M9" s="7" t="b">
         <v>1</v>
@@ -3543,19 +3605,19 @@
         <v>1</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U9" s="7" t="b">
         <v>1</v>
@@ -3565,31 +3627,31 @@
         <v>1</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z9" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB9" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD9" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF9" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG9" s="7" t="b">
         <v>0</v>
@@ -3616,10 +3678,10 @@
         <v>6.1898E7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>42</v>
@@ -3704,19 +3766,19 @@
         <v>6.10971E7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H11" s="4">
         <v>60.0</v>
@@ -3725,95 +3787,97 @@
         <v>1</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="W11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z11" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB11" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD11" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF11" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG11" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AH11" s="8"/>
+      <c r="AH11" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="AI11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AK11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AL11" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AM11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AN11" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
@@ -3824,19 +3888,19 @@
         <v>6.07662E7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H12" s="4">
         <v>60.0</v>
@@ -3845,89 +3909,91 @@
         <v>1</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="S12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="U12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="W12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z12" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AA12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB12" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AC12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD12" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AE12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF12" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AG12" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AH12" s="8"/>
+      <c r="AH12" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="AI12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AJ12" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AK12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AL12" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AM12" s="7" t="b">
         <v>1</v>
@@ -3942,19 +4008,19 @@
         <v>6.10399E7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H13" s="4">
         <v>29.0</v>
@@ -3967,43 +4033,43 @@
         <v>1</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O13" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="S13" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="U13" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="W13" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Y13" s="7" t="b">
         <v>0</v>
@@ -4046,19 +4112,19 @@
         <v>6.09171E7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H14" s="4">
         <v>3.0</v>
@@ -4099,7 +4165,7 @@
         <v>1</v>
       </c>
       <c r="Z14" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AA14" s="7" t="b">
         <v>0</v>
@@ -4138,13 +4204,13 @@
         <v>6.07653E7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>43</v>
@@ -4226,13 +4292,13 @@
         <v>6.17242E7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>43</v>
@@ -4314,13 +4380,13 @@
         <v>6.1757E7</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>43</v>
@@ -4402,13 +4468,13 @@
         <v>6.18945E7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>43</v>
@@ -4490,19 +4556,19 @@
         <v>6.18947E7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H19" s="4">
         <v>0.0</v>
@@ -4580,19 +4646,19 @@
         <v>6.18972E7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H20" s="4">
         <v>32.0</v>
@@ -4601,25 +4667,25 @@
         <v>1</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K20" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M20" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O20" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q20" s="7" t="b">
         <v>0</v>
@@ -4629,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="U20" s="7" t="b">
         <v>0</v>
@@ -4639,13 +4705,13 @@
         <v>1</v>
       </c>
       <c r="X20" s="9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Y20" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z20" s="9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AA20" s="7" t="b">
         <v>0</v>
@@ -4655,13 +4721,13 @@
         <v>1</v>
       </c>
       <c r="AD20" s="10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AE20" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF20" s="10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AG20" s="7" t="b">
         <v>0</v>
@@ -4688,13 +4754,13 @@
         <v>6.19822E7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>43</v>
@@ -4776,13 +4842,13 @@
         <v>6.12125E7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>43</v>
@@ -4864,13 +4930,13 @@
         <v>6.12126E7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>43</v>
@@ -4952,13 +5018,13 @@
         <v>6.12271E7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>43</v>
@@ -5040,13 +5106,13 @@
         <v>6.12282E7</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>43</v>
@@ -5128,19 +5194,19 @@
         <v>6.12304E7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H26" s="4">
         <v>40.0</v>
@@ -5153,49 +5219,49 @@
         <v>1</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="S26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="U26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V26" s="9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="W26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X26" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Y26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z26" s="9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AA26" s="7" t="b">
         <v>0</v>
@@ -5205,13 +5271,13 @@
         <v>1</v>
       </c>
       <c r="AD26" s="10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AE26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF26" s="10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AG26" s="7" t="b">
         <v>0</v>
@@ -5238,19 +5304,19 @@
         <v>6.07819E7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H27" s="4">
         <v>0.0</v>
@@ -5328,19 +5394,19 @@
         <v>6.10973E7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="F28" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H28" s="4">
         <v>56.0</v>
@@ -5353,67 +5419,67 @@
         <v>1</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="S28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="U28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V28" s="9" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="W28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X28" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Y28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z28" s="9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AA28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB28" s="9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AC28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD28" s="10" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AE28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF28" s="10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AG28" s="7" t="b">
         <v>0</v>
@@ -5423,19 +5489,19 @@
         <v>1</v>
       </c>
       <c r="AJ28" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AK28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AL28" s="9" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AM28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AN28" s="9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29">
@@ -5446,13 +5512,13 @@
         <v>6.18292E7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>43</v>
@@ -5534,13 +5600,13 @@
         <v>6.18294E7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>43</v>
@@ -5622,13 +5688,13 @@
         <v>6.1901E7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>43</v>
@@ -5710,19 +5776,19 @@
         <v>6.20401E7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H32" s="4">
         <v>35.0</v>
@@ -5731,19 +5797,19 @@
         <v>1</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O32" s="7" t="b">
         <v>0</v>
@@ -5753,13 +5819,13 @@
         <v>1</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="S32" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T32" s="9" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="U32" s="7" t="b">
         <v>0</v>
@@ -5769,13 +5835,13 @@
         <v>1</v>
       </c>
       <c r="X32" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Y32" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z32" s="9" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AA32" s="7" t="b">
         <v>0</v>
@@ -5785,13 +5851,13 @@
         <v>1</v>
       </c>
       <c r="AD32" s="10" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AE32" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF32" s="10" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AG32" s="7" t="b">
         <v>0</v>
@@ -5805,7 +5871,7 @@
         <v>1</v>
       </c>
       <c r="AL32" s="9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AM32" s="7" t="b">
         <v>0</v>
@@ -5820,19 +5886,19 @@
         <v>6.07507E7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H33" s="4">
         <v>3.0</v>
@@ -5845,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M33" s="7" t="b">
         <v>0</v>
@@ -5912,13 +5978,13 @@
         <v>6.07895E7</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>43</v>
@@ -6000,19 +6066,19 @@
         <v>6.00452E7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H35" s="4">
         <v>0.0</v>
@@ -6090,19 +6156,19 @@
         <v>6.07469E7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H36" s="4">
         <v>19.0</v>
@@ -6115,19 +6181,19 @@
         <v>1</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M36" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O36" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q36" s="7" t="b">
         <v>0</v>
@@ -6141,7 +6207,7 @@
         <v>1</v>
       </c>
       <c r="V36" s="9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="W36" s="7" t="b">
         <v>0</v>
@@ -6188,19 +6254,19 @@
         <v>6.0747E7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H37" s="4">
         <v>0.0</v>
@@ -6278,19 +6344,19 @@
         <v>6.11554E7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H38" s="4">
         <v>0.0</v>
@@ -6368,19 +6434,19 @@
         <v>6.17939E7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H39" s="4">
         <v>0.0</v>
@@ -6458,19 +6524,19 @@
         <v>6.05546E7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H40" s="4">
         <v>34.0</v>
@@ -6483,7 +6549,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M40" s="7" t="b">
         <v>0</v>
@@ -6497,13 +6563,13 @@
         <v>1</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="S40" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T40" s="9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="U40" s="7" t="b">
         <v>1</v>
@@ -6513,19 +6579,19 @@
         <v>1</v>
       </c>
       <c r="X40" s="9" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Y40" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z40" s="9" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AA40" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB40" s="9" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AC40" s="7" t="b">
         <v>1</v>
@@ -6560,19 +6626,19 @@
         <v>6.09278E7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H41" s="4">
         <v>0.0</v>
@@ -6650,13 +6716,13 @@
         <v>6.17596E7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>43</v>
@@ -6738,19 +6804,19 @@
         <v>6.18186E7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H43" s="4">
         <v>0.0</v>
@@ -6828,19 +6894,19 @@
         <v>6.18964E7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H44" s="4">
         <v>53.0</v>
@@ -6849,19 +6915,19 @@
         <v>1</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K44" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M44" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O44" s="7" t="b">
         <v>1</v>
@@ -6871,37 +6937,37 @@
         <v>1</v>
       </c>
       <c r="R44" s="9" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="S44" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T44" s="9" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="U44" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V44" s="9" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="W44" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X44" s="9" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Y44" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z44" s="9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AA44" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB44" s="9" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AC44" s="7" t="b">
         <v>1</v>
@@ -6911,12 +6977,14 @@
         <v>1</v>
       </c>
       <c r="AF44" s="10" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AG44" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AH44" s="8"/>
+      <c r="AH44" s="9" t="s">
+        <v>295</v>
+      </c>
       <c r="AI44" s="7" t="b">
         <v>0</v>
       </c>
@@ -6925,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="AL44" s="9" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AM44" s="7" t="b">
         <v>0</v>
@@ -6940,19 +7008,19 @@
         <v>6.11816E7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H45" s="4">
         <v>0.0</v>
@@ -7030,19 +7098,19 @@
         <v>6.17994E7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H46" s="4">
         <v>0.0</v>
@@ -7120,19 +7188,19 @@
         <v>6.1743E7</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H47" s="4">
         <v>11.0</v>
@@ -7149,7 +7217,7 @@
         <v>1</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="O47" s="7" t="b">
         <v>0</v>
@@ -7163,7 +7231,7 @@
         <v>1</v>
       </c>
       <c r="T47" s="9" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="U47" s="7" t="b">
         <v>0</v>
@@ -7214,19 +7282,19 @@
         <v>6.18899E7</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H48" s="4">
         <v>0.0</v>
@@ -7304,13 +7372,13 @@
         <v>6.17639E7</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>43</v>
@@ -7392,19 +7460,19 @@
         <v>6.20268E7</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H50" s="4">
         <v>29.0</v>
@@ -7413,49 +7481,49 @@
         <v>1</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K50" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M50" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="O50" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P50" s="9" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q50" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R50" s="9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="S50" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T50" s="9" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="U50" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V50" s="9" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="W50" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X50" s="9" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Y50" s="7" t="b">
         <v>0</v>
@@ -7498,13 +7566,13 @@
         <v>6.19806E7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>43</v>
@@ -7586,19 +7654,19 @@
         <v>6.07754E7</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H52" s="4">
         <v>60.0</v>
@@ -7607,31 +7675,31 @@
         <v>1</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P52" s="9" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R52" s="9" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="S52" s="7" t="b">
         <v>1</v>
@@ -7641,59 +7709,61 @@
         <v>1</v>
       </c>
       <c r="V52" s="9" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="W52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X52" s="9" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Y52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z52" s="9" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AA52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB52" s="9" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AC52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD52" s="10" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AE52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF52" s="10" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AG52" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AH52" s="8"/>
+      <c r="AH52" s="9" t="s">
+        <v>344</v>
+      </c>
       <c r="AI52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AJ52" s="9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="AK52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AL52" s="9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AM52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AN52" s="9" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53">
@@ -7704,19 +7774,19 @@
         <v>6.1886101E7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="H53" s="4">
         <v>0.0</v>
@@ -7794,19 +7864,19 @@
         <v>6.19702E7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H54" s="4">
         <v>32.0</v>
@@ -7815,37 +7885,37 @@
         <v>1</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="K54" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="M54" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="O54" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q54" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R54" s="13" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="S54" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T54" s="9" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="U54" s="7" t="b">
         <v>0</v>
@@ -7859,7 +7929,7 @@
         <v>1</v>
       </c>
       <c r="Z54" s="9" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AA54" s="7" t="b">
         <v>0</v>
@@ -7869,13 +7939,13 @@
         <v>1</v>
       </c>
       <c r="AD54" s="10" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="AE54" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF54" s="10" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="AG54" s="7" t="b">
         <v>0</v>
@@ -7902,19 +7972,19 @@
         <v>6.1062E7</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H55" s="4">
         <v>0.0</v>
@@ -7992,19 +8062,19 @@
         <v>6.11971E7</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="H56" s="4">
         <v>3.0</v>
@@ -8041,7 +8111,7 @@
         <v>1</v>
       </c>
       <c r="X56" s="9" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Y56" s="7" t="b">
         <v>0</v>
@@ -8084,13 +8154,13 @@
         <v>6.07142E7</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>43</v>
@@ -8172,13 +8242,13 @@
         <v>6.18841E7</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>43</v>
@@ -8260,13 +8330,13 @@
         <v>6.22913E7</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>43</v>
@@ -8348,13 +8418,13 @@
         <v>6.18917E7</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>43</v>
@@ -8436,19 +8506,19 @@
         <v>6.17949E7</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H61" s="4">
         <v>60.0</v>
@@ -8461,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="M61" s="7" t="b">
         <v>1</v>
@@ -8471,77 +8541,79 @@
         <v>1</v>
       </c>
       <c r="P61" s="9" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Q61" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R61" s="9" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="S61" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T61" s="9" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="U61" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V61" s="9" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="W61" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X61" s="9" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Y61" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z61" s="9" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="AA61" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB61" s="9" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="AC61" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD61" s="10" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="AE61" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF61" s="10" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="AG61" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AH61" s="8"/>
+      <c r="AH61" s="9" t="s">
+        <v>396</v>
+      </c>
       <c r="AI61" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AJ61" s="9" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="AK61" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AL61" s="9" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="AM61" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AN61" s="9" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62">
@@ -8552,19 +8624,19 @@
         <v>6.18136E7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H62" s="4">
         <v>25.0</v>
@@ -8573,25 +8645,25 @@
         <v>1</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="K62" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="M62" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N62" s="9" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="O62" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P62" s="9" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="Q62" s="7" t="b">
         <v>0</v>
@@ -8605,19 +8677,19 @@
         <v>1</v>
       </c>
       <c r="V62" s="9" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="W62" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X62" s="9" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="Y62" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z62" s="9" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AA62" s="7" t="b">
         <v>0</v>
@@ -8656,13 +8728,13 @@
         <v>6.18636E7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>43</v>
@@ -8744,19 +8816,19 @@
         <v>6.20248E7</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="H64" s="4">
         <v>48.0</v>
@@ -8765,55 +8837,55 @@
         <v>1</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N64" s="9" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="O64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P64" s="9" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R64" s="9" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="S64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T64" s="9" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="U64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V64" s="9" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="W64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X64" s="9" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="Y64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z64" s="9" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="AA64" s="7" t="b">
         <v>0</v>
@@ -8827,12 +8899,14 @@
         <v>1</v>
       </c>
       <c r="AF64" s="10" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="AG64" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AH64" s="8"/>
+      <c r="AH64" s="9" t="s">
+        <v>428</v>
+      </c>
       <c r="AI64" s="7" t="b">
         <v>0</v>
       </c>
@@ -8841,13 +8915,13 @@
         <v>1</v>
       </c>
       <c r="AL64" s="9" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="AM64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AN64" s="9" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="65">
@@ -8858,19 +8932,19 @@
         <v>6.07387E7</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="H65" s="4">
         <v>39.0</v>
@@ -8883,37 +8957,37 @@
         <v>1</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="M65" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N65" s="9" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="O65" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P65" s="9" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="Q65" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R65" s="9" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="S65" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T65" s="9" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="U65" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V65" s="9" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="W65" s="7" t="b">
         <v>0</v>
@@ -8927,7 +9001,7 @@
         <v>1</v>
       </c>
       <c r="AB65" s="9" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="AC65" s="7" t="b">
         <v>0</v>
@@ -8937,7 +9011,7 @@
         <v>1</v>
       </c>
       <c r="AF65" s="10" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="AG65" s="7" t="b">
         <v>0</v>
@@ -8951,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="AL65" s="9" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="AM65" s="7" t="b">
         <v>0</v>
@@ -8966,19 +9040,19 @@
         <v>6.1986E7</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="H66" s="4">
         <v>56.0</v>
@@ -8987,95 +9061,97 @@
         <v>1</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="K66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="M66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="O66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P66" s="9" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="Q66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R66" s="9" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="S66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T66" s="9" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="U66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V66" s="9" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="W66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X66" s="9" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="Y66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z66" s="9" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="AA66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB66" s="9" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="AC66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD66" s="10" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="AE66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF66" s="10" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="AG66" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH66" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AH66" s="9" t="s">
+        <v>460</v>
+      </c>
       <c r="AI66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AJ66" s="9" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="AK66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AL66" s="9" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="AM66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AN66" s="9" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67">
@@ -9086,16 +9162,16 @@
         <v>6.22418E7</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4">
@@ -9170,19 +9246,19 @@
         <v>6.17422E7</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="H68" s="4">
         <v>56.0</v>
@@ -9191,19 +9267,19 @@
         <v>1</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="K68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="M68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N68" s="9" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="O68" s="7" t="b">
         <v>0</v>
@@ -9213,71 +9289,73 @@
         <v>1</v>
       </c>
       <c r="R68" s="9" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="S68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T68" s="9" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="U68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V68" s="9" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="W68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X68" s="9" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="Y68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z68" s="9" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="AA68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB68" s="9" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="AC68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD68" s="10" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="AE68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF68" s="10" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="AG68" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AH68" s="8"/>
+      <c r="AH68" s="9" t="s">
+        <v>484</v>
+      </c>
       <c r="AI68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AJ68" s="9" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="AK68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AL68" s="9" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="AM68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AN68" s="9" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
     </row>
     <row r="69">
@@ -9288,19 +9366,19 @@
         <v>6.0677E7</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="H69" s="4">
         <v>30.0</v>
@@ -9309,7 +9387,7 @@
         <v>1</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="K69" s="7" t="b">
         <v>0</v>
@@ -9327,31 +9405,31 @@
         <v>1</v>
       </c>
       <c r="R69" s="9" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="S69" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T69" s="9" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="U69" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V69" s="9" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="W69" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X69" s="9" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="Y69" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z69" s="9" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="AA69" s="7" t="b">
         <v>0</v>
@@ -9361,13 +9439,13 @@
         <v>1</v>
       </c>
       <c r="AD69" s="10" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="AE69" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF69" s="10" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="AG69" s="7" t="b">
         <v>0</v>
@@ -9394,19 +9472,19 @@
         <v>6.05979E7</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="H70" s="4">
         <v>60.0</v>
@@ -9415,95 +9493,97 @@
         <v>1</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="K70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="M70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="O70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P70" s="9" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="Q70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R70" s="9" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="S70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T70" s="9" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="U70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V70" s="9" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="W70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X70" s="9" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="Y70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z70" s="9" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="AA70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB70" s="9" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="AC70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD70" s="10" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="AE70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF70" s="10" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="AG70" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AH70" s="8"/>
+      <c r="AH70" s="9" t="s">
+        <v>516</v>
+      </c>
       <c r="AI70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AJ70" s="9" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="AK70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AL70" s="9" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="AM70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AN70" s="9" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
     </row>
     <row r="71">
@@ -9514,19 +9594,19 @@
         <v>6.20475E7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="H71" s="4">
         <v>60.0</v>
@@ -9535,95 +9615,97 @@
         <v>1</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="K71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="M71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="O71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P71" s="9" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="Q71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R71" s="9" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="S71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T71" s="9" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="U71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V71" s="9" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="W71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X71" s="9" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="Y71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z71" s="9" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="AA71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB71" s="9" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="AC71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD71" s="10" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="AE71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF71" s="10" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="AG71" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AH71" s="8"/>
+      <c r="AH71" s="9" t="s">
+        <v>536</v>
+      </c>
       <c r="AI71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AJ71" s="9" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="AK71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AL71" s="9" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="AM71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AN71" s="9" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72">
@@ -9634,19 +9716,19 @@
         <v>6.22495E7</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="H72" s="4">
         <v>42.0</v>
@@ -9659,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="M72" s="7" t="b">
         <v>0</v>
@@ -9669,7 +9751,7 @@
         <v>1</v>
       </c>
       <c r="P72" s="9" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="Q72" s="7" t="b">
         <v>0</v>
@@ -9691,47 +9773,49 @@
         <v>1</v>
       </c>
       <c r="Z72" s="9" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="AA72" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB72" s="9" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="AC72" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD72" s="10" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="AE72" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF72" s="10" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="AG72" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AH72" s="8"/>
+      <c r="AH72" s="9" t="s">
+        <v>551</v>
+      </c>
       <c r="AI72" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AJ72" s="9" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="AK72" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AL72" s="9" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="AM72" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AN72" s="9" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="73">
@@ -9742,7 +9826,7 @@
         <v>6.06231E7</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>41</v>
@@ -9751,7 +9835,7 @@
         <v>42</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="4">
@@ -9830,7 +9914,7 @@
         <v>6.06261E7</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>50</v>
@@ -9839,10 +9923,10 @@
         <v>42</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="H74" s="4">
         <v>0.0</v>
@@ -9920,7 +10004,7 @@
         <v>6.08821E7</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>53</v>
@@ -9929,7 +10013,7 @@
         <v>42</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="4">
@@ -10008,16 +10092,16 @@
         <v>6.08846E7</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="4">
@@ -10096,16 +10180,16 @@
         <v>6.08977E7</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="4">
@@ -10184,16 +10268,16 @@
         <v>6.17713E7</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G78" s="8"/>
       <c r="H78" s="4">
@@ -10272,16 +10356,16 @@
         <v>6.17729E7</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="4">
@@ -10360,19 +10444,19 @@
         <v>6.18589E7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="H80" s="4">
         <v>0.0</v>
@@ -10450,16 +10534,16 @@
         <v>6.1898E7</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G81" s="8"/>
       <c r="H81" s="4">
@@ -10538,19 +10622,19 @@
         <v>6.10971E7</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="H82" s="4">
         <v>43.0</v>
@@ -10563,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="M82" s="7" t="b">
         <v>0</v>
@@ -10573,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="P82" s="9" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="Q82" s="7" t="b">
         <v>0</v>
@@ -10587,25 +10671,25 @@
         <v>1</v>
       </c>
       <c r="V82" s="9" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="W82" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X82" s="9" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="Y82" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z82" s="9" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="AA82" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB82" s="9" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="AC82" s="7" t="b">
         <v>0</v>
@@ -10615,7 +10699,7 @@
         <v>1</v>
       </c>
       <c r="AF82" s="10" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="AG82" s="7" t="b">
         <v>1</v>
@@ -10629,13 +10713,13 @@
         <v>1</v>
       </c>
       <c r="AL82" s="9" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AM82" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AN82" s="9" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="83">
@@ -10646,19 +10730,19 @@
         <v>6.07662E7</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="H83" s="4">
         <v>0.0</v>
@@ -10736,19 +10820,19 @@
         <v>6.10399E7</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="H84" s="4">
         <v>0.0</v>
@@ -10826,19 +10910,19 @@
         <v>6.09171E7</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H85" s="4">
         <v>0.0</v>
@@ -10916,16 +11000,16 @@
         <v>6.07653E7</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="4">
@@ -11004,16 +11088,16 @@
         <v>6.17242E7</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="4">
@@ -11092,16 +11176,16 @@
         <v>6.1757E7</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="4">
@@ -11180,16 +11264,16 @@
         <v>6.18945E7</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="4">
@@ -11268,19 +11352,19 @@
         <v>6.18947E7</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="H90" s="4">
         <v>0.0</v>
@@ -11358,19 +11442,19 @@
         <v>6.18972E7</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="H91" s="4">
         <v>45.0</v>
@@ -11379,78 +11463,80 @@
         <v>1</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="K91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L91" s="9" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="M91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N91" s="9" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="O91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P91" s="9" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="Q91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R91" s="9" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="S91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T91" s="9" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="U91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V91" s="9" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="W91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X91" s="9" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="Y91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z91" s="9" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="AA91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB91" s="9" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="AC91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD91" s="10" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="AE91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF91" s="10" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="AG91" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AH91" s="8"/>
+      <c r="AH91" s="9" t="s">
+        <v>604</v>
+      </c>
       <c r="AI91" s="7" t="b">
         <v>1</v>
       </c>
@@ -11462,7 +11548,9 @@
       <c r="AM91" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AN91" s="8"/>
+      <c r="AN91" s="9" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="4">
@@ -11472,16 +11560,16 @@
         <v>6.19822E7</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G92" s="8"/>
       <c r="H92" s="4">
@@ -11560,16 +11648,16 @@
         <v>6.12125E7</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G93" s="8"/>
       <c r="H93" s="4">
@@ -11648,16 +11736,16 @@
         <v>6.12126E7</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="4">
@@ -11736,16 +11824,16 @@
         <v>6.12271E7</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="4">
@@ -11824,16 +11912,16 @@
         <v>6.12282E7</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="4">
@@ -11912,19 +12000,19 @@
         <v>6.12304E7</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H97" s="4">
         <v>0.0</v>
@@ -12002,19 +12090,19 @@
         <v>6.07819E7</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H98" s="4">
         <v>0.0</v>
@@ -12092,19 +12180,19 @@
         <v>6.10973E7</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E99" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E99" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="F99" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H99" s="4">
         <v>0.0</v>
@@ -12182,16 +12270,16 @@
         <v>6.18292E7</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="4">
@@ -12270,16 +12358,16 @@
         <v>6.18294E7</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="4">
@@ -12358,16 +12446,16 @@
         <v>6.1901E7</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="4">
@@ -12446,19 +12534,19 @@
         <v>6.20401E7</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="H103" s="4">
         <v>38.0</v>
@@ -12467,25 +12555,25 @@
         <v>1</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="K103" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="M103" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N103" s="9" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="O103" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P103" s="9" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="Q103" s="7" t="b">
         <v>0</v>
@@ -12495,19 +12583,19 @@
         <v>1</v>
       </c>
       <c r="T103" s="9" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="U103" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V103" s="9" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="W103" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X103" s="9" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="Y103" s="7" t="b">
         <v>0</v>
@@ -12517,13 +12605,13 @@
         <v>1</v>
       </c>
       <c r="AB103" s="9" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="AC103" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD103" s="10" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="AE103" s="7" t="b">
         <v>0</v>
@@ -12537,7 +12625,7 @@
         <v>1</v>
       </c>
       <c r="AJ103" s="9" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="AK103" s="7" t="b">
         <v>0</v>
@@ -12556,19 +12644,19 @@
         <v>6.07507E7</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="H104" s="4">
         <v>0.0</v>
@@ -12646,16 +12734,16 @@
         <v>6.07895E7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="4">
@@ -12734,19 +12822,19 @@
         <v>6.00452E7</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H106" s="4">
         <v>0.0</v>
@@ -12824,19 +12912,19 @@
         <v>6.07469E7</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="H107" s="4">
         <v>0.0</v>
@@ -12914,19 +13002,19 @@
         <v>6.0747E7</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H108" s="4">
         <v>0.0</v>
@@ -13004,19 +13092,19 @@
         <v>6.11554E7</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="H109" s="4">
         <v>0.0</v>
@@ -13094,19 +13182,19 @@
         <v>6.17939E7</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="H110" s="4">
         <v>0.0</v>
@@ -13184,19 +13272,19 @@
         <v>6.05546E7</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="H111" s="4">
         <v>52.0</v>
@@ -13209,7 +13297,7 @@
         <v>1</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M111" s="7" t="b">
         <v>1</v>
@@ -13223,13 +13311,13 @@
         <v>1</v>
       </c>
       <c r="R111" s="9" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="S111" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T111" s="9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="U111" s="7" t="b">
         <v>1</v>
@@ -13239,19 +13327,19 @@
         <v>1</v>
       </c>
       <c r="X111" s="9" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Y111" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z111" s="9" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AA111" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB111" s="9" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AC111" s="7" t="b">
         <v>1</v>
@@ -13269,19 +13357,19 @@
         <v>1</v>
       </c>
       <c r="AJ111" s="9" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="AK111" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AL111" s="9" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="AM111" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AN111" s="9" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
     </row>
     <row r="112">
@@ -13292,16 +13380,16 @@
         <v>6.09278E7</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="7">
@@ -13380,19 +13468,19 @@
         <v>6.17596E7</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="H113" s="4">
         <v>0.0</v>
@@ -13470,19 +13558,19 @@
         <v>6.18186E7</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="H114" s="4">
         <v>22.0</v>
@@ -13491,25 +13579,25 @@
         <v>1</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="K114" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="M114" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N114" s="9" t="s">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="O114" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P114" s="9" t="s">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="Q114" s="7" t="b">
         <v>0</v>
@@ -13568,19 +13656,19 @@
         <v>6.18964E7</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="H115" s="4">
         <v>48.0</v>
@@ -13589,25 +13677,25 @@
         <v>1</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="K115" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="M115" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N115" s="9" t="s">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="O115" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P115" s="9" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="Q115" s="7" t="b">
         <v>1</v>
@@ -13617,7 +13705,7 @@
         <v>1</v>
       </c>
       <c r="T115" s="9" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="U115" s="7" t="b">
         <v>0</v>
@@ -13627,36 +13715,38 @@
         <v>1</v>
       </c>
       <c r="X115" s="9" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="Y115" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z115" s="9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AA115" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB115" s="9" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="AC115" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD115" s="10" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="AE115" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF115" s="10" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="AG115" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AH115" s="8"/>
+      <c r="AH115" s="9" t="s">
+        <v>667</v>
+      </c>
       <c r="AI115" s="7" t="b">
         <v>0</v>
       </c>
@@ -13665,7 +13755,7 @@
         <v>1</v>
       </c>
       <c r="AL115" s="9" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="AM115" s="7" t="b">
         <v>0</v>
@@ -13680,19 +13770,19 @@
         <v>6.11816E7</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H116" s="4">
         <v>0.0</v>
@@ -13770,16 +13860,16 @@
         <v>6.17994E7</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G117" s="8"/>
       <c r="H117" s="4">
@@ -13858,19 +13948,19 @@
         <v>6.1743E7</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="H118" s="4">
         <v>30.0</v>
@@ -13883,19 +13973,19 @@
         <v>1</v>
       </c>
       <c r="L118" s="9" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="M118" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N118" s="9" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="O118" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P118" s="9" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="Q118" s="7" t="b">
         <v>0</v>
@@ -13909,25 +13999,25 @@
         <v>1</v>
       </c>
       <c r="V118" s="9" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="W118" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X118" s="9" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="Y118" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z118" s="9" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="AA118" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB118" s="9" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="AC118" s="7" t="b">
         <v>0</v>
@@ -13937,7 +14027,7 @@
         <v>1</v>
       </c>
       <c r="AF118" s="10" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="AG118" s="7" t="b">
         <v>0</v>
@@ -13964,19 +14054,19 @@
         <v>6.18899E7</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="H119" s="4">
         <v>0.0</v>
@@ -14054,19 +14144,19 @@
         <v>6.17639E7</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="H120" s="4">
         <v>10.0</v>
@@ -14075,19 +14165,19 @@
         <v>1</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="K120" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L120" s="9" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="M120" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N120" s="9" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
       <c r="O120" s="7" t="b">
         <v>0</v>
@@ -14150,19 +14240,19 @@
         <v>6.20268E7</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H121" s="4">
         <v>0.0</v>
@@ -14240,16 +14330,16 @@
         <v>6.19806E7</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G122" s="8"/>
       <c r="H122" s="4">
@@ -14328,19 +14418,19 @@
         <v>6.07754E7</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="H123" s="4">
         <v>56.0</v>
@@ -14349,67 +14439,67 @@
         <v>1</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="K123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L123" s="9" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="M123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N123" s="9" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="O123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P123" s="9" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
       <c r="Q123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R123" s="9" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="S123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T123" s="9" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="U123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V123" s="9" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="W123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X123" s="9" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="Y123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z123" s="9" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="AA123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB123" s="9" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="AC123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD123" s="10" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AE123" s="7" t="b">
         <v>0</v>
@@ -14418,24 +14508,26 @@
       <c r="AG123" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AH123" s="8"/>
+      <c r="AH123" s="9" t="s">
+        <v>704</v>
+      </c>
       <c r="AI123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AJ123" s="9" t="s">
-        <v>689</v>
+        <v>705</v>
       </c>
       <c r="AK123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AL123" s="9" t="s">
-        <v>690</v>
+        <v>706</v>
       </c>
       <c r="AM123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AN123" s="9" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
     </row>
     <row r="124">
@@ -14446,16 +14538,16 @@
         <v>6.1886101E7</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>692</v>
+        <v>708</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="4">
@@ -14534,19 +14626,19 @@
         <v>6.19702E7</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>693</v>
+        <v>709</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H125" s="4">
         <v>0.0</v>
@@ -14624,19 +14716,19 @@
         <v>6.1062E7</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="H126" s="4">
         <v>0.0</v>
@@ -14714,19 +14806,19 @@
         <v>6.11971E7</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="H127" s="4">
         <v>10.0</v>
@@ -14739,13 +14831,13 @@
         <v>1</v>
       </c>
       <c r="L127" s="9" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="M127" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N127" s="9" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="O127" s="7" t="b">
         <v>0</v>
@@ -14808,19 +14900,19 @@
         <v>6.07142E7</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
       <c r="H128" s="4">
         <v>60.0</v>
@@ -14829,97 +14921,97 @@
         <v>1</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="K128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L128" s="9" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="M128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N128" s="9" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="O128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P128" s="13" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="Q128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R128" s="9" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="S128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T128" s="9" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="U128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V128" s="9" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
       <c r="W128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X128" s="9" t="s">
-        <v>711</v>
+        <v>727</v>
       </c>
       <c r="Y128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z128" s="9" t="s">
-        <v>712</v>
+        <v>728</v>
       </c>
       <c r="AA128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB128" s="9" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="AC128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD128" s="10" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
       <c r="AE128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF128" s="10" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="AG128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AH128" s="9" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
       <c r="AI128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AJ128" s="9" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="AK128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AL128" s="9" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="AM128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AN128" s="9" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
     </row>
     <row r="129">
@@ -14930,19 +15022,19 @@
         <v>6.18841E7</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="H129" s="4">
         <v>25.0</v>
@@ -14955,43 +15047,43 @@
         <v>1</v>
       </c>
       <c r="L129" s="9" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="M129" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N129" s="9" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="O129" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P129" s="9" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="Q129" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R129" s="9" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="S129" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T129" s="9" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="U129" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V129" s="9" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="W129" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X129" s="9" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="Y129" s="7" t="b">
         <v>0</v>
@@ -15034,19 +15126,19 @@
         <v>6.22913E7</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
       <c r="H130" s="4">
         <v>33.0</v>
@@ -15055,7 +15147,7 @@
         <v>1</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="K130" s="7" t="b">
         <v>0</v>
@@ -15065,13 +15157,13 @@
         <v>1</v>
       </c>
       <c r="N130" s="9" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="O130" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P130" s="9" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="Q130" s="7" t="b">
         <v>0</v>
@@ -15081,7 +15173,7 @@
         <v>1</v>
       </c>
       <c r="T130" s="9" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
       <c r="U130" s="7" t="b">
         <v>0</v>
@@ -15095,7 +15187,7 @@
         <v>1</v>
       </c>
       <c r="Z130" s="9" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="AA130" s="7" t="b">
         <v>0</v>
@@ -15105,13 +15197,13 @@
         <v>1</v>
       </c>
       <c r="AD130" s="10" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="AE130" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF130" s="10" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="AG130" s="7" t="b">
         <v>0</v>
@@ -15121,13 +15213,13 @@
         <v>1</v>
       </c>
       <c r="AJ130" s="9" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="AK130" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AL130" s="9" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="AM130" s="7" t="b">
         <v>0</v>
@@ -15142,19 +15234,19 @@
         <v>6.18917E7</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="H131" s="4">
         <v>60.0</v>
@@ -15163,95 +15255,97 @@
         <v>1</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="K131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L131" s="9" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="M131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N131" s="9" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="O131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P131" s="9" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="Q131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R131" s="9" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="S131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T131" s="9" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="U131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V131" s="9" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="W131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X131" s="9" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
       <c r="Y131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z131" s="9" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="AA131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB131" s="9" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="AC131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD131" s="10" t="s">
-        <v>753</v>
+        <v>769</v>
       </c>
       <c r="AE131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF131" s="10" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="AG131" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AH131" s="8"/>
+      <c r="AH131" s="9" t="s">
+        <v>771</v>
+      </c>
       <c r="AI131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AJ131" s="9" t="s">
-        <v>755</v>
+        <v>772</v>
       </c>
       <c r="AK131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AL131" s="9" t="s">
-        <v>756</v>
+        <v>773</v>
       </c>
       <c r="AM131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AN131" s="9" t="s">
-        <v>757</v>
+        <v>774</v>
       </c>
     </row>
     <row r="132">
@@ -15262,19 +15356,19 @@
         <v>6.17949E7</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>758</v>
+        <v>775</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H132" s="4">
         <v>0.0</v>
@@ -15352,19 +15446,19 @@
         <v>6.18136E7</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>759</v>
+        <v>776</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H133" s="4">
         <v>0.0</v>
@@ -15442,19 +15536,19 @@
         <v>6.18636E7</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="H134" s="4">
         <v>0.0</v>
@@ -15532,19 +15626,19 @@
         <v>6.20248E7</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="H135" s="4">
         <v>0.0</v>
@@ -15622,19 +15716,19 @@
         <v>6.07387E7</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>764</v>
+        <v>781</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="H136" s="4">
         <v>0.0</v>
@@ -15712,19 +15806,19 @@
         <v>6.1986E7</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>765</v>
+        <v>782</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="H137" s="4">
         <v>0.0</v>
@@ -15802,19 +15896,19 @@
         <v>6.22418E7</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>766</v>
+        <v>783</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="H138" s="4">
         <v>60.0</v>
@@ -15823,95 +15917,97 @@
         <v>1</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>769</v>
+        <v>786</v>
       </c>
       <c r="K138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L138" s="9" t="s">
-        <v>770</v>
+        <v>787</v>
       </c>
       <c r="M138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N138" s="9" t="s">
-        <v>771</v>
+        <v>788</v>
       </c>
       <c r="O138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P138" s="9" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="Q138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R138" s="9" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="S138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T138" s="9" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
       <c r="U138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V138" s="9" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="W138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X138" s="9" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="Y138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z138" s="9" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="AA138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB138" s="9" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="AC138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD138" s="10" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="AE138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF138" s="10" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
       <c r="AG138" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AH138" s="8"/>
+      <c r="AH138" s="9" t="s">
+        <v>798</v>
+      </c>
       <c r="AI138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AJ138" s="9" t="s">
-        <v>781</v>
+        <v>799</v>
       </c>
       <c r="AK138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AL138" s="9" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
       <c r="AM138" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AN138" s="9" t="s">
-        <v>783</v>
+        <v>801</v>
       </c>
     </row>
     <row r="139">
@@ -15922,19 +16018,19 @@
         <v>6.17422E7</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>784</v>
+        <v>802</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>786</v>
+        <v>804</v>
       </c>
       <c r="H139" s="15">
         <v>60.0</v>
@@ -15943,95 +16039,97 @@
         <v>1</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="K139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L139" s="9" t="s">
-        <v>788</v>
+        <v>806</v>
       </c>
       <c r="M139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N139" s="9" t="s">
-        <v>789</v>
+        <v>807</v>
       </c>
       <c r="O139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P139" s="9" t="s">
-        <v>790</v>
+        <v>808</v>
       </c>
       <c r="Q139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R139" s="9" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
       <c r="S139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T139" s="9" t="s">
-        <v>792</v>
+        <v>810</v>
       </c>
       <c r="U139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V139" s="9" t="s">
-        <v>793</v>
+        <v>811</v>
       </c>
       <c r="W139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X139" s="9" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
       <c r="Y139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z139" s="9" t="s">
-        <v>795</v>
+        <v>813</v>
       </c>
       <c r="AA139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB139" s="9" t="s">
-        <v>796</v>
+        <v>814</v>
       </c>
       <c r="AC139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AD139" s="10" t="s">
-        <v>797</v>
+        <v>815</v>
       </c>
       <c r="AE139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AF139" s="10" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
       <c r="AG139" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AH139" s="8"/>
+      <c r="AH139" s="9" t="s">
+        <v>817</v>
+      </c>
       <c r="AI139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AJ139" s="9" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="AK139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AL139" s="9" t="s">
-        <v>800</v>
+        <v>819</v>
       </c>
       <c r="AM139" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AN139" s="9" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
     </row>
     <row r="140">
@@ -16042,19 +16140,19 @@
         <v>6.0677E7</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>802</v>
+        <v>821</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>803</v>
+        <v>822</v>
       </c>
       <c r="H140" s="4">
         <v>0.0</v>
@@ -16132,19 +16230,19 @@
         <v>6.05979E7</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>804</v>
+        <v>823</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>805</v>
+        <v>824</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>806</v>
+        <v>825</v>
       </c>
       <c r="H141" s="4">
         <v>38.0</v>
@@ -16157,7 +16255,7 @@
         <v>1</v>
       </c>
       <c r="L141" s="9" t="s">
-        <v>807</v>
+        <v>826</v>
       </c>
       <c r="M141" s="7" t="b">
         <v>0</v>
@@ -16167,43 +16265,43 @@
         <v>1</v>
       </c>
       <c r="P141" s="9" t="s">
-        <v>808</v>
+        <v>827</v>
       </c>
       <c r="Q141" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R141" s="9" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
       <c r="S141" s="7" t="b">
         <v>1</v>
       </c>
       <c r="T141" s="9" t="s">
-        <v>810</v>
+        <v>829</v>
       </c>
       <c r="U141" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V141" s="9" t="s">
-        <v>811</v>
+        <v>830</v>
       </c>
       <c r="W141" s="7" t="b">
         <v>1</v>
       </c>
       <c r="X141" s="9" t="s">
-        <v>812</v>
+        <v>831</v>
       </c>
       <c r="Y141" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z141" s="9" t="s">
-        <v>813</v>
+        <v>832</v>
       </c>
       <c r="AA141" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AB141" s="9" t="s">
-        <v>814</v>
+        <v>833</v>
       </c>
       <c r="AC141" s="7" t="b">
         <v>0</v>
@@ -16213,29 +16311,31 @@
         <v>1</v>
       </c>
       <c r="AF141" s="10" t="s">
-        <v>815</v>
+        <v>834</v>
       </c>
       <c r="AG141" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AH141" s="8"/>
+      <c r="AH141" s="9" t="s">
+        <v>835</v>
+      </c>
       <c r="AI141" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AJ141" s="9" t="s">
-        <v>816</v>
+        <v>836</v>
       </c>
       <c r="AK141" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AL141" s="9" t="s">
-        <v>817</v>
+        <v>837</v>
       </c>
       <c r="AM141" s="7" t="b">
         <v>1</v>
       </c>
       <c r="AN141" s="9" t="s">
-        <v>818</v>
+        <v>838</v>
       </c>
     </row>
     <row r="142">
@@ -16246,19 +16346,19 @@
         <v>6.20475E7</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>819</v>
+        <v>839</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="H142" s="4">
         <v>0.0</v>
@@ -16336,19 +16436,19 @@
         <v>6.22495E7</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>821</v>
+        <v>841</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="F143" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="G143" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="H143" s="4">
         <v>0.0</v>
@@ -52431,446 +52531,466 @@
     <hyperlink r:id="rId12" ref="AB4"/>
     <hyperlink r:id="rId13" ref="AD4"/>
     <hyperlink r:id="rId14" ref="AF4"/>
-    <hyperlink r:id="rId15" ref="AJ4"/>
-    <hyperlink r:id="rId16" location="preview-embed" ref="AN4"/>
-    <hyperlink r:id="rId17" ref="J9"/>
-    <hyperlink r:id="rId18" ref="L9"/>
-    <hyperlink r:id="rId19" ref="P9"/>
-    <hyperlink r:id="rId20" ref="R9"/>
-    <hyperlink r:id="rId21" ref="T9"/>
-    <hyperlink r:id="rId22" ref="X9"/>
-    <hyperlink r:id="rId23" ref="Z9"/>
-    <hyperlink r:id="rId24" ref="AB9"/>
-    <hyperlink r:id="rId25" ref="AD9"/>
-    <hyperlink r:id="rId26" ref="AF9"/>
-    <hyperlink r:id="rId27" ref="J11"/>
-    <hyperlink r:id="rId28" ref="L11"/>
-    <hyperlink r:id="rId29" ref="N11"/>
-    <hyperlink r:id="rId30" ref="P11"/>
-    <hyperlink r:id="rId31" ref="R11"/>
-    <hyperlink r:id="rId32" ref="T11"/>
-    <hyperlink r:id="rId33" location="slide=id.p" ref="V11"/>
-    <hyperlink r:id="rId34" ref="X11"/>
-    <hyperlink r:id="rId35" ref="Z11"/>
-    <hyperlink r:id="rId36" ref="AB11"/>
-    <hyperlink r:id="rId37" ref="AD11"/>
-    <hyperlink r:id="rId38" ref="AF11"/>
-    <hyperlink r:id="rId39" ref="AJ11"/>
-    <hyperlink r:id="rId40" ref="AL11"/>
-    <hyperlink r:id="rId41" ref="AN11"/>
-    <hyperlink r:id="rId42" ref="J12"/>
-    <hyperlink r:id="rId43" ref="L12"/>
-    <hyperlink r:id="rId44" ref="N12"/>
-    <hyperlink r:id="rId45" ref="P12"/>
-    <hyperlink r:id="rId46" ref="R12"/>
-    <hyperlink r:id="rId47" ref="T12"/>
-    <hyperlink r:id="rId48" ref="V12"/>
-    <hyperlink r:id="rId49" ref="X12"/>
-    <hyperlink r:id="rId50" location="gid=0" ref="Z12"/>
-    <hyperlink r:id="rId51" ref="AB12"/>
-    <hyperlink r:id="rId52" ref="AD12"/>
-    <hyperlink r:id="rId53" ref="AF12"/>
-    <hyperlink r:id="rId54" ref="AJ12"/>
-    <hyperlink r:id="rId55" location="gid=0" ref="AL12"/>
-    <hyperlink r:id="rId56" ref="L13"/>
-    <hyperlink r:id="rId57" ref="N13"/>
-    <hyperlink r:id="rId58" ref="P13"/>
-    <hyperlink r:id="rId59" ref="R13"/>
-    <hyperlink r:id="rId60" ref="T13"/>
-    <hyperlink r:id="rId61" location="slide=id.g3b70900641_0_0" ref="V13"/>
-    <hyperlink r:id="rId62" ref="X13"/>
-    <hyperlink r:id="rId63" ref="Z14"/>
-    <hyperlink r:id="rId64" ref="J20"/>
-    <hyperlink r:id="rId65" ref="L20"/>
-    <hyperlink r:id="rId66" ref="N20"/>
-    <hyperlink r:id="rId67" ref="P20"/>
-    <hyperlink r:id="rId68" ref="T20"/>
-    <hyperlink r:id="rId69" ref="X20"/>
-    <hyperlink r:id="rId70" ref="Z20"/>
-    <hyperlink r:id="rId71" ref="AD20"/>
-    <hyperlink r:id="rId72" ref="AF20"/>
-    <hyperlink r:id="rId73" ref="L26"/>
-    <hyperlink r:id="rId74" ref="N26"/>
-    <hyperlink r:id="rId75" ref="P26"/>
-    <hyperlink r:id="rId76" ref="R26"/>
-    <hyperlink r:id="rId77" ref="T26"/>
-    <hyperlink r:id="rId78" ref="V26"/>
-    <hyperlink r:id="rId79" ref="X26"/>
-    <hyperlink r:id="rId80" location="gid=0" ref="Z26"/>
-    <hyperlink r:id="rId81" ref="AD26"/>
-    <hyperlink r:id="rId82" ref="AF26"/>
-    <hyperlink r:id="rId83" ref="L28"/>
-    <hyperlink r:id="rId84" ref="N28"/>
-    <hyperlink r:id="rId85" ref="P28"/>
-    <hyperlink r:id="rId86" ref="R28"/>
-    <hyperlink r:id="rId87" ref="T28"/>
-    <hyperlink r:id="rId88" ref="V28"/>
-    <hyperlink r:id="rId89" ref="X28"/>
-    <hyperlink r:id="rId90" location="gid=0" ref="Z28"/>
-    <hyperlink r:id="rId91" ref="AB28"/>
-    <hyperlink r:id="rId92" ref="AD28"/>
-    <hyperlink r:id="rId93" ref="AF28"/>
-    <hyperlink r:id="rId94" ref="AJ28"/>
-    <hyperlink r:id="rId95" ref="AL28"/>
-    <hyperlink r:id="rId96" ref="AN28"/>
-    <hyperlink r:id="rId97" ref="J32"/>
-    <hyperlink r:id="rId98" ref="L32"/>
-    <hyperlink r:id="rId99" ref="N32"/>
-    <hyperlink r:id="rId100" ref="R32"/>
-    <hyperlink r:id="rId101" ref="T32"/>
-    <hyperlink r:id="rId102" ref="X32"/>
-    <hyperlink r:id="rId103" ref="Z32"/>
-    <hyperlink r:id="rId104" ref="AD32"/>
-    <hyperlink r:id="rId105" ref="AF32"/>
-    <hyperlink r:id="rId106" ref="AL32"/>
-    <hyperlink r:id="rId107" ref="L33"/>
-    <hyperlink r:id="rId108" ref="L36"/>
-    <hyperlink r:id="rId109" ref="N36"/>
-    <hyperlink r:id="rId110" ref="P36"/>
-    <hyperlink r:id="rId111" location="slide=id.g3b70900641_0_0" ref="V36"/>
-    <hyperlink r:id="rId112" ref="L40"/>
-    <hyperlink r:id="rId113" ref="R40"/>
-    <hyperlink r:id="rId114" ref="T40"/>
-    <hyperlink r:id="rId115" ref="X40"/>
-    <hyperlink r:id="rId116" location="gid=1586758783" ref="Z40"/>
-    <hyperlink r:id="rId117" ref="AB40"/>
-    <hyperlink r:id="rId118" ref="J44"/>
-    <hyperlink r:id="rId119" ref="L44"/>
-    <hyperlink r:id="rId120" ref="N44"/>
-    <hyperlink r:id="rId121" ref="R44"/>
-    <hyperlink r:id="rId122" ref="T44"/>
-    <hyperlink r:id="rId123" ref="V44"/>
-    <hyperlink r:id="rId124" ref="X44"/>
-    <hyperlink r:id="rId125" location="gid=1064681298" ref="Z44"/>
-    <hyperlink r:id="rId126" ref="AB44"/>
-    <hyperlink r:id="rId127" ref="AF44"/>
-    <hyperlink r:id="rId128" ref="AL44"/>
-    <hyperlink r:id="rId129" ref="N47"/>
-    <hyperlink r:id="rId130" ref="T47"/>
-    <hyperlink r:id="rId131" ref="J50"/>
-    <hyperlink r:id="rId132" ref="L50"/>
-    <hyperlink r:id="rId133" ref="N50"/>
-    <hyperlink r:id="rId134" ref="P50"/>
-    <hyperlink r:id="rId135" ref="R50"/>
-    <hyperlink r:id="rId136" ref="T50"/>
-    <hyperlink r:id="rId137" location="slide=id.g3b70900641_0_0" ref="V50"/>
-    <hyperlink r:id="rId138" ref="X50"/>
-    <hyperlink r:id="rId139" ref="J52"/>
-    <hyperlink r:id="rId140" ref="L52"/>
-    <hyperlink r:id="rId141" ref="N52"/>
-    <hyperlink r:id="rId142" ref="P52"/>
-    <hyperlink r:id="rId143" ref="R52"/>
-    <hyperlink r:id="rId144" location="slide=id.g3a394584c0_2_2" ref="V52"/>
-    <hyperlink r:id="rId145" ref="X52"/>
-    <hyperlink r:id="rId146" ref="Z52"/>
-    <hyperlink r:id="rId147" ref="AB52"/>
-    <hyperlink r:id="rId148" ref="AD52"/>
-    <hyperlink r:id="rId149" ref="AF52"/>
-    <hyperlink r:id="rId150" ref="AJ52"/>
-    <hyperlink r:id="rId151" ref="AL52"/>
-    <hyperlink r:id="rId152" ref="AN52"/>
-    <hyperlink r:id="rId153" ref="J54"/>
-    <hyperlink r:id="rId154" ref="L54"/>
-    <hyperlink r:id="rId155" ref="N54"/>
-    <hyperlink r:id="rId156" ref="P54"/>
-    <hyperlink r:id="rId157" ref="R54"/>
-    <hyperlink r:id="rId158" ref="T54"/>
-    <hyperlink r:id="rId159" location="gid=0" ref="Z54"/>
-    <hyperlink r:id="rId160" ref="AD54"/>
-    <hyperlink r:id="rId161" ref="AF54"/>
-    <hyperlink r:id="rId162" ref="X56"/>
-    <hyperlink r:id="rId163" ref="L61"/>
-    <hyperlink r:id="rId164" ref="P61"/>
-    <hyperlink r:id="rId165" ref="R61"/>
-    <hyperlink r:id="rId166" ref="T61"/>
-    <hyperlink r:id="rId167" location="slide=id.g3b70900641_0_0" ref="V61"/>
-    <hyperlink r:id="rId168" ref="X61"/>
-    <hyperlink r:id="rId169" ref="Z61"/>
-    <hyperlink r:id="rId170" ref="AB61"/>
-    <hyperlink r:id="rId171" ref="AD61"/>
-    <hyperlink r:id="rId172" ref="AF61"/>
-    <hyperlink r:id="rId173" ref="AJ61"/>
-    <hyperlink r:id="rId174" ref="AL61"/>
-    <hyperlink r:id="rId175" ref="AN61"/>
-    <hyperlink r:id="rId176" ref="J62"/>
-    <hyperlink r:id="rId177" ref="L62"/>
-    <hyperlink r:id="rId178" ref="N62"/>
-    <hyperlink r:id="rId179" ref="P62"/>
-    <hyperlink r:id="rId180" location="slide=id.p1" ref="V62"/>
-    <hyperlink r:id="rId181" ref="X62"/>
-    <hyperlink r:id="rId182" ref="Z62"/>
-    <hyperlink r:id="rId183" ref="J64"/>
-    <hyperlink r:id="rId184" ref="L64"/>
-    <hyperlink r:id="rId185" ref="N64"/>
-    <hyperlink r:id="rId186" ref="P64"/>
-    <hyperlink r:id="rId187" ref="R64"/>
-    <hyperlink r:id="rId188" ref="T64"/>
-    <hyperlink r:id="rId189" location="slide=id.g3b70900641_0_0" ref="V64"/>
-    <hyperlink r:id="rId190" ref="X64"/>
-    <hyperlink r:id="rId191" location="gid=0" ref="Z64"/>
-    <hyperlink r:id="rId192" ref="AF64"/>
-    <hyperlink r:id="rId193" location="gid=0" ref="AL64"/>
-    <hyperlink r:id="rId194" ref="AN64"/>
-    <hyperlink r:id="rId195" ref="L65"/>
-    <hyperlink r:id="rId196" ref="N65"/>
-    <hyperlink r:id="rId197" ref="P65"/>
-    <hyperlink r:id="rId198" ref="R65"/>
-    <hyperlink r:id="rId199" ref="T65"/>
-    <hyperlink r:id="rId200" ref="V65"/>
-    <hyperlink r:id="rId201" ref="AB65"/>
-    <hyperlink r:id="rId202" ref="AF65"/>
-    <hyperlink r:id="rId203" ref="AL65"/>
-    <hyperlink r:id="rId204" ref="J66"/>
-    <hyperlink r:id="rId205" ref="L66"/>
-    <hyperlink r:id="rId206" ref="N66"/>
-    <hyperlink r:id="rId207" ref="P66"/>
-    <hyperlink r:id="rId208" ref="R66"/>
-    <hyperlink r:id="rId209" ref="T66"/>
-    <hyperlink r:id="rId210" location="slide=id.g3b70900641_0_0" ref="V66"/>
-    <hyperlink r:id="rId211" ref="X66"/>
-    <hyperlink r:id="rId212" ref="Z66"/>
-    <hyperlink r:id="rId213" ref="AB66"/>
-    <hyperlink r:id="rId214" ref="AD66"/>
-    <hyperlink r:id="rId215" ref="AF66"/>
-    <hyperlink r:id="rId216" ref="AJ66"/>
-    <hyperlink r:id="rId217" ref="AL66"/>
-    <hyperlink r:id="rId218" ref="AN66"/>
-    <hyperlink r:id="rId219" ref="J68"/>
-    <hyperlink r:id="rId220" ref="L68"/>
-    <hyperlink r:id="rId221" ref="N68"/>
-    <hyperlink r:id="rId222" ref="R68"/>
-    <hyperlink r:id="rId223" ref="T68"/>
-    <hyperlink r:id="rId224" location="slide=id.g3b70900641_0_0" ref="V68"/>
-    <hyperlink r:id="rId225" ref="X68"/>
-    <hyperlink r:id="rId226" ref="Z68"/>
-    <hyperlink r:id="rId227" ref="AB68"/>
-    <hyperlink r:id="rId228" ref="AD68"/>
-    <hyperlink r:id="rId229" ref="AF68"/>
-    <hyperlink r:id="rId230" ref="AJ68"/>
-    <hyperlink r:id="rId231" ref="AL68"/>
-    <hyperlink r:id="rId232" ref="AN68"/>
-    <hyperlink r:id="rId233" ref="J69"/>
-    <hyperlink r:id="rId234" ref="R69"/>
-    <hyperlink r:id="rId235" ref="T69"/>
-    <hyperlink r:id="rId236" ref="V69"/>
-    <hyperlink r:id="rId237" ref="X69"/>
-    <hyperlink r:id="rId238" ref="Z69"/>
-    <hyperlink r:id="rId239" ref="AD69"/>
-    <hyperlink r:id="rId240" ref="AF69"/>
-    <hyperlink r:id="rId241" ref="J70"/>
-    <hyperlink r:id="rId242" ref="L70"/>
-    <hyperlink r:id="rId243" ref="N70"/>
-    <hyperlink r:id="rId244" ref="P70"/>
-    <hyperlink r:id="rId245" ref="R70"/>
-    <hyperlink r:id="rId246" ref="T70"/>
-    <hyperlink r:id="rId247" location="slide=id.g3b70900641_0_0" ref="V70"/>
-    <hyperlink r:id="rId248" ref="X70"/>
-    <hyperlink r:id="rId249" ref="Z70"/>
-    <hyperlink r:id="rId250" ref="AB70"/>
-    <hyperlink r:id="rId251" ref="AD70"/>
-    <hyperlink r:id="rId252" ref="AF70"/>
-    <hyperlink r:id="rId253" ref="AJ70"/>
-    <hyperlink r:id="rId254" ref="AL70"/>
-    <hyperlink r:id="rId255" ref="AN70"/>
-    <hyperlink r:id="rId256" ref="J71"/>
-    <hyperlink r:id="rId257" ref="L71"/>
-    <hyperlink r:id="rId258" ref="N71"/>
-    <hyperlink r:id="rId259" ref="P71"/>
-    <hyperlink r:id="rId260" ref="R71"/>
-    <hyperlink r:id="rId261" ref="T71"/>
-    <hyperlink r:id="rId262" ref="V71"/>
-    <hyperlink r:id="rId263" ref="X71"/>
-    <hyperlink r:id="rId264" ref="Z71"/>
-    <hyperlink r:id="rId265" ref="AB71"/>
-    <hyperlink r:id="rId266" ref="AD71"/>
-    <hyperlink r:id="rId267" ref="AF71"/>
-    <hyperlink r:id="rId268" ref="AJ71"/>
-    <hyperlink r:id="rId269" ref="AL71"/>
-    <hyperlink r:id="rId270" ref="AN71"/>
-    <hyperlink r:id="rId271" ref="L72"/>
-    <hyperlink r:id="rId272" ref="P72"/>
-    <hyperlink r:id="rId273" location="gid=899114190" ref="Z72"/>
-    <hyperlink r:id="rId274" ref="AB72"/>
-    <hyperlink r:id="rId275" ref="AD72"/>
-    <hyperlink r:id="rId276" ref="AF72"/>
-    <hyperlink r:id="rId277" ref="AJ72"/>
-    <hyperlink r:id="rId278" ref="AL72"/>
-    <hyperlink r:id="rId279" ref="AN72"/>
-    <hyperlink r:id="rId280" ref="L82"/>
-    <hyperlink r:id="rId281" ref="P82"/>
-    <hyperlink r:id="rId282" location="slide=id.g3a3f5f2f0e_1_5" ref="V82"/>
-    <hyperlink r:id="rId283" ref="X82"/>
-    <hyperlink r:id="rId284" location="gid=0" ref="Z82"/>
-    <hyperlink r:id="rId285" ref="AB82"/>
-    <hyperlink r:id="rId286" ref="AF82"/>
-    <hyperlink r:id="rId287" ref="AL82"/>
-    <hyperlink r:id="rId288" ref="AN82"/>
-    <hyperlink r:id="rId289" ref="J91"/>
-    <hyperlink r:id="rId290" ref="L91"/>
-    <hyperlink r:id="rId291" ref="N91"/>
-    <hyperlink r:id="rId292" ref="P91"/>
-    <hyperlink r:id="rId293" ref="R91"/>
-    <hyperlink r:id="rId294" ref="T91"/>
-    <hyperlink r:id="rId295" location="slide=id.g3b70900641_0_0" ref="V91"/>
-    <hyperlink r:id="rId296" ref="X91"/>
-    <hyperlink r:id="rId297" ref="Z91"/>
-    <hyperlink r:id="rId298" ref="AB91"/>
-    <hyperlink r:id="rId299" ref="AD91"/>
-    <hyperlink r:id="rId300" ref="AF91"/>
-    <hyperlink r:id="rId301" ref="J103"/>
-    <hyperlink r:id="rId302" ref="L103"/>
-    <hyperlink r:id="rId303" ref="N103"/>
-    <hyperlink r:id="rId304" ref="P103"/>
-    <hyperlink r:id="rId305" ref="T103"/>
-    <hyperlink r:id="rId306" location="slide=id.g3b70900641_0_0" ref="V103"/>
-    <hyperlink r:id="rId307" ref="X103"/>
-    <hyperlink r:id="rId308" ref="AB103"/>
-    <hyperlink r:id="rId309" ref="AD103"/>
-    <hyperlink r:id="rId310" ref="AJ103"/>
-    <hyperlink r:id="rId311" ref="L111"/>
-    <hyperlink r:id="rId312" ref="R111"/>
-    <hyperlink r:id="rId313" ref="T111"/>
-    <hyperlink r:id="rId314" ref="X111"/>
-    <hyperlink r:id="rId315" location="gid=1586758783" ref="Z111"/>
-    <hyperlink r:id="rId316" ref="AB111"/>
-    <hyperlink r:id="rId317" ref="AJ111"/>
-    <hyperlink r:id="rId318" location="gid=980550210" ref="AL111"/>
-    <hyperlink r:id="rId319" ref="AN111"/>
-    <hyperlink r:id="rId320" ref="J114"/>
-    <hyperlink r:id="rId321" ref="L114"/>
-    <hyperlink r:id="rId322" ref="N114"/>
-    <hyperlink r:id="rId323" ref="P114"/>
-    <hyperlink r:id="rId324" ref="J115"/>
-    <hyperlink r:id="rId325" ref="L115"/>
-    <hyperlink r:id="rId326" ref="N115"/>
-    <hyperlink r:id="rId327" ref="P115"/>
-    <hyperlink r:id="rId328" ref="T115"/>
-    <hyperlink r:id="rId329" ref="X115"/>
-    <hyperlink r:id="rId330" location="gid=1064681298" ref="Z115"/>
-    <hyperlink r:id="rId331" ref="AB115"/>
-    <hyperlink r:id="rId332" ref="AD115"/>
-    <hyperlink r:id="rId333" ref="AF115"/>
-    <hyperlink r:id="rId334" ref="AL115"/>
-    <hyperlink r:id="rId335" ref="L118"/>
-    <hyperlink r:id="rId336" ref="N118"/>
-    <hyperlink r:id="rId337" ref="P118"/>
-    <hyperlink r:id="rId338" location="slide=id.g3b70900641_0_0" ref="V118"/>
-    <hyperlink r:id="rId339" ref="X118"/>
-    <hyperlink r:id="rId340" ref="Z118"/>
-    <hyperlink r:id="rId341" ref="AB118"/>
-    <hyperlink r:id="rId342" ref="AF118"/>
-    <hyperlink r:id="rId343" ref="J120"/>
-    <hyperlink r:id="rId344" ref="L120"/>
-    <hyperlink r:id="rId345" ref="N120"/>
-    <hyperlink r:id="rId346" ref="J123"/>
-    <hyperlink r:id="rId347" ref="L123"/>
-    <hyperlink r:id="rId348" ref="N123"/>
-    <hyperlink r:id="rId349" ref="P123"/>
-    <hyperlink r:id="rId350" ref="R123"/>
-    <hyperlink r:id="rId351" ref="T123"/>
-    <hyperlink r:id="rId352" location="slide=id.g3b70900641_0_0" ref="V123"/>
-    <hyperlink r:id="rId353" ref="X123"/>
-    <hyperlink r:id="rId354" location="gid=0" ref="Z123"/>
-    <hyperlink r:id="rId355" ref="AB123"/>
-    <hyperlink r:id="rId356" ref="AD123"/>
-    <hyperlink r:id="rId357" ref="AJ123"/>
-    <hyperlink r:id="rId358" ref="AL123"/>
-    <hyperlink r:id="rId359" ref="AN123"/>
-    <hyperlink r:id="rId360" ref="L127"/>
-    <hyperlink r:id="rId361" ref="N127"/>
-    <hyperlink r:id="rId362" ref="J128"/>
-    <hyperlink r:id="rId363" ref="L128"/>
-    <hyperlink r:id="rId364" ref="N128"/>
-    <hyperlink r:id="rId365" ref="P128"/>
-    <hyperlink r:id="rId366" ref="R128"/>
-    <hyperlink r:id="rId367" ref="T128"/>
-    <hyperlink r:id="rId368" location="slide=id.g3b70900641_0_0" ref="V128"/>
-    <hyperlink r:id="rId369" ref="X128"/>
-    <hyperlink r:id="rId370" ref="Z128"/>
-    <hyperlink r:id="rId371" ref="AB128"/>
-    <hyperlink r:id="rId372" ref="AD128"/>
-    <hyperlink r:id="rId373" ref="AF128"/>
-    <hyperlink r:id="rId374" ref="AH128"/>
-    <hyperlink r:id="rId375" ref="AJ128"/>
-    <hyperlink r:id="rId376" ref="AL128"/>
-    <hyperlink r:id="rId377" ref="AN128"/>
-    <hyperlink r:id="rId378" ref="L129"/>
-    <hyperlink r:id="rId379" ref="N129"/>
-    <hyperlink r:id="rId380" ref="P129"/>
-    <hyperlink r:id="rId381" ref="R129"/>
-    <hyperlink r:id="rId382" ref="T129"/>
-    <hyperlink r:id="rId383" ref="V129"/>
-    <hyperlink r:id="rId384" ref="X129"/>
-    <hyperlink r:id="rId385" ref="J130"/>
-    <hyperlink r:id="rId386" ref="N130"/>
-    <hyperlink r:id="rId387" ref="P130"/>
-    <hyperlink r:id="rId388" ref="T130"/>
-    <hyperlink r:id="rId389" ref="Z130"/>
-    <hyperlink r:id="rId390" ref="AD130"/>
-    <hyperlink r:id="rId391" ref="AF130"/>
-    <hyperlink r:id="rId392" ref="AJ130"/>
-    <hyperlink r:id="rId393" ref="AL130"/>
-    <hyperlink r:id="rId394" ref="J131"/>
-    <hyperlink r:id="rId395" ref="L131"/>
-    <hyperlink r:id="rId396" ref="N131"/>
-    <hyperlink r:id="rId397" ref="P131"/>
-    <hyperlink r:id="rId398" ref="R131"/>
-    <hyperlink r:id="rId399" ref="T131"/>
-    <hyperlink r:id="rId400" ref="V131"/>
-    <hyperlink r:id="rId401" ref="X131"/>
-    <hyperlink r:id="rId402" location="gid=0" ref="Z131"/>
-    <hyperlink r:id="rId403" ref="AB131"/>
-    <hyperlink r:id="rId404" ref="AD131"/>
-    <hyperlink r:id="rId405" ref="AF131"/>
-    <hyperlink r:id="rId406" ref="AJ131"/>
-    <hyperlink r:id="rId407" ref="AL131"/>
-    <hyperlink r:id="rId408" ref="AN131"/>
-    <hyperlink r:id="rId409" ref="J138"/>
-    <hyperlink r:id="rId410" ref="L138"/>
-    <hyperlink r:id="rId411" ref="N138"/>
-    <hyperlink r:id="rId412" ref="P138"/>
-    <hyperlink r:id="rId413" ref="R138"/>
-    <hyperlink r:id="rId414" ref="T138"/>
-    <hyperlink r:id="rId415" ref="V138"/>
-    <hyperlink r:id="rId416" ref="X138"/>
-    <hyperlink r:id="rId417" ref="Z138"/>
-    <hyperlink r:id="rId418" ref="AB138"/>
-    <hyperlink r:id="rId419" ref="AD138"/>
-    <hyperlink r:id="rId420" ref="AF138"/>
-    <hyperlink r:id="rId421" ref="AJ138"/>
-    <hyperlink r:id="rId422" ref="AL138"/>
-    <hyperlink r:id="rId423" ref="AN138"/>
-    <hyperlink r:id="rId424" ref="J139"/>
-    <hyperlink r:id="rId425" ref="L139"/>
-    <hyperlink r:id="rId426" ref="N139"/>
-    <hyperlink r:id="rId427" ref="P139"/>
-    <hyperlink r:id="rId428" ref="R139"/>
-    <hyperlink r:id="rId429" ref="T139"/>
-    <hyperlink r:id="rId430" location="slide=id.g3a4571af9b_0_0" ref="V139"/>
-    <hyperlink r:id="rId431" ref="X139"/>
-    <hyperlink r:id="rId432" location="gid=0" ref="Z139"/>
-    <hyperlink r:id="rId433" ref="AB139"/>
-    <hyperlink r:id="rId434" ref="AD139"/>
-    <hyperlink r:id="rId435" ref="AF139"/>
-    <hyperlink r:id="rId436" ref="AJ139"/>
-    <hyperlink r:id="rId437" ref="AL139"/>
-    <hyperlink r:id="rId438" ref="AN139"/>
-    <hyperlink r:id="rId439" ref="L141"/>
-    <hyperlink r:id="rId440" ref="P141"/>
-    <hyperlink r:id="rId441" ref="R141"/>
-    <hyperlink r:id="rId442" ref="T141"/>
-    <hyperlink r:id="rId443" location="slide=id.g3b70900641_0_0" ref="V141"/>
-    <hyperlink r:id="rId444" ref="X141"/>
-    <hyperlink r:id="rId445" ref="Z141"/>
-    <hyperlink r:id="rId446" ref="AB141"/>
-    <hyperlink r:id="rId447" ref="AF141"/>
-    <hyperlink r:id="rId448" ref="AJ141"/>
-    <hyperlink r:id="rId449" ref="AL141"/>
-    <hyperlink r:id="rId450" ref="AN141"/>
+    <hyperlink r:id="rId15" ref="AH4"/>
+    <hyperlink r:id="rId16" ref="AJ4"/>
+    <hyperlink r:id="rId17" ref="AN4"/>
+    <hyperlink r:id="rId18" ref="J9"/>
+    <hyperlink r:id="rId19" ref="L9"/>
+    <hyperlink r:id="rId20" ref="P9"/>
+    <hyperlink r:id="rId21" ref="R9"/>
+    <hyperlink r:id="rId22" ref="T9"/>
+    <hyperlink r:id="rId23" ref="X9"/>
+    <hyperlink r:id="rId24" ref="Z9"/>
+    <hyperlink r:id="rId25" ref="AB9"/>
+    <hyperlink r:id="rId26" ref="AD9"/>
+    <hyperlink r:id="rId27" ref="AF9"/>
+    <hyperlink r:id="rId28" ref="J11"/>
+    <hyperlink r:id="rId29" ref="L11"/>
+    <hyperlink r:id="rId30" ref="N11"/>
+    <hyperlink r:id="rId31" ref="P11"/>
+    <hyperlink r:id="rId32" ref="R11"/>
+    <hyperlink r:id="rId33" ref="T11"/>
+    <hyperlink r:id="rId34" location="slide=id.p" ref="V11"/>
+    <hyperlink r:id="rId35" ref="X11"/>
+    <hyperlink r:id="rId36" ref="Z11"/>
+    <hyperlink r:id="rId37" ref="AB11"/>
+    <hyperlink r:id="rId38" ref="AD11"/>
+    <hyperlink r:id="rId39" ref="AF11"/>
+    <hyperlink r:id="rId40" ref="AH11"/>
+    <hyperlink r:id="rId41" ref="AJ11"/>
+    <hyperlink r:id="rId42" ref="AL11"/>
+    <hyperlink r:id="rId43" ref="AN11"/>
+    <hyperlink r:id="rId44" ref="J12"/>
+    <hyperlink r:id="rId45" ref="L12"/>
+    <hyperlink r:id="rId46" ref="N12"/>
+    <hyperlink r:id="rId47" ref="P12"/>
+    <hyperlink r:id="rId48" ref="R12"/>
+    <hyperlink r:id="rId49" ref="T12"/>
+    <hyperlink r:id="rId50" ref="V12"/>
+    <hyperlink r:id="rId51" ref="X12"/>
+    <hyperlink r:id="rId52" location="gid=0" ref="Z12"/>
+    <hyperlink r:id="rId53" ref="AB12"/>
+    <hyperlink r:id="rId54" ref="AD12"/>
+    <hyperlink r:id="rId55" ref="AF12"/>
+    <hyperlink r:id="rId56" ref="AH12"/>
+    <hyperlink r:id="rId57" ref="AJ12"/>
+    <hyperlink r:id="rId58" location="gid=0" ref="AL12"/>
+    <hyperlink r:id="rId59" ref="L13"/>
+    <hyperlink r:id="rId60" ref="N13"/>
+    <hyperlink r:id="rId61" ref="P13"/>
+    <hyperlink r:id="rId62" ref="R13"/>
+    <hyperlink r:id="rId63" ref="T13"/>
+    <hyperlink r:id="rId64" location="slide=id.g3b70900641_0_0" ref="V13"/>
+    <hyperlink r:id="rId65" ref="X13"/>
+    <hyperlink r:id="rId66" ref="Z14"/>
+    <hyperlink r:id="rId67" ref="J20"/>
+    <hyperlink r:id="rId68" ref="L20"/>
+    <hyperlink r:id="rId69" ref="N20"/>
+    <hyperlink r:id="rId70" ref="P20"/>
+    <hyperlink r:id="rId71" ref="T20"/>
+    <hyperlink r:id="rId72" ref="X20"/>
+    <hyperlink r:id="rId73" ref="Z20"/>
+    <hyperlink r:id="rId74" ref="AD20"/>
+    <hyperlink r:id="rId75" ref="AF20"/>
+    <hyperlink r:id="rId76" ref="L26"/>
+    <hyperlink r:id="rId77" ref="N26"/>
+    <hyperlink r:id="rId78" ref="P26"/>
+    <hyperlink r:id="rId79" ref="R26"/>
+    <hyperlink r:id="rId80" ref="T26"/>
+    <hyperlink r:id="rId81" ref="V26"/>
+    <hyperlink r:id="rId82" ref="X26"/>
+    <hyperlink r:id="rId83" location="gid=0" ref="Z26"/>
+    <hyperlink r:id="rId84" ref="AD26"/>
+    <hyperlink r:id="rId85" ref="AF26"/>
+    <hyperlink r:id="rId86" ref="L28"/>
+    <hyperlink r:id="rId87" ref="N28"/>
+    <hyperlink r:id="rId88" ref="P28"/>
+    <hyperlink r:id="rId89" ref="R28"/>
+    <hyperlink r:id="rId90" ref="T28"/>
+    <hyperlink r:id="rId91" ref="V28"/>
+    <hyperlink r:id="rId92" ref="X28"/>
+    <hyperlink r:id="rId93" location="gid=0" ref="Z28"/>
+    <hyperlink r:id="rId94" ref="AB28"/>
+    <hyperlink r:id="rId95" ref="AD28"/>
+    <hyperlink r:id="rId96" ref="AF28"/>
+    <hyperlink r:id="rId97" ref="AJ28"/>
+    <hyperlink r:id="rId98" ref="AL28"/>
+    <hyperlink r:id="rId99" ref="AN28"/>
+    <hyperlink r:id="rId100" ref="J32"/>
+    <hyperlink r:id="rId101" ref="L32"/>
+    <hyperlink r:id="rId102" ref="N32"/>
+    <hyperlink r:id="rId103" ref="R32"/>
+    <hyperlink r:id="rId104" ref="T32"/>
+    <hyperlink r:id="rId105" ref="X32"/>
+    <hyperlink r:id="rId106" ref="Z32"/>
+    <hyperlink r:id="rId107" ref="AD32"/>
+    <hyperlink r:id="rId108" ref="AF32"/>
+    <hyperlink r:id="rId109" ref="AL32"/>
+    <hyperlink r:id="rId110" ref="L33"/>
+    <hyperlink r:id="rId111" ref="L36"/>
+    <hyperlink r:id="rId112" ref="N36"/>
+    <hyperlink r:id="rId113" ref="P36"/>
+    <hyperlink r:id="rId114" location="slide=id.g3b70900641_0_0" ref="V36"/>
+    <hyperlink r:id="rId115" ref="L40"/>
+    <hyperlink r:id="rId116" ref="R40"/>
+    <hyperlink r:id="rId117" ref="T40"/>
+    <hyperlink r:id="rId118" ref="X40"/>
+    <hyperlink r:id="rId119" location="gid=1586758783" ref="Z40"/>
+    <hyperlink r:id="rId120" ref="AB40"/>
+    <hyperlink r:id="rId121" ref="J44"/>
+    <hyperlink r:id="rId122" ref="L44"/>
+    <hyperlink r:id="rId123" ref="N44"/>
+    <hyperlink r:id="rId124" ref="R44"/>
+    <hyperlink r:id="rId125" ref="T44"/>
+    <hyperlink r:id="rId126" ref="V44"/>
+    <hyperlink r:id="rId127" ref="X44"/>
+    <hyperlink r:id="rId128" location="gid=1064681298" ref="Z44"/>
+    <hyperlink r:id="rId129" ref="AB44"/>
+    <hyperlink r:id="rId130" ref="AF44"/>
+    <hyperlink r:id="rId131" ref="AH44"/>
+    <hyperlink r:id="rId132" ref="AL44"/>
+    <hyperlink r:id="rId133" ref="N47"/>
+    <hyperlink r:id="rId134" ref="T47"/>
+    <hyperlink r:id="rId135" ref="J50"/>
+    <hyperlink r:id="rId136" ref="L50"/>
+    <hyperlink r:id="rId137" ref="N50"/>
+    <hyperlink r:id="rId138" ref="P50"/>
+    <hyperlink r:id="rId139" ref="R50"/>
+    <hyperlink r:id="rId140" ref="T50"/>
+    <hyperlink r:id="rId141" location="slide=id.g3b70900641_0_0" ref="V50"/>
+    <hyperlink r:id="rId142" ref="X50"/>
+    <hyperlink r:id="rId143" ref="J52"/>
+    <hyperlink r:id="rId144" ref="L52"/>
+    <hyperlink r:id="rId145" ref="N52"/>
+    <hyperlink r:id="rId146" ref="P52"/>
+    <hyperlink r:id="rId147" ref="R52"/>
+    <hyperlink r:id="rId148" location="slide=id.g3a394584c0_2_2" ref="V52"/>
+    <hyperlink r:id="rId149" ref="X52"/>
+    <hyperlink r:id="rId150" ref="Z52"/>
+    <hyperlink r:id="rId151" ref="AB52"/>
+    <hyperlink r:id="rId152" ref="AD52"/>
+    <hyperlink r:id="rId153" ref="AF52"/>
+    <hyperlink r:id="rId154" ref="AH52"/>
+    <hyperlink r:id="rId155" ref="AJ52"/>
+    <hyperlink r:id="rId156" ref="AL52"/>
+    <hyperlink r:id="rId157" ref="AN52"/>
+    <hyperlink r:id="rId158" ref="J54"/>
+    <hyperlink r:id="rId159" ref="L54"/>
+    <hyperlink r:id="rId160" ref="N54"/>
+    <hyperlink r:id="rId161" ref="P54"/>
+    <hyperlink r:id="rId162" ref="R54"/>
+    <hyperlink r:id="rId163" ref="T54"/>
+    <hyperlink r:id="rId164" location="gid=0" ref="Z54"/>
+    <hyperlink r:id="rId165" ref="AD54"/>
+    <hyperlink r:id="rId166" ref="AF54"/>
+    <hyperlink r:id="rId167" ref="X56"/>
+    <hyperlink r:id="rId168" ref="L61"/>
+    <hyperlink r:id="rId169" ref="P61"/>
+    <hyperlink r:id="rId170" ref="R61"/>
+    <hyperlink r:id="rId171" ref="T61"/>
+    <hyperlink r:id="rId172" location="slide=id.g3b70900641_0_0" ref="V61"/>
+    <hyperlink r:id="rId173" ref="X61"/>
+    <hyperlink r:id="rId174" ref="Z61"/>
+    <hyperlink r:id="rId175" ref="AB61"/>
+    <hyperlink r:id="rId176" ref="AD61"/>
+    <hyperlink r:id="rId177" ref="AF61"/>
+    <hyperlink r:id="rId178" ref="AH61"/>
+    <hyperlink r:id="rId179" ref="AJ61"/>
+    <hyperlink r:id="rId180" ref="AL61"/>
+    <hyperlink r:id="rId181" ref="AN61"/>
+    <hyperlink r:id="rId182" ref="J62"/>
+    <hyperlink r:id="rId183" ref="L62"/>
+    <hyperlink r:id="rId184" ref="N62"/>
+    <hyperlink r:id="rId185" ref="P62"/>
+    <hyperlink r:id="rId186" location="slide=id.p1" ref="V62"/>
+    <hyperlink r:id="rId187" ref="X62"/>
+    <hyperlink r:id="rId188" ref="Z62"/>
+    <hyperlink r:id="rId189" ref="J64"/>
+    <hyperlink r:id="rId190" ref="L64"/>
+    <hyperlink r:id="rId191" ref="N64"/>
+    <hyperlink r:id="rId192" ref="P64"/>
+    <hyperlink r:id="rId193" ref="R64"/>
+    <hyperlink r:id="rId194" ref="T64"/>
+    <hyperlink r:id="rId195" location="slide=id.g3b70900641_0_0" ref="V64"/>
+    <hyperlink r:id="rId196" ref="X64"/>
+    <hyperlink r:id="rId197" location="gid=0" ref="Z64"/>
+    <hyperlink r:id="rId198" ref="AF64"/>
+    <hyperlink r:id="rId199" ref="AH64"/>
+    <hyperlink r:id="rId200" location="gid=0" ref="AL64"/>
+    <hyperlink r:id="rId201" ref="AN64"/>
+    <hyperlink r:id="rId202" ref="L65"/>
+    <hyperlink r:id="rId203" ref="N65"/>
+    <hyperlink r:id="rId204" ref="P65"/>
+    <hyperlink r:id="rId205" ref="R65"/>
+    <hyperlink r:id="rId206" ref="T65"/>
+    <hyperlink r:id="rId207" ref="V65"/>
+    <hyperlink r:id="rId208" ref="AB65"/>
+    <hyperlink r:id="rId209" ref="AF65"/>
+    <hyperlink r:id="rId210" ref="AL65"/>
+    <hyperlink r:id="rId211" ref="J66"/>
+    <hyperlink r:id="rId212" ref="L66"/>
+    <hyperlink r:id="rId213" ref="N66"/>
+    <hyperlink r:id="rId214" ref="P66"/>
+    <hyperlink r:id="rId215" ref="R66"/>
+    <hyperlink r:id="rId216" ref="T66"/>
+    <hyperlink r:id="rId217" location="slide=id.g3b70900641_0_0" ref="V66"/>
+    <hyperlink r:id="rId218" ref="X66"/>
+    <hyperlink r:id="rId219" ref="Z66"/>
+    <hyperlink r:id="rId220" ref="AB66"/>
+    <hyperlink r:id="rId221" ref="AD66"/>
+    <hyperlink r:id="rId222" ref="AF66"/>
+    <hyperlink r:id="rId223" ref="AH66"/>
+    <hyperlink r:id="rId224" ref="AJ66"/>
+    <hyperlink r:id="rId225" ref="AL66"/>
+    <hyperlink r:id="rId226" ref="AN66"/>
+    <hyperlink r:id="rId227" ref="J68"/>
+    <hyperlink r:id="rId228" ref="L68"/>
+    <hyperlink r:id="rId229" ref="N68"/>
+    <hyperlink r:id="rId230" ref="R68"/>
+    <hyperlink r:id="rId231" ref="T68"/>
+    <hyperlink r:id="rId232" location="slide=id.g3b70900641_0_0" ref="V68"/>
+    <hyperlink r:id="rId233" ref="X68"/>
+    <hyperlink r:id="rId234" ref="Z68"/>
+    <hyperlink r:id="rId235" ref="AB68"/>
+    <hyperlink r:id="rId236" ref="AD68"/>
+    <hyperlink r:id="rId237" ref="AF68"/>
+    <hyperlink r:id="rId238" ref="AH68"/>
+    <hyperlink r:id="rId239" ref="AJ68"/>
+    <hyperlink r:id="rId240" ref="AL68"/>
+    <hyperlink r:id="rId241" ref="AN68"/>
+    <hyperlink r:id="rId242" ref="J69"/>
+    <hyperlink r:id="rId243" ref="R69"/>
+    <hyperlink r:id="rId244" ref="T69"/>
+    <hyperlink r:id="rId245" ref="V69"/>
+    <hyperlink r:id="rId246" ref="X69"/>
+    <hyperlink r:id="rId247" ref="Z69"/>
+    <hyperlink r:id="rId248" ref="AD69"/>
+    <hyperlink r:id="rId249" ref="AF69"/>
+    <hyperlink r:id="rId250" ref="J70"/>
+    <hyperlink r:id="rId251" ref="L70"/>
+    <hyperlink r:id="rId252" ref="N70"/>
+    <hyperlink r:id="rId253" ref="P70"/>
+    <hyperlink r:id="rId254" ref="R70"/>
+    <hyperlink r:id="rId255" ref="T70"/>
+    <hyperlink r:id="rId256" location="slide=id.g3b70900641_0_0" ref="V70"/>
+    <hyperlink r:id="rId257" ref="X70"/>
+    <hyperlink r:id="rId258" ref="Z70"/>
+    <hyperlink r:id="rId259" ref="AB70"/>
+    <hyperlink r:id="rId260" ref="AD70"/>
+    <hyperlink r:id="rId261" ref="AF70"/>
+    <hyperlink r:id="rId262" ref="AH70"/>
+    <hyperlink r:id="rId263" ref="AJ70"/>
+    <hyperlink r:id="rId264" ref="AL70"/>
+    <hyperlink r:id="rId265" ref="AN70"/>
+    <hyperlink r:id="rId266" ref="J71"/>
+    <hyperlink r:id="rId267" ref="L71"/>
+    <hyperlink r:id="rId268" ref="N71"/>
+    <hyperlink r:id="rId269" ref="P71"/>
+    <hyperlink r:id="rId270" ref="R71"/>
+    <hyperlink r:id="rId271" ref="T71"/>
+    <hyperlink r:id="rId272" ref="V71"/>
+    <hyperlink r:id="rId273" ref="X71"/>
+    <hyperlink r:id="rId274" ref="Z71"/>
+    <hyperlink r:id="rId275" ref="AB71"/>
+    <hyperlink r:id="rId276" ref="AD71"/>
+    <hyperlink r:id="rId277" ref="AF71"/>
+    <hyperlink r:id="rId278" ref="AH71"/>
+    <hyperlink r:id="rId279" ref="AJ71"/>
+    <hyperlink r:id="rId280" ref="AL71"/>
+    <hyperlink r:id="rId281" ref="AN71"/>
+    <hyperlink r:id="rId282" ref="L72"/>
+    <hyperlink r:id="rId283" ref="P72"/>
+    <hyperlink r:id="rId284" location="gid=899114190" ref="Z72"/>
+    <hyperlink r:id="rId285" ref="AB72"/>
+    <hyperlink r:id="rId286" ref="AD72"/>
+    <hyperlink r:id="rId287" ref="AF72"/>
+    <hyperlink r:id="rId288" ref="AH72"/>
+    <hyperlink r:id="rId289" ref="AJ72"/>
+    <hyperlink r:id="rId290" ref="AL72"/>
+    <hyperlink r:id="rId291" ref="AN72"/>
+    <hyperlink r:id="rId292" ref="L82"/>
+    <hyperlink r:id="rId293" ref="P82"/>
+    <hyperlink r:id="rId294" location="slide=id.g3a3f5f2f0e_1_5" ref="V82"/>
+    <hyperlink r:id="rId295" ref="X82"/>
+    <hyperlink r:id="rId296" location="gid=0" ref="Z82"/>
+    <hyperlink r:id="rId297" ref="AB82"/>
+    <hyperlink r:id="rId298" ref="AF82"/>
+    <hyperlink r:id="rId299" ref="AL82"/>
+    <hyperlink r:id="rId300" ref="AN82"/>
+    <hyperlink r:id="rId301" ref="J91"/>
+    <hyperlink r:id="rId302" ref="L91"/>
+    <hyperlink r:id="rId303" ref="N91"/>
+    <hyperlink r:id="rId304" ref="P91"/>
+    <hyperlink r:id="rId305" ref="R91"/>
+    <hyperlink r:id="rId306" ref="T91"/>
+    <hyperlink r:id="rId307" location="slide=id.g3b70900641_0_0" ref="V91"/>
+    <hyperlink r:id="rId308" ref="X91"/>
+    <hyperlink r:id="rId309" ref="Z91"/>
+    <hyperlink r:id="rId310" ref="AB91"/>
+    <hyperlink r:id="rId311" ref="AD91"/>
+    <hyperlink r:id="rId312" ref="AF91"/>
+    <hyperlink r:id="rId313" ref="AH91"/>
+    <hyperlink r:id="rId314" ref="AN91"/>
+    <hyperlink r:id="rId315" ref="J103"/>
+    <hyperlink r:id="rId316" ref="L103"/>
+    <hyperlink r:id="rId317" ref="N103"/>
+    <hyperlink r:id="rId318" ref="P103"/>
+    <hyperlink r:id="rId319" ref="T103"/>
+    <hyperlink r:id="rId320" location="slide=id.g3b70900641_0_0" ref="V103"/>
+    <hyperlink r:id="rId321" ref="X103"/>
+    <hyperlink r:id="rId322" ref="AB103"/>
+    <hyperlink r:id="rId323" ref="AD103"/>
+    <hyperlink r:id="rId324" ref="AJ103"/>
+    <hyperlink r:id="rId325" ref="L111"/>
+    <hyperlink r:id="rId326" ref="R111"/>
+    <hyperlink r:id="rId327" ref="T111"/>
+    <hyperlink r:id="rId328" ref="X111"/>
+    <hyperlink r:id="rId329" location="gid=1586758783" ref="Z111"/>
+    <hyperlink r:id="rId330" ref="AB111"/>
+    <hyperlink r:id="rId331" ref="AJ111"/>
+    <hyperlink r:id="rId332" location="gid=980550210" ref="AL111"/>
+    <hyperlink r:id="rId333" ref="AN111"/>
+    <hyperlink r:id="rId334" ref="J114"/>
+    <hyperlink r:id="rId335" ref="L114"/>
+    <hyperlink r:id="rId336" ref="N114"/>
+    <hyperlink r:id="rId337" ref="P114"/>
+    <hyperlink r:id="rId338" ref="J115"/>
+    <hyperlink r:id="rId339" ref="L115"/>
+    <hyperlink r:id="rId340" ref="N115"/>
+    <hyperlink r:id="rId341" ref="P115"/>
+    <hyperlink r:id="rId342" ref="T115"/>
+    <hyperlink r:id="rId343" ref="X115"/>
+    <hyperlink r:id="rId344" location="gid=1064681298" ref="Z115"/>
+    <hyperlink r:id="rId345" ref="AB115"/>
+    <hyperlink r:id="rId346" ref="AD115"/>
+    <hyperlink r:id="rId347" ref="AF115"/>
+    <hyperlink r:id="rId348" ref="AH115"/>
+    <hyperlink r:id="rId349" ref="AL115"/>
+    <hyperlink r:id="rId350" ref="L118"/>
+    <hyperlink r:id="rId351" ref="N118"/>
+    <hyperlink r:id="rId352" ref="P118"/>
+    <hyperlink r:id="rId353" location="slide=id.g3b70900641_0_0" ref="V118"/>
+    <hyperlink r:id="rId354" ref="X118"/>
+    <hyperlink r:id="rId355" ref="Z118"/>
+    <hyperlink r:id="rId356" ref="AB118"/>
+    <hyperlink r:id="rId357" ref="AF118"/>
+    <hyperlink r:id="rId358" ref="J120"/>
+    <hyperlink r:id="rId359" ref="L120"/>
+    <hyperlink r:id="rId360" ref="N120"/>
+    <hyperlink r:id="rId361" ref="J123"/>
+    <hyperlink r:id="rId362" ref="L123"/>
+    <hyperlink r:id="rId363" ref="N123"/>
+    <hyperlink r:id="rId364" ref="P123"/>
+    <hyperlink r:id="rId365" ref="R123"/>
+    <hyperlink r:id="rId366" ref="T123"/>
+    <hyperlink r:id="rId367" location="slide=id.g3b70900641_0_0" ref="V123"/>
+    <hyperlink r:id="rId368" ref="X123"/>
+    <hyperlink r:id="rId369" location="gid=0" ref="Z123"/>
+    <hyperlink r:id="rId370" ref="AB123"/>
+    <hyperlink r:id="rId371" ref="AD123"/>
+    <hyperlink r:id="rId372" ref="AH123"/>
+    <hyperlink r:id="rId373" ref="AJ123"/>
+    <hyperlink r:id="rId374" ref="AL123"/>
+    <hyperlink r:id="rId375" ref="AN123"/>
+    <hyperlink r:id="rId376" ref="L127"/>
+    <hyperlink r:id="rId377" ref="N127"/>
+    <hyperlink r:id="rId378" ref="J128"/>
+    <hyperlink r:id="rId379" ref="L128"/>
+    <hyperlink r:id="rId380" ref="N128"/>
+    <hyperlink r:id="rId381" ref="P128"/>
+    <hyperlink r:id="rId382" ref="R128"/>
+    <hyperlink r:id="rId383" ref="T128"/>
+    <hyperlink r:id="rId384" location="slide=id.g3b70900641_0_0" ref="V128"/>
+    <hyperlink r:id="rId385" ref="X128"/>
+    <hyperlink r:id="rId386" ref="Z128"/>
+    <hyperlink r:id="rId387" ref="AB128"/>
+    <hyperlink r:id="rId388" ref="AD128"/>
+    <hyperlink r:id="rId389" ref="AF128"/>
+    <hyperlink r:id="rId390" ref="AH128"/>
+    <hyperlink r:id="rId391" ref="AJ128"/>
+    <hyperlink r:id="rId392" ref="AL128"/>
+    <hyperlink r:id="rId393" ref="AN128"/>
+    <hyperlink r:id="rId394" ref="L129"/>
+    <hyperlink r:id="rId395" ref="N129"/>
+    <hyperlink r:id="rId396" ref="P129"/>
+    <hyperlink r:id="rId397" ref="R129"/>
+    <hyperlink r:id="rId398" ref="T129"/>
+    <hyperlink r:id="rId399" ref="V129"/>
+    <hyperlink r:id="rId400" ref="X129"/>
+    <hyperlink r:id="rId401" ref="J130"/>
+    <hyperlink r:id="rId402" ref="N130"/>
+    <hyperlink r:id="rId403" ref="P130"/>
+    <hyperlink r:id="rId404" ref="T130"/>
+    <hyperlink r:id="rId405" ref="Z130"/>
+    <hyperlink r:id="rId406" ref="AD130"/>
+    <hyperlink r:id="rId407" ref="AF130"/>
+    <hyperlink r:id="rId408" ref="AJ130"/>
+    <hyperlink r:id="rId409" ref="AL130"/>
+    <hyperlink r:id="rId410" ref="J131"/>
+    <hyperlink r:id="rId411" ref="L131"/>
+    <hyperlink r:id="rId412" ref="N131"/>
+    <hyperlink r:id="rId413" ref="P131"/>
+    <hyperlink r:id="rId414" ref="R131"/>
+    <hyperlink r:id="rId415" ref="T131"/>
+    <hyperlink r:id="rId416" ref="V131"/>
+    <hyperlink r:id="rId417" ref="X131"/>
+    <hyperlink r:id="rId418" location="gid=0" ref="Z131"/>
+    <hyperlink r:id="rId419" ref="AB131"/>
+    <hyperlink r:id="rId420" ref="AD131"/>
+    <hyperlink r:id="rId421" ref="AF131"/>
+    <hyperlink r:id="rId422" ref="AH131"/>
+    <hyperlink r:id="rId423" ref="AJ131"/>
+    <hyperlink r:id="rId424" ref="AL131"/>
+    <hyperlink r:id="rId425" ref="AN131"/>
+    <hyperlink r:id="rId426" ref="J138"/>
+    <hyperlink r:id="rId427" ref="L138"/>
+    <hyperlink r:id="rId428" ref="N138"/>
+    <hyperlink r:id="rId429" ref="P138"/>
+    <hyperlink r:id="rId430" ref="R138"/>
+    <hyperlink r:id="rId431" ref="T138"/>
+    <hyperlink r:id="rId432" ref="V138"/>
+    <hyperlink r:id="rId433" ref="X138"/>
+    <hyperlink r:id="rId434" ref="Z138"/>
+    <hyperlink r:id="rId435" ref="AB138"/>
+    <hyperlink r:id="rId436" ref="AD138"/>
+    <hyperlink r:id="rId437" ref="AF138"/>
+    <hyperlink r:id="rId438" ref="AH138"/>
+    <hyperlink r:id="rId439" ref="AJ138"/>
+    <hyperlink r:id="rId440" ref="AL138"/>
+    <hyperlink r:id="rId441" ref="AN138"/>
+    <hyperlink r:id="rId442" ref="J139"/>
+    <hyperlink r:id="rId443" ref="L139"/>
+    <hyperlink r:id="rId444" ref="N139"/>
+    <hyperlink r:id="rId445" ref="P139"/>
+    <hyperlink r:id="rId446" ref="R139"/>
+    <hyperlink r:id="rId447" ref="T139"/>
+    <hyperlink r:id="rId448" location="slide=id.g3a4571af9b_0_0" ref="V139"/>
+    <hyperlink r:id="rId449" ref="X139"/>
+    <hyperlink r:id="rId450" location="gid=0" ref="Z139"/>
+    <hyperlink r:id="rId451" ref="AB139"/>
+    <hyperlink r:id="rId452" ref="AD139"/>
+    <hyperlink r:id="rId453" ref="AF139"/>
+    <hyperlink r:id="rId454" ref="AH139"/>
+    <hyperlink r:id="rId455" ref="AJ139"/>
+    <hyperlink r:id="rId456" ref="AL139"/>
+    <hyperlink r:id="rId457" ref="AN139"/>
+    <hyperlink r:id="rId458" ref="L141"/>
+    <hyperlink r:id="rId459" ref="P141"/>
+    <hyperlink r:id="rId460" ref="R141"/>
+    <hyperlink r:id="rId461" ref="T141"/>
+    <hyperlink r:id="rId462" location="slide=id.g3b70900641_0_0" ref="V141"/>
+    <hyperlink r:id="rId463" ref="X141"/>
+    <hyperlink r:id="rId464" ref="Z141"/>
+    <hyperlink r:id="rId465" ref="AB141"/>
+    <hyperlink r:id="rId466" ref="AF141"/>
+    <hyperlink r:id="rId467" ref="AH141"/>
+    <hyperlink r:id="rId468" ref="AJ141"/>
+    <hyperlink r:id="rId469" ref="AL141"/>
+    <hyperlink r:id="rId470" ref="AN141"/>
   </hyperlinks>
-  <drawing r:id="rId451"/>
+  <drawing r:id="rId471"/>
   <tableParts count="1">
-    <tablePart r:id="rId453"/>
+    <tablePart r:id="rId473"/>
   </tableParts>
 </worksheet>
 </file>